--- a/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
+++ b/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="621">
   <si>
     <t>Description</t>
   </si>
@@ -1862,9 +1862,6 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>PUT /v1/users/13</t>
-  </si>
-  <si>
     <t>GET /v1/users/13/posts</t>
   </si>
   <si>
@@ -1923,26 +1920,18 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>/v1/users/{user_id}</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>/v1/users/{user_id}/posts</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
+    <t>http://{domain}/v1/users/{user_id}/posts</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
     <t>http://{domain}/v1/users/{user_id}</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>http://{domain}/v1/users/{user_id}/posts</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>http://{domain}/v1/users/{user_id}</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t xml:space="preserve">GET /v1/posts?limit=20&amp;offset=20&amp;order=date </t>
     <phoneticPr fontId="14"/>
   </si>
@@ -2260,6 +2249,38 @@
   </si>
   <si>
     <t>Update user failed</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>/v1/users/</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>PUT /v1/users/</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>http://{domain}/v1/users/</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2010</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2011</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Email is invalid</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>You are not login!</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -2738,7 +2759,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="424">
+  <cellStyleXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3020,6 +3041,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3692,48 +3715,44 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3765,6 +3784,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3792,6 +3821,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3804,43 +3848,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3888,16 +3911,25 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3911,22 +3943,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3938,6 +3958,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3946,6 +3969,16 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3957,12 +3990,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3977,10 +4004,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3988,7 +4011,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="424">
+  <cellStyles count="426">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4337,6 +4360,8 @@
     <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -14207,7 +14232,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>PUT /v1/users/user-id HTTP/1.1</a:t>
+            <a:t>PUT /v1/users/ HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21867,303 +21892,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="232" t="s">
+      <c r="B1" s="261"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="234" t="s">
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="235"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="237" t="s">
+      <c r="L1" s="269"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="240" t="s">
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="251"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="241"/>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="241"/>
-      <c r="AD1" s="242"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
+      <c r="Y1" s="272"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="272"/>
+      <c r="AD1" s="273"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="260" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="232" t="s">
+      <c r="B2" s="261"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="263" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="246" t="s">
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="247"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="258" t="s">
+      <c r="L2" s="246"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="265" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="259"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="243" t="s">
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="266"/>
+      <c r="T2" s="266"/>
+      <c r="U2" s="267"/>
+      <c r="V2" s="242" t="s">
         <v>149</v>
       </c>
-      <c r="W2" s="244"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="243" t="s">
+      <c r="W2" s="243"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="243" t="s">
+      <c r="Z2" s="243"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="245"/>
+      <c r="AC2" s="243"/>
+      <c r="AD2" s="244"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249" t="s">
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="246" t="s">
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="247"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="237" t="s">
+      <c r="L3" s="246"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="238"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="238"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="251" t="s">
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="253" t="s">
         <v>511</v>
       </c>
-      <c r="W3" s="252"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="254">
+      <c r="W3" s="254"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="256">
         <v>41997</v>
       </c>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="257">
+      <c r="Z3" s="257"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="259">
         <v>42003</v>
       </c>
-      <c r="AC3" s="255"/>
-      <c r="AD3" s="256"/>
+      <c r="AC3" s="257"/>
+      <c r="AD3" s="258"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="273" t="s">
+      <c r="B8" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="273"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273" t="s">
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273" t="s">
+      <c r="G8" s="240"/>
+      <c r="H8" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="273"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="273" t="s">
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="273"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="273"/>
-      <c r="P8" s="273"/>
-      <c r="Q8" s="273"/>
-      <c r="R8" s="273"/>
-      <c r="S8" s="273"/>
-      <c r="T8" s="273"/>
-      <c r="U8" s="273"/>
-      <c r="V8" s="273"/>
-      <c r="W8" s="273"/>
-      <c r="X8" s="273" t="s">
+      <c r="L8" s="240"/>
+      <c r="M8" s="240"/>
+      <c r="N8" s="240"/>
+      <c r="O8" s="240"/>
+      <c r="P8" s="240"/>
+      <c r="Q8" s="240"/>
+      <c r="R8" s="240"/>
+      <c r="S8" s="240"/>
+      <c r="T8" s="240"/>
+      <c r="U8" s="240"/>
+      <c r="V8" s="240"/>
+      <c r="W8" s="240"/>
+      <c r="X8" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="273"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
+      <c r="Y8" s="240"/>
+      <c r="Z8" s="240"/>
+      <c r="AA8" s="240"/>
+      <c r="AB8" s="240"/>
+      <c r="AC8" s="240"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="261">
+      <c r="B9" s="241">
         <v>41997</v>
       </c>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="264" t="s">
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="232" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="265"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="268"/>
-      <c r="M9" s="268"/>
-      <c r="N9" s="268"/>
-      <c r="O9" s="268"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="268"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="268"/>
-      <c r="T9" s="268"/>
-      <c r="U9" s="268"/>
-      <c r="V9" s="268"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="270"/>
-      <c r="Y9" s="271"/>
-      <c r="Z9" s="271"/>
-      <c r="AA9" s="271"/>
-      <c r="AB9" s="271"/>
-      <c r="AC9" s="272"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="235"/>
+      <c r="O9" s="235"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="235"/>
+      <c r="W9" s="236"/>
+      <c r="X9" s="237"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="238"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="239"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="266"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="267"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="268"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="268"/>
-      <c r="P10" s="268"/>
-      <c r="Q10" s="268"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="268"/>
-      <c r="T10" s="268"/>
-      <c r="U10" s="268"/>
-      <c r="V10" s="268"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="270"/>
-      <c r="Y10" s="271"/>
-      <c r="Z10" s="271"/>
-      <c r="AA10" s="271"/>
-      <c r="AB10" s="271"/>
-      <c r="AC10" s="272"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="232"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="235"/>
+      <c r="N10" s="235"/>
+      <c r="O10" s="235"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="235"/>
+      <c r="U10" s="235"/>
+      <c r="V10" s="235"/>
+      <c r="W10" s="236"/>
+      <c r="X10" s="237"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="239"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="266"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="264"/>
-      <c r="G11" s="265"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="262"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="267"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="270"/>
-      <c r="Y11" s="271"/>
-      <c r="Z11" s="271"/>
-      <c r="AA11" s="271"/>
-      <c r="AB11" s="271"/>
-      <c r="AC11" s="272"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="231"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="235"/>
+      <c r="N11" s="235"/>
+      <c r="O11" s="235"/>
+      <c r="P11" s="235"/>
+      <c r="Q11" s="235"/>
+      <c r="R11" s="235"/>
+      <c r="S11" s="235"/>
+      <c r="T11" s="235"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="235"/>
+      <c r="W11" s="236"/>
+      <c r="X11" s="237"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="239"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="266"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="264"/>
-      <c r="G12" s="265"/>
-      <c r="H12" s="266"/>
-      <c r="I12" s="262"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="267"/>
-      <c r="L12" s="268"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="268"/>
-      <c r="U12" s="268"/>
-      <c r="V12" s="268"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="270"/>
-      <c r="Y12" s="271"/>
-      <c r="Z12" s="271"/>
-      <c r="AA12" s="271"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="272"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="233"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="235"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="235"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="235"/>
+      <c r="V12" s="235"/>
+      <c r="W12" s="236"/>
+      <c r="X12" s="237"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="239"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -22193,31 +22218,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -22232,11 +22237,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22296,7 +22321,7 @@
         <v>439</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C2" s="168"/>
       <c r="D2" s="168"/>
@@ -22336,15 +22361,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
-        <v>607</v>
-      </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="C4" s="290" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -22357,15 +22382,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
-        <v>608</v>
-      </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="C5" s="290" t="s">
+        <v>605</v>
+      </c>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -22379,7 +22404,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="224" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D6" s="227"/>
       <c r="E6" s="227"/>
@@ -22399,15 +22424,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
-        <v>610</v>
-      </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="C7" s="290" t="s">
+        <v>607</v>
+      </c>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -22421,7 +22446,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="224" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D8" s="227"/>
       <c r="E8" s="227"/>
@@ -22441,15 +22466,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -22512,19 +22537,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -22553,11 +22578,11 @@
       <c r="I14" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -22586,11 +22611,11 @@
       <c r="I15" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="305" t="s">
         <v>460</v>
       </c>
-      <c r="K15" s="307"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="168"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
@@ -22735,11 +22760,11 @@
     </row>
     <row r="24" spans="1:15" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A24" s="144"/>
-      <c r="B24" s="298" t="s">
+      <c r="B24" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="D24" s="298"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
       <c r="E24" s="179"/>
       <c r="F24" s="180"/>
       <c r="G24" s="179"/>
@@ -22754,12 +22779,12 @@
     </row>
     <row r="25" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="182"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="295"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="300"/>
       <c r="F25" s="228" t="s">
         <v>125</v>
       </c>
@@ -22851,10 +22876,10 @@
       <c r="A28" s="168"/>
       <c r="B28" s="184"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="291" t="s">
+      <c r="D28" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="290"/>
+      <c r="E28" s="292"/>
       <c r="F28" s="139" t="s">
         <v>435</v>
       </c>
@@ -22884,10 +22909,10 @@
       <c r="A29" s="168"/>
       <c r="B29" s="184"/>
       <c r="C29" s="190"/>
-      <c r="D29" s="291" t="s">
+      <c r="D29" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="290"/>
+      <c r="E29" s="292"/>
       <c r="F29" s="139" t="s">
         <v>192</v>
       </c>
@@ -22931,7 +22956,7 @@
         <v>185</v>
       </c>
       <c r="I30" s="140" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J30" s="140" t="s">
         <v>137</v>
@@ -23324,11 +23349,11 @@
     </row>
     <row r="53" spans="1:15" ht="19" customHeight="1">
       <c r="A53" s="168"/>
-      <c r="B53" s="292" t="s">
+      <c r="B53" s="304" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="292"/>
-      <c r="D53" s="292"/>
+      <c r="C53" s="304"/>
+      <c r="D53" s="304"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
       <c r="G53" s="168"/>
@@ -23343,12 +23368,12 @@
     </row>
     <row r="54" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="182"/>
-      <c r="B54" s="293" t="s">
+      <c r="B54" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="294"/>
-      <c r="D54" s="294"/>
-      <c r="E54" s="295"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="300"/>
       <c r="F54" s="228" t="s">
         <v>125</v>
       </c>
@@ -23440,10 +23465,10 @@
       <c r="A57" s="168"/>
       <c r="B57" s="184"/>
       <c r="C57" s="189"/>
-      <c r="D57" s="291" t="s">
+      <c r="D57" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="290"/>
+      <c r="E57" s="292"/>
       <c r="F57" s="139" t="s">
         <v>435</v>
       </c>
@@ -23473,12 +23498,12 @@
       <c r="A58" s="168"/>
       <c r="B58" s="184"/>
       <c r="C58" s="189"/>
-      <c r="D58" s="289" t="s">
+      <c r="D58" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="305"/>
+      <c r="E58" s="308"/>
       <c r="F58" s="139" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G58" s="140" t="s">
         <v>137</v>
@@ -23496,7 +23521,7 @@
         <v>137</v>
       </c>
       <c r="L58" s="141" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M58" s="168"/>
       <c r="N58" s="168"/>
@@ -23537,8 +23562,8 @@
       <c r="A60" s="168"/>
       <c r="B60" s="192"/>
       <c r="C60" s="190"/>
-      <c r="D60" s="291"/>
-      <c r="E60" s="290"/>
+      <c r="D60" s="290"/>
+      <c r="E60" s="292"/>
       <c r="F60" s="139"/>
       <c r="G60" s="140"/>
       <c r="H60" s="140"/>
@@ -23928,22 +23953,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24048,16 +24073,16 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="292"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
       <c r="M4" s="168"/>
@@ -24070,16 +24095,16 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="292"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
       <c r="M5" s="168"/>
@@ -24093,7 +24118,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -24114,16 +24139,16 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="292"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
       <c r="M7" s="168"/>
@@ -24158,16 +24183,16 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="292"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
       <c r="M9" s="168"/>
@@ -24233,20 +24258,20 @@
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="301"/>
-      <c r="M13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="295"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
       <c r="P13" s="168"/>
@@ -24276,11 +24301,11 @@
       <c r="J14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="303" t="s">
+      <c r="K14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="303"/>
-      <c r="M14" s="303"/>
+      <c r="L14" s="296"/>
+      <c r="M14" s="296"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
       <c r="P14" s="168"/>
@@ -24310,11 +24335,11 @@
       <c r="J15" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="K15" s="306" t="s">
+      <c r="K15" s="305" t="s">
         <v>460</v>
       </c>
-      <c r="L15" s="307"/>
-      <c r="M15" s="308"/>
+      <c r="L15" s="306"/>
+      <c r="M15" s="307"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
       <c r="P15" s="168"/>
@@ -24467,11 +24492,11 @@
     </row>
     <row r="24" spans="1:16" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A24" s="144"/>
-      <c r="B24" s="298" t="s">
+      <c r="B24" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="D24" s="298"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
       <c r="E24" s="179"/>
       <c r="F24" s="179"/>
       <c r="G24" s="180"/>
@@ -24487,13 +24512,13 @@
     </row>
     <row r="25" spans="1:16" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="182"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="295"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="300"/>
       <c r="G25" s="174" t="s">
         <v>125</v>
       </c>
@@ -24587,10 +24612,10 @@
       <c r="A28" s="168"/>
       <c r="B28" s="184"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="291" t="s">
+      <c r="D28" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="299"/>
+      <c r="E28" s="291"/>
       <c r="F28" s="165"/>
       <c r="G28" s="139" t="s">
         <v>435</v>
@@ -24655,10 +24680,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="190"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="299"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="165"/>
       <c r="G30" s="139" t="s">
         <v>192</v>
@@ -24792,10 +24817,10 @@
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
       <c r="D34" s="191"/>
-      <c r="E34" s="291" t="s">
+      <c r="E34" s="290" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="290"/>
+      <c r="F34" s="292"/>
       <c r="G34" s="139" t="s">
         <v>163</v>
       </c>
@@ -24826,10 +24851,10 @@
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
       <c r="D35" s="178"/>
-      <c r="E35" s="291" t="s">
+      <c r="E35" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="290"/>
+      <c r="F35" s="292"/>
       <c r="G35" s="139" t="s">
         <v>173</v>
       </c>
@@ -24860,10 +24885,10 @@
       <c r="B36" s="184"/>
       <c r="C36" s="189"/>
       <c r="D36" s="178"/>
-      <c r="E36" s="291" t="s">
+      <c r="E36" s="290" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="290"/>
+      <c r="F36" s="292"/>
       <c r="G36" s="139" t="s">
         <v>174</v>
       </c>
@@ -25063,7 +25088,7 @@
       </c>
       <c r="F42" s="165"/>
       <c r="G42" s="139" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H42" s="140" t="s">
         <v>164</v>
@@ -25097,7 +25122,7 @@
       </c>
       <c r="F43" s="165"/>
       <c r="G43" s="139" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H43" s="140" t="s">
         <v>164</v>
@@ -25879,11 +25904,11 @@
     </row>
     <row r="85" spans="1:16" ht="19" customHeight="1">
       <c r="A85" s="168"/>
-      <c r="B85" s="292" t="s">
+      <c r="B85" s="304" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="292"/>
-      <c r="D85" s="292"/>
+      <c r="C85" s="304"/>
+      <c r="D85" s="304"/>
       <c r="E85" s="168"/>
       <c r="F85" s="168"/>
       <c r="G85" s="168"/>
@@ -25899,12 +25924,12 @@
     </row>
     <row r="86" spans="1:16" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A86" s="182"/>
-      <c r="B86" s="293" t="s">
+      <c r="B86" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="294"/>
-      <c r="D86" s="294"/>
-      <c r="E86" s="295"/>
+      <c r="C86" s="299"/>
+      <c r="D86" s="299"/>
+      <c r="E86" s="300"/>
       <c r="F86" s="203"/>
       <c r="G86" s="174" t="s">
         <v>125</v>
@@ -26001,10 +26026,10 @@
       <c r="A89" s="168"/>
       <c r="B89" s="184"/>
       <c r="C89" s="189"/>
-      <c r="D89" s="291" t="s">
+      <c r="D89" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E89" s="290"/>
+      <c r="E89" s="292"/>
       <c r="F89" s="165"/>
       <c r="G89" s="139" t="s">
         <v>435</v>
@@ -26035,10 +26060,10 @@
       <c r="A90" s="168"/>
       <c r="B90" s="184"/>
       <c r="C90" s="189"/>
-      <c r="D90" s="291" t="s">
+      <c r="D90" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="290"/>
+      <c r="E90" s="292"/>
       <c r="F90" s="165"/>
       <c r="G90" s="139" t="s">
         <v>215</v>
@@ -26137,8 +26162,8 @@
       <c r="A93" s="168"/>
       <c r="B93" s="192"/>
       <c r="C93" s="190"/>
-      <c r="D93" s="291"/>
-      <c r="E93" s="290"/>
+      <c r="D93" s="290"/>
+      <c r="E93" s="292"/>
       <c r="F93" s="165"/>
       <c r="G93" s="139"/>
       <c r="H93" s="140"/>
@@ -26551,12 +26576,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
@@ -26570,6 +26589,12 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26669,15 +26694,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -26690,15 +26715,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -26712,7 +26737,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -26732,15 +26757,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -26774,15 +26799,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -26845,19 +26870,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -26886,11 +26911,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -27137,12 +27162,12 @@
     </row>
     <row r="27" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="293" t="s">
+      <c r="B27" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="295"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="300"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -27234,10 +27259,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="189"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="290"/>
+      <c r="E30" s="292"/>
       <c r="F30" s="139" t="s">
         <v>435</v>
       </c>
@@ -27267,10 +27292,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="190"/>
-      <c r="D31" s="291" t="s">
+      <c r="D31" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="290"/>
+      <c r="E31" s="292"/>
       <c r="F31" s="139" t="s">
         <v>192</v>
       </c>
@@ -27333,10 +27358,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="291" t="s">
+      <c r="D33" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="290"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="139" t="s">
         <v>196</v>
       </c>
@@ -27366,10 +27391,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
-      <c r="D34" s="296" t="s">
+      <c r="D34" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="297"/>
+      <c r="E34" s="302"/>
       <c r="F34" s="139" t="s">
         <v>163</v>
       </c>
@@ -27399,10 +27424,10 @@
       <c r="A35" s="168"/>
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="291" t="s">
+      <c r="D35" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="290"/>
+      <c r="E35" s="292"/>
       <c r="F35" s="139" t="s">
         <v>173</v>
       </c>
@@ -27465,10 +27490,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="290"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="141" t="s">
         <v>385</v>
       </c>
@@ -27496,10 +27521,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="189"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="141" t="s">
         <v>389</v>
       </c>
@@ -27527,10 +27552,10 @@
       <c r="A39" s="168"/>
       <c r="B39" s="184"/>
       <c r="C39" s="189"/>
-      <c r="D39" s="291" t="s">
+      <c r="D39" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="E39" s="290"/>
+      <c r="E39" s="292"/>
       <c r="F39" s="141" t="s">
         <v>393</v>
       </c>
@@ -27560,10 +27585,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="291" t="s">
+      <c r="D40" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="290"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="141" t="s">
         <v>182</v>
       </c>
@@ -27593,10 +27618,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="189"/>
-      <c r="D41" s="291" t="s">
+      <c r="D41" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E41" s="290"/>
+      <c r="E41" s="292"/>
       <c r="F41" s="141" t="s">
         <v>397</v>
       </c>
@@ -27624,10 +27649,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="291" t="s">
+      <c r="D42" s="290" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="290"/>
+      <c r="E42" s="292"/>
       <c r="F42" s="141" t="s">
         <v>401</v>
       </c>
@@ -27655,10 +27680,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="189"/>
-      <c r="D43" s="291" t="s">
+      <c r="D43" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="E43" s="290"/>
+      <c r="E43" s="292"/>
       <c r="F43" s="141" t="s">
         <v>405</v>
       </c>
@@ -27687,27 +27712,27 @@
       <c r="B44" s="310"/>
       <c r="C44" s="310"/>
       <c r="D44" s="217" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E44" s="216"/>
       <c r="F44" s="139" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G44" s="140" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H44" s="140"/>
       <c r="I44" s="140">
         <v>1</v>
       </c>
       <c r="J44" s="140" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K44" s="140" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L44" s="141" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M44" s="168"/>
       <c r="N44" s="168"/>
@@ -27718,24 +27743,24 @@
       <c r="B45" s="311"/>
       <c r="C45" s="311"/>
       <c r="D45" s="217" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E45" s="216"/>
       <c r="F45" s="139" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G45" s="140" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H45" s="140"/>
       <c r="I45" s="140">
         <v>1</v>
       </c>
       <c r="J45" s="140" t="s">
+        <v>568</v>
+      </c>
+      <c r="K45" s="140" t="s">
         <v>571</v>
-      </c>
-      <c r="K45" s="140" t="s">
-        <v>574</v>
       </c>
       <c r="L45" s="218" t="s">
         <v>411</v>
@@ -28464,12 +28489,12 @@
     </row>
     <row r="88" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A88" s="182"/>
-      <c r="B88" s="293" t="s">
+      <c r="B88" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="294"/>
-      <c r="D88" s="294"/>
-      <c r="E88" s="295"/>
+      <c r="C88" s="299"/>
+      <c r="D88" s="299"/>
+      <c r="E88" s="300"/>
       <c r="F88" s="174" t="s">
         <v>125</v>
       </c>
@@ -28563,10 +28588,10 @@
       <c r="A91" s="168"/>
       <c r="B91" s="184"/>
       <c r="C91" s="189"/>
-      <c r="D91" s="291" t="s">
+      <c r="D91" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E91" s="290"/>
+      <c r="E91" s="292"/>
       <c r="F91" s="139" t="s">
         <v>435</v>
       </c>
@@ -28596,10 +28621,10 @@
       <c r="A92" s="168"/>
       <c r="B92" s="184"/>
       <c r="C92" s="189"/>
-      <c r="D92" s="291" t="s">
+      <c r="D92" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="290"/>
+      <c r="E92" s="292"/>
       <c r="F92" s="139" t="s">
         <v>215</v>
       </c>
@@ -28629,10 +28654,10 @@
       <c r="A93" s="168"/>
       <c r="B93" s="184"/>
       <c r="C93" s="189"/>
-      <c r="D93" s="289" t="s">
+      <c r="D93" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E93" s="305"/>
+      <c r="E93" s="308"/>
       <c r="F93" s="139" t="s">
         <v>218</v>
       </c>
@@ -28728,8 +28753,8 @@
       <c r="A96" s="168"/>
       <c r="B96" s="192"/>
       <c r="C96" s="190"/>
-      <c r="D96" s="291"/>
-      <c r="E96" s="290"/>
+      <c r="D96" s="290"/>
+      <c r="E96" s="292"/>
       <c r="F96" s="139"/>
       <c r="G96" s="140"/>
       <c r="H96" s="140"/>
@@ -29119,12 +29144,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -29137,16 +29166,12 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29247,15 +29272,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -29268,15 +29293,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -29290,7 +29315,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -29310,15 +29335,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -29352,15 +29377,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -29423,19 +29448,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -29464,11 +29489,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -29682,12 +29707,12 @@
     </row>
     <row r="26" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="182"/>
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="295"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="299"/>
+      <c r="E26" s="300"/>
       <c r="F26" s="174" t="s">
         <v>125</v>
       </c>
@@ -29779,10 +29804,10 @@
       <c r="A29" s="168"/>
       <c r="B29" s="184"/>
       <c r="C29" s="189"/>
-      <c r="D29" s="291" t="s">
+      <c r="D29" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="290"/>
+      <c r="E29" s="292"/>
       <c r="F29" s="139" t="s">
         <v>435</v>
       </c>
@@ -29812,10 +29837,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="190"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="290"/>
+      <c r="E30" s="292"/>
       <c r="F30" s="139" t="s">
         <v>192</v>
       </c>
@@ -29878,10 +29903,10 @@
       <c r="A32" s="168"/>
       <c r="B32" s="184"/>
       <c r="C32" s="191"/>
-      <c r="D32" s="291" t="s">
+      <c r="D32" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="290"/>
+      <c r="E32" s="292"/>
       <c r="F32" s="139" t="s">
         <v>196</v>
       </c>
@@ -29911,10 +29936,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="296" t="s">
+      <c r="D33" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="297"/>
+      <c r="E33" s="302"/>
       <c r="F33" s="139" t="s">
         <v>163</v>
       </c>
@@ -29944,10 +29969,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="189"/>
-      <c r="D34" s="291" t="s">
+      <c r="D34" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139" t="s">
         <v>173</v>
       </c>
@@ -30010,10 +30035,10 @@
       <c r="A36" s="168"/>
       <c r="B36" s="184"/>
       <c r="C36" s="189"/>
-      <c r="D36" s="291" t="s">
+      <c r="D36" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E36" s="290"/>
+      <c r="E36" s="292"/>
       <c r="F36" s="141" t="s">
         <v>385</v>
       </c>
@@ -30041,10 +30066,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>388</v>
       </c>
-      <c r="E37" s="290"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="141" t="s">
         <v>389</v>
       </c>
@@ -30072,10 +30097,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="189"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="141" t="s">
         <v>393</v>
       </c>
@@ -30105,10 +30130,10 @@
       <c r="A39" s="168"/>
       <c r="B39" s="184"/>
       <c r="C39" s="189"/>
-      <c r="D39" s="291" t="s">
+      <c r="D39" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="290"/>
+      <c r="E39" s="292"/>
       <c r="F39" s="141" t="s">
         <v>182</v>
       </c>
@@ -30138,10 +30163,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="291" t="s">
+      <c r="D40" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E40" s="290"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="141" t="s">
         <v>397</v>
       </c>
@@ -30169,10 +30194,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="189"/>
-      <c r="D41" s="291" t="s">
+      <c r="D41" s="290" t="s">
         <v>400</v>
       </c>
-      <c r="E41" s="290"/>
+      <c r="E41" s="292"/>
       <c r="F41" s="141" t="s">
         <v>401</v>
       </c>
@@ -30200,10 +30225,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="291" t="s">
+      <c r="D42" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="E42" s="290"/>
+      <c r="E42" s="292"/>
       <c r="F42" s="141" t="s">
         <v>405</v>
       </c>
@@ -30231,12 +30256,12 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="189"/>
-      <c r="D43" s="291" t="s">
+      <c r="D43" s="290" t="s">
         <v>408</v>
       </c>
-      <c r="E43" s="290"/>
+      <c r="E43" s="292"/>
       <c r="F43" s="141" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G43" s="140" t="s">
         <v>164</v>
@@ -30264,12 +30289,12 @@
       <c r="A44" s="168"/>
       <c r="B44" s="196"/>
       <c r="C44" s="190"/>
-      <c r="D44" s="291" t="s">
+      <c r="D44" s="290" t="s">
         <v>410</v>
       </c>
-      <c r="E44" s="290"/>
+      <c r="E44" s="292"/>
       <c r="F44" s="141" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G44" s="140" t="s">
         <v>164</v>
@@ -30792,12 +30817,12 @@
     </row>
     <row r="74" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A74" s="182"/>
-      <c r="B74" s="293" t="s">
+      <c r="B74" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="294"/>
-      <c r="D74" s="294"/>
-      <c r="E74" s="295"/>
+      <c r="C74" s="299"/>
+      <c r="D74" s="299"/>
+      <c r="E74" s="300"/>
       <c r="F74" s="174" t="s">
         <v>125</v>
       </c>
@@ -30889,10 +30914,10 @@
       <c r="A77" s="168"/>
       <c r="B77" s="184"/>
       <c r="C77" s="189"/>
-      <c r="D77" s="291" t="s">
+      <c r="D77" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E77" s="290"/>
+      <c r="E77" s="292"/>
       <c r="F77" s="139" t="s">
         <v>435</v>
       </c>
@@ -30922,10 +30947,10 @@
       <c r="A78" s="168"/>
       <c r="B78" s="184"/>
       <c r="C78" s="189"/>
-      <c r="D78" s="291" t="s">
+      <c r="D78" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="290"/>
+      <c r="E78" s="292"/>
       <c r="F78" s="139" t="s">
         <v>215</v>
       </c>
@@ -30955,10 +30980,10 @@
       <c r="A79" s="168"/>
       <c r="B79" s="184"/>
       <c r="C79" s="189"/>
-      <c r="D79" s="289" t="s">
+      <c r="D79" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E79" s="305"/>
+      <c r="E79" s="308"/>
       <c r="F79" s="139" t="s">
         <v>218</v>
       </c>
@@ -31052,8 +31077,8 @@
       <c r="A82" s="168"/>
       <c r="B82" s="192"/>
       <c r="C82" s="190"/>
-      <c r="D82" s="291"/>
-      <c r="E82" s="290"/>
+      <c r="D82" s="290"/>
+      <c r="E82" s="292"/>
       <c r="F82" s="139"/>
       <c r="G82" s="140"/>
       <c r="H82" s="140"/>
@@ -31443,12 +31468,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:E74"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
@@ -31461,16 +31490,12 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31570,15 +31595,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31591,15 +31616,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31633,15 +31658,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31675,15 +31700,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31746,19 +31771,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31787,11 +31812,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31818,11 +31843,11 @@
       <c r="I15" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31849,11 +31874,11 @@
       <c r="I16" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -31899,9 +31924,9 @@
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="75"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="315"/>
-      <c r="L18" s="316"/>
+      <c r="J18" s="312"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -31916,9 +31941,9 @@
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="317"/>
-      <c r="K19" s="315"/>
-      <c r="L19" s="316"/>
+      <c r="J19" s="312"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="313"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -32080,11 +32105,11 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="323" t="s">
+      <c r="B29" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="323"/>
-      <c r="D29" s="323"/>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="82"/>
@@ -32099,12 +32124,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="312" t="s">
+      <c r="B30" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="313"/>
-      <c r="D30" s="313"/>
-      <c r="E30" s="314"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="317"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="154" t="s">
         <v>125</v>
       </c>
@@ -32196,10 +32221,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="317" t="s">
+      <c r="D33" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="316"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -32229,10 +32254,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="317" t="s">
+      <c r="D34" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="74" t="s">
         <v>192</v>
       </c>
@@ -32276,7 +32301,7 @@
         <v>185</v>
       </c>
       <c r="I35" s="140" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J35" s="76" t="s">
         <v>137</v>
@@ -32295,10 +32320,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="87"/>
       <c r="C36" s="97"/>
-      <c r="D36" s="291" t="s">
+      <c r="D36" s="290" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="316"/>
+      <c r="E36" s="313"/>
       <c r="F36" s="139" t="s">
         <v>271</v>
       </c>
@@ -32328,10 +32353,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="296" t="s">
+      <c r="D37" s="301" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="324"/>
+      <c r="E37" s="314"/>
       <c r="F37" s="139" t="s">
         <v>274</v>
       </c>
@@ -32361,10 +32386,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="87"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>276</v>
       </c>
-      <c r="E38" s="316"/>
+      <c r="E38" s="313"/>
       <c r="F38" s="139" t="s">
         <v>277</v>
       </c>
@@ -32399,7 +32424,7 @@
       </c>
       <c r="E39" s="151"/>
       <c r="F39" s="139" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G39" s="76" t="s">
         <v>164</v>
@@ -32460,10 +32485,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="93"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="291" t="s">
+      <c r="D41" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="316"/>
+      <c r="E41" s="313"/>
       <c r="F41" s="139" t="s">
         <v>284</v>
       </c>
@@ -33071,11 +33096,11 @@
     </row>
     <row r="76" spans="1:15" ht="20" customHeight="1">
       <c r="A76" s="66"/>
-      <c r="B76" s="325" t="s">
+      <c r="B76" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="325"/>
-      <c r="D76" s="325"/>
+      <c r="C76" s="315"/>
+      <c r="D76" s="315"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -33092,12 +33117,12 @@
     </row>
     <row r="77" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A77" s="85"/>
-      <c r="B77" s="312" t="s">
+      <c r="B77" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="313"/>
-      <c r="D77" s="313"/>
-      <c r="E77" s="314"/>
+      <c r="C77" s="317"/>
+      <c r="D77" s="317"/>
+      <c r="E77" s="318"/>
       <c r="F77" s="154" t="s">
         <v>125</v>
       </c>
@@ -33189,10 +33214,10 @@
       <c r="A80" s="66"/>
       <c r="B80" s="87"/>
       <c r="C80" s="92"/>
-      <c r="D80" s="291" t="s">
+      <c r="D80" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E80" s="316"/>
+      <c r="E80" s="313"/>
       <c r="F80" s="74" t="s">
         <v>140</v>
       </c>
@@ -33222,10 +33247,10 @@
       <c r="A81" s="66"/>
       <c r="B81" s="87"/>
       <c r="C81" s="92"/>
-      <c r="D81" s="291" t="s">
+      <c r="D81" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="290"/>
+      <c r="E81" s="292"/>
       <c r="F81" s="139" t="s">
         <v>215</v>
       </c>
@@ -33255,10 +33280,10 @@
       <c r="A82" s="66"/>
       <c r="B82" s="87"/>
       <c r="C82" s="92"/>
-      <c r="D82" s="289" t="s">
+      <c r="D82" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E82" s="290"/>
+      <c r="E82" s="292"/>
       <c r="F82" s="139" t="s">
         <v>218</v>
       </c>
@@ -33352,8 +33377,8 @@
       <c r="A85" s="66"/>
       <c r="B85" s="93"/>
       <c r="C85" s="94"/>
-      <c r="D85" s="317"/>
-      <c r="E85" s="316"/>
+      <c r="D85" s="312"/>
+      <c r="E85" s="313"/>
       <c r="F85" s="74"/>
       <c r="G85" s="76"/>
       <c r="H85" s="76"/>
@@ -33743,6 +33768,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -33755,18 +33792,6 @@
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -33871,15 +33896,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33892,15 +33917,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33934,15 +33959,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33976,15 +34001,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -34047,19 +34072,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -34088,11 +34113,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34107,9 +34132,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="315"/>
-      <c r="L15" s="316"/>
+      <c r="J15" s="312"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -34271,11 +34296,11 @@
     </row>
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="323" t="s">
+      <c r="B25" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="323"/>
-      <c r="D25" s="323"/>
+      <c r="C25" s="325"/>
+      <c r="D25" s="325"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="82"/>
@@ -34290,12 +34315,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="312" t="s">
+      <c r="B26" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="314"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="318"/>
       <c r="F26" s="154" t="s">
         <v>125</v>
       </c>
@@ -34387,10 +34412,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="87"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="317" t="s">
+      <c r="D29" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="316"/>
+      <c r="E29" s="313"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -34420,10 +34445,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>192</v>
       </c>
@@ -34486,10 +34511,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="291" t="s">
+      <c r="D32" s="290" t="s">
         <v>270</v>
       </c>
-      <c r="E32" s="316"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="139" t="s">
         <v>271</v>
       </c>
@@ -34519,10 +34544,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="296" t="s">
+      <c r="D33" s="301" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="324"/>
+      <c r="E33" s="314"/>
       <c r="F33" s="139" t="s">
         <v>274</v>
       </c>
@@ -34552,10 +34577,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="291" t="s">
+      <c r="D34" s="290" t="s">
         <v>292</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="139" t="s">
         <v>293</v>
       </c>
@@ -34590,7 +34615,7 @@
       </c>
       <c r="E35" s="151"/>
       <c r="F35" s="139" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G35" s="76" t="s">
         <v>164</v>
@@ -34651,10 +34676,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="93"/>
       <c r="C37" s="94"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="316"/>
+      <c r="E37" s="313"/>
       <c r="F37" s="139" t="s">
         <v>284</v>
       </c>
@@ -35024,11 +35049,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="325" t="s">
+      <c r="B58" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="325"/>
-      <c r="D58" s="325"/>
+      <c r="C58" s="315"/>
+      <c r="D58" s="315"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -35045,12 +35070,12 @@
     </row>
     <row r="59" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="85"/>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="313"/>
-      <c r="D59" s="313"/>
-      <c r="E59" s="314"/>
+      <c r="C59" s="317"/>
+      <c r="D59" s="317"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="154" t="s">
         <v>125</v>
       </c>
@@ -35142,10 +35167,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="87"/>
       <c r="C62" s="92"/>
-      <c r="D62" s="291" t="s">
+      <c r="D62" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="316"/>
+      <c r="E62" s="313"/>
       <c r="F62" s="74" t="s">
         <v>140</v>
       </c>
@@ -35175,10 +35200,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="87"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="291" t="s">
+      <c r="D63" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="290"/>
+      <c r="E63" s="292"/>
       <c r="F63" s="139" t="s">
         <v>215</v>
       </c>
@@ -35208,10 +35233,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="87"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="289" t="s">
+      <c r="D64" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="290"/>
+      <c r="E64" s="292"/>
       <c r="F64" s="139" t="s">
         <v>218</v>
       </c>
@@ -35305,8 +35330,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="94"/>
-      <c r="D67" s="317"/>
-      <c r="E67" s="316"/>
+      <c r="D67" s="312"/>
+      <c r="E67" s="313"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -35696,6 +35721,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
@@ -35708,15 +35742,6 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35817,15 +35842,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35838,15 +35863,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35860,7 +35885,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -35880,15 +35905,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35922,15 +35947,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -35993,19 +36018,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36034,11 +36059,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36065,11 +36090,11 @@
       <c r="I15" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -36096,11 +36121,11 @@
       <c r="I16" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36109,10 +36134,10 @@
       <c r="A17" s="66"/>
       <c r="B17" s="73"/>
       <c r="C17" s="139" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D17" s="141" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E17" s="140" t="s">
         <v>266</v>
@@ -36143,7 +36168,7 @@
         <v>299</v>
       </c>
       <c r="D18" s="141" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E18" s="140" t="s">
         <v>300</v>
@@ -36158,9 +36183,9 @@
       <c r="I18" s="159" t="s">
         <v>301</v>
       </c>
-      <c r="J18" s="317"/>
-      <c r="K18" s="315"/>
-      <c r="L18" s="316"/>
+      <c r="J18" s="312"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -36175,9 +36200,9 @@
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="317"/>
-      <c r="K19" s="315"/>
-      <c r="L19" s="316"/>
+      <c r="J19" s="312"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="313"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -36339,11 +36364,11 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="323" t="s">
+      <c r="B29" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="323"/>
-      <c r="D29" s="323"/>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="82"/>
@@ -36358,12 +36383,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="312" t="s">
+      <c r="B30" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="313"/>
-      <c r="D30" s="313"/>
-      <c r="E30" s="314"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="317"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="154" t="s">
         <v>125</v>
       </c>
@@ -36455,10 +36480,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="317" t="s">
+      <c r="D33" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="316"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -36488,10 +36513,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="317" t="s">
+      <c r="D34" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="74" t="s">
         <v>192</v>
       </c>
@@ -36554,10 +36579,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="87"/>
       <c r="C36" s="97"/>
-      <c r="D36" s="291" t="s">
+      <c r="D36" s="290" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="316"/>
+      <c r="E36" s="313"/>
       <c r="F36" s="139" t="s">
         <v>271</v>
       </c>
@@ -36587,10 +36612,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="296" t="s">
+      <c r="D37" s="301" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="324"/>
+      <c r="E37" s="314"/>
       <c r="F37" s="139" t="s">
         <v>274</v>
       </c>
@@ -36620,12 +36645,12 @@
       <c r="A38" s="66"/>
       <c r="B38" s="87"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="316"/>
+      <c r="E38" s="313"/>
       <c r="F38" s="139" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G38" s="76" t="s">
         <v>164</v>
@@ -36658,7 +36683,7 @@
       </c>
       <c r="E39" s="151"/>
       <c r="F39" s="139" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G39" s="76" t="s">
         <v>164</v>
@@ -36703,8 +36728,8 @@
       <c r="A41" s="66"/>
       <c r="B41" s="93"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="291"/>
-      <c r="E41" s="316"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="313"/>
       <c r="F41" s="139"/>
       <c r="G41" s="140"/>
       <c r="H41" s="76"/>
@@ -37213,11 +37238,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="325" t="s">
+      <c r="B71" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="325"/>
-      <c r="D71" s="325"/>
+      <c r="C71" s="315"/>
+      <c r="D71" s="315"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -37234,12 +37259,12 @@
     </row>
     <row r="72" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="85"/>
-      <c r="B72" s="312" t="s">
+      <c r="B72" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="313"/>
-      <c r="D72" s="313"/>
-      <c r="E72" s="314"/>
+      <c r="C72" s="317"/>
+      <c r="D72" s="317"/>
+      <c r="E72" s="318"/>
       <c r="F72" s="154" t="s">
         <v>125</v>
       </c>
@@ -37331,10 +37356,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="87"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="291" t="s">
+      <c r="D75" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="316"/>
+      <c r="E75" s="313"/>
       <c r="F75" s="74" t="s">
         <v>140</v>
       </c>
@@ -37364,10 +37389,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="87"/>
       <c r="C76" s="92"/>
-      <c r="D76" s="291" t="s">
+      <c r="D76" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="290"/>
+      <c r="E76" s="292"/>
       <c r="F76" s="139" t="s">
         <v>215</v>
       </c>
@@ -37397,10 +37422,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="87"/>
       <c r="C77" s="92"/>
-      <c r="D77" s="289" t="s">
+      <c r="D77" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E77" s="290"/>
+      <c r="E77" s="292"/>
       <c r="F77" s="139" t="s">
         <v>218</v>
       </c>
@@ -37494,8 +37519,8 @@
       <c r="A80" s="66"/>
       <c r="B80" s="93"/>
       <c r="C80" s="94"/>
-      <c r="D80" s="317"/>
-      <c r="E80" s="316"/>
+      <c r="D80" s="312"/>
+      <c r="E80" s="313"/>
       <c r="F80" s="74"/>
       <c r="G80" s="76"/>
       <c r="H80" s="76"/>
@@ -37885,6 +37910,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -37897,18 +37934,6 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -38013,15 +38038,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -38034,15 +38059,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -38056,7 +38081,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -38076,15 +38101,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -38118,15 +38143,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -38189,19 +38214,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -38230,11 +38255,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -38263,11 +38288,11 @@
       <c r="I15" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -38296,11 +38321,11 @@
       <c r="I16" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -38362,11 +38387,11 @@
       <c r="I18" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="291" t="s">
+      <c r="J18" s="290" t="s">
         <v>326</v>
       </c>
-      <c r="K18" s="315"/>
-      <c r="L18" s="316"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -38395,11 +38420,11 @@
       <c r="I19" s="161">
         <v>1</v>
       </c>
-      <c r="J19" s="291" t="s">
+      <c r="J19" s="290" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="315"/>
-      <c r="L19" s="316"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="313"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -38408,10 +38433,10 @@
       <c r="A20" s="66"/>
       <c r="B20" s="327"/>
       <c r="C20" s="139" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D20" s="141" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E20" s="140" t="s">
         <v>266</v>
@@ -38426,13 +38451,13 @@
         <v>282</v>
       </c>
       <c r="I20" s="162" t="s">
-        <v>562</v>
-      </c>
-      <c r="J20" s="291" t="s">
-        <v>563</v>
-      </c>
-      <c r="K20" s="315"/>
-      <c r="L20" s="316"/>
+        <v>559</v>
+      </c>
+      <c r="J20" s="290" t="s">
+        <v>560</v>
+      </c>
+      <c r="K20" s="319"/>
+      <c r="L20" s="313"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -38594,11 +38619,11 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="323" t="s">
+      <c r="B30" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="323"/>
-      <c r="D30" s="323"/>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
       <c r="G30" s="82"/>
@@ -38613,12 +38638,12 @@
     </row>
     <row r="31" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="312" t="s">
+      <c r="B31" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="313"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="314"/>
+      <c r="C31" s="317"/>
+      <c r="D31" s="317"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="154" t="s">
         <v>125</v>
       </c>
@@ -38710,10 +38735,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="317" t="s">
+      <c r="D34" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -38743,10 +38768,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="87"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="317" t="s">
+      <c r="D35" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="316"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="74" t="s">
         <v>192</v>
       </c>
@@ -38809,8 +38834,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="291"/>
-      <c r="E37" s="316"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="313"/>
       <c r="F37" s="139"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -38826,8 +38851,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="290"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
       <c r="H38" s="76"/>
@@ -39064,11 +39089,11 @@
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="325" t="s">
+      <c r="B52" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="325"/>
-      <c r="D52" s="325"/>
+      <c r="C52" s="315"/>
+      <c r="D52" s="315"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -39085,12 +39110,12 @@
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="312" t="s">
+      <c r="B53" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="313"/>
-      <c r="D53" s="313"/>
-      <c r="E53" s="314"/>
+      <c r="C53" s="317"/>
+      <c r="D53" s="317"/>
+      <c r="E53" s="318"/>
       <c r="F53" s="154" t="s">
         <v>125</v>
       </c>
@@ -39182,10 +39207,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="87"/>
       <c r="C56" s="92"/>
-      <c r="D56" s="291" t="s">
+      <c r="D56" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="316"/>
+      <c r="E56" s="313"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -39215,10 +39240,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="87"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="291" t="s">
+      <c r="D57" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="290"/>
+      <c r="E57" s="292"/>
       <c r="F57" s="139" t="s">
         <v>215</v>
       </c>
@@ -39248,10 +39273,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="87"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="289" t="s">
+      <c r="D58" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="290"/>
+      <c r="E58" s="292"/>
       <c r="F58" s="139" t="s">
         <v>218</v>
       </c>
@@ -39345,8 +39370,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="93"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="317"/>
-      <c r="E61" s="316"/>
+      <c r="D61" s="312"/>
+      <c r="E61" s="313"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -39736,6 +39761,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D34:E34"/>
@@ -39746,20 +39785,6 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -39864,15 +39889,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39885,15 +39910,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39907,7 +39932,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -39927,15 +39952,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39969,15 +39994,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -40040,19 +40065,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40081,11 +40106,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40114,11 +40139,11 @@
       <c r="I15" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40147,11 +40172,11 @@
       <c r="I16" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40213,11 +40238,11 @@
       <c r="I18" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="291" t="s">
+      <c r="J18" s="290" t="s">
         <v>326</v>
       </c>
-      <c r="K18" s="315"/>
-      <c r="L18" s="316"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -40246,11 +40271,11 @@
       <c r="I19" s="161">
         <v>1</v>
       </c>
-      <c r="J19" s="291" t="s">
+      <c r="J19" s="290" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="315"/>
-      <c r="L19" s="316"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="313"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -40262,7 +40287,7 @@
         <v>335</v>
       </c>
       <c r="D20" s="141" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E20" s="140" t="s">
         <v>266</v>
@@ -40279,11 +40304,11 @@
       <c r="I20" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J20" s="291" t="s">
+      <c r="J20" s="290" t="s">
         <v>337</v>
       </c>
-      <c r="K20" s="315"/>
-      <c r="L20" s="316"/>
+      <c r="K20" s="319"/>
+      <c r="L20" s="313"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -40445,11 +40470,11 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="323" t="s">
+      <c r="B30" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="323"/>
-      <c r="D30" s="323"/>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
       <c r="G30" s="82"/>
@@ -40464,12 +40489,12 @@
     </row>
     <row r="31" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="312" t="s">
+      <c r="B31" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="313"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="314"/>
+      <c r="C31" s="317"/>
+      <c r="D31" s="317"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="154" t="s">
         <v>125</v>
       </c>
@@ -40561,10 +40586,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="317" t="s">
+      <c r="D34" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -40594,10 +40619,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="87"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="317" t="s">
+      <c r="D35" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="316"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="74" t="s">
         <v>192</v>
       </c>
@@ -40660,8 +40685,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="291"/>
-      <c r="E37" s="316"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="313"/>
       <c r="F37" s="139"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -40677,8 +40702,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="290"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
       <c r="H38" s="76"/>
@@ -40932,11 +40957,11 @@
     </row>
     <row r="53" spans="1:15" ht="20" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="325" t="s">
+      <c r="B53" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="325"/>
-      <c r="D53" s="325"/>
+      <c r="C53" s="315"/>
+      <c r="D53" s="315"/>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
       <c r="G53" s="66"/>
@@ -40953,12 +40978,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="312" t="s">
+      <c r="B54" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="313"/>
-      <c r="D54" s="313"/>
-      <c r="E54" s="314"/>
+      <c r="C54" s="317"/>
+      <c r="D54" s="317"/>
+      <c r="E54" s="318"/>
       <c r="F54" s="154" t="s">
         <v>125</v>
       </c>
@@ -41050,10 +41075,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="87"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="291" t="s">
+      <c r="D57" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="316"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="74" t="s">
         <v>140</v>
       </c>
@@ -41083,10 +41108,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="87"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="291" t="s">
+      <c r="D58" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="290"/>
+      <c r="E58" s="292"/>
       <c r="F58" s="139" t="s">
         <v>215</v>
       </c>
@@ -41116,10 +41141,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="87"/>
       <c r="C59" s="92"/>
-      <c r="D59" s="289" t="s">
+      <c r="D59" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="290"/>
+      <c r="E59" s="292"/>
       <c r="F59" s="139" t="s">
         <v>218</v>
       </c>
@@ -41213,8 +41238,8 @@
       <c r="A62" s="66"/>
       <c r="B62" s="93"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="317"/>
-      <c r="E62" s="316"/>
+      <c r="D62" s="312"/>
+      <c r="E62" s="313"/>
       <c r="F62" s="74"/>
       <c r="G62" s="76"/>
       <c r="H62" s="76"/>
@@ -41604,6 +41629,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:E31"/>
@@ -41616,18 +41653,6 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -41732,15 +41757,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41753,15 +41778,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41775,7 +41800,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -41795,15 +41820,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41837,15 +41862,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41908,19 +41933,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41949,11 +41974,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41965,7 +41990,7 @@
         <v>338</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E15" s="140" t="s">
         <v>313</v>
@@ -41982,11 +42007,11 @@
       <c r="I15" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -42001,9 +42026,9 @@
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="162"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="315"/>
-      <c r="L16" s="316"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -42165,11 +42190,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -42184,12 +42209,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -42281,10 +42306,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -42314,10 +42339,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="317" t="s">
+      <c r="D31" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="316"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -42380,8 +42405,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="316"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -42397,8 +42422,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -42652,11 +42677,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="66"/>
-      <c r="B49" s="325" t="s">
+      <c r="B49" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="325"/>
-      <c r="D49" s="325"/>
+      <c r="C49" s="315"/>
+      <c r="D49" s="315"/>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
@@ -42673,12 +42698,12 @@
     </row>
     <row r="50" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="85"/>
-      <c r="B50" s="312" t="s">
+      <c r="B50" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="313"/>
-      <c r="D50" s="313"/>
-      <c r="E50" s="314"/>
+      <c r="C50" s="317"/>
+      <c r="D50" s="317"/>
+      <c r="E50" s="318"/>
       <c r="F50" s="154" t="s">
         <v>125</v>
       </c>
@@ -42770,10 +42795,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="313"/>
       <c r="F53" s="74" t="s">
         <v>140</v>
       </c>
@@ -42803,10 +42828,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="291" t="s">
+      <c r="D54" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>215</v>
       </c>
@@ -42836,10 +42861,10 @@
       <c r="A55" s="66"/>
       <c r="B55" s="87"/>
       <c r="C55" s="92"/>
-      <c r="D55" s="289" t="s">
+      <c r="D55" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="290"/>
+      <c r="E55" s="292"/>
       <c r="F55" s="139" t="s">
         <v>218</v>
       </c>
@@ -42933,8 +42958,8 @@
       <c r="A58" s="66"/>
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
-      <c r="D58" s="317"/>
-      <c r="E58" s="316"/>
+      <c r="D58" s="312"/>
+      <c r="E58" s="313"/>
       <c r="F58" s="74"/>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
@@ -43324,6 +43349,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -43336,14 +43369,6 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -44045,15 +44070,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -44066,15 +44091,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -44108,15 +44133,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -44150,15 +44175,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -44221,19 +44246,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -44262,11 +44287,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -44281,9 +44306,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="315"/>
-      <c r="L15" s="316"/>
+      <c r="J15" s="312"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -44445,11 +44470,11 @@
     </row>
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="323" t="s">
+      <c r="B25" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="323"/>
-      <c r="D25" s="323"/>
+      <c r="C25" s="325"/>
+      <c r="D25" s="325"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="82"/>
@@ -44464,12 +44489,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="312" t="s">
+      <c r="B26" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="314"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="318"/>
       <c r="F26" s="154" t="s">
         <v>125</v>
       </c>
@@ -44561,10 +44586,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="87"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="317" t="s">
+      <c r="D29" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="316"/>
+      <c r="E29" s="313"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -44594,10 +44619,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>192</v>
       </c>
@@ -44641,7 +44666,7 @@
         <v>185</v>
       </c>
       <c r="I31" s="140" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J31" s="76" t="s">
         <v>137</v>
@@ -44660,10 +44685,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="291" t="s">
+      <c r="D32" s="290" t="s">
         <v>347</v>
       </c>
-      <c r="E32" s="316"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="139" t="s">
         <v>271</v>
       </c>
@@ -44693,10 +44718,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="296" t="s">
+      <c r="D33" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="324"/>
+      <c r="E33" s="314"/>
       <c r="F33" s="139" t="s">
         <v>350</v>
       </c>
@@ -44731,7 +44756,7 @@
       </c>
       <c r="E34" s="151"/>
       <c r="F34" s="139" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G34" s="76" t="s">
         <v>164</v>
@@ -44759,10 +44784,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="93"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="291" t="s">
+      <c r="D35" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="316"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="139" t="s">
         <v>284</v>
       </c>
@@ -45370,11 +45395,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="325" t="s">
+      <c r="B70" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="325"/>
-      <c r="D70" s="325"/>
+      <c r="C70" s="315"/>
+      <c r="D70" s="315"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -45391,12 +45416,12 @@
     </row>
     <row r="71" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="85"/>
-      <c r="B71" s="312" t="s">
+      <c r="B71" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="313"/>
-      <c r="D71" s="313"/>
-      <c r="E71" s="314"/>
+      <c r="C71" s="317"/>
+      <c r="D71" s="317"/>
+      <c r="E71" s="318"/>
       <c r="F71" s="154" t="s">
         <v>125</v>
       </c>
@@ -45488,10 +45513,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="87"/>
       <c r="C74" s="92"/>
-      <c r="D74" s="291" t="s">
+      <c r="D74" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="316"/>
+      <c r="E74" s="313"/>
       <c r="F74" s="74" t="s">
         <v>140</v>
       </c>
@@ -45521,10 +45546,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="87"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="291" t="s">
+      <c r="D75" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="290"/>
+      <c r="E75" s="292"/>
       <c r="F75" s="139" t="s">
         <v>215</v>
       </c>
@@ -45554,10 +45579,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="87"/>
       <c r="C76" s="92"/>
-      <c r="D76" s="289" t="s">
+      <c r="D76" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="290"/>
+      <c r="E76" s="292"/>
       <c r="F76" s="139" t="s">
         <v>218</v>
       </c>
@@ -45651,8 +45676,8 @@
       <c r="A79" s="66"/>
       <c r="B79" s="93"/>
       <c r="C79" s="94"/>
-      <c r="D79" s="317"/>
-      <c r="E79" s="316"/>
+      <c r="D79" s="312"/>
+      <c r="E79" s="313"/>
       <c r="F79" s="74"/>
       <c r="G79" s="76"/>
       <c r="H79" s="76"/>
@@ -46042,6 +46067,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
@@ -46053,15 +46087,6 @@
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46162,15 +46187,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -46183,15 +46208,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>354</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -46205,7 +46230,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -46225,15 +46250,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -46267,15 +46292,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -46338,19 +46363,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -46379,11 +46404,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -46425,10 +46450,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="219"/>
       <c r="C16" s="139" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D16" s="141" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E16" s="140" t="s">
         <v>266</v>
@@ -46443,13 +46468,13 @@
         <v>282</v>
       </c>
       <c r="I16" s="162" t="s">
-        <v>565</v>
-      </c>
-      <c r="J16" s="291" t="s">
-        <v>566</v>
-      </c>
-      <c r="K16" s="315"/>
-      <c r="L16" s="316"/>
+        <v>562</v>
+      </c>
+      <c r="J16" s="290" t="s">
+        <v>563</v>
+      </c>
+      <c r="K16" s="319"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -46611,11 +46636,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -46630,12 +46655,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -46727,10 +46752,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -46760,10 +46785,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="317" t="s">
+      <c r="D31" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="316"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -46826,8 +46851,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="316"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -46843,8 +46868,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -47081,11 +47106,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="325" t="s">
+      <c r="B48" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="325"/>
-      <c r="D48" s="325"/>
+      <c r="C48" s="315"/>
+      <c r="D48" s="315"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -47102,12 +47127,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="313"/>
-      <c r="D49" s="313"/>
-      <c r="E49" s="314"/>
+      <c r="C49" s="317"/>
+      <c r="D49" s="317"/>
+      <c r="E49" s="318"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -47199,10 +47224,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="291" t="s">
+      <c r="D52" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="316"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -47232,10 +47257,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -47265,10 +47290,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="289" t="s">
+      <c r="D54" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -47362,8 +47387,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="317"/>
-      <c r="E57" s="316"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -47753,6 +47778,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B26:D26"/>
@@ -47766,12 +47797,6 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -47872,15 +47897,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47893,15 +47918,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47915,7 +47940,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -47935,15 +47960,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -47977,15 +48002,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -48048,19 +48073,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48089,11 +48114,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48138,7 +48163,7 @@
         <v>335</v>
       </c>
       <c r="D16" s="141" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E16" s="140" t="s">
         <v>266</v>
@@ -48155,11 +48180,11 @@
       <c r="I16" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="290" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="315"/>
-      <c r="L16" s="316"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -48321,11 +48346,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -48340,12 +48365,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -48437,10 +48462,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -48470,10 +48495,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="317" t="s">
+      <c r="D31" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="316"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -48536,8 +48561,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="316"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -48553,8 +48578,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -48791,11 +48816,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="325" t="s">
+      <c r="B48" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="325"/>
-      <c r="D48" s="325"/>
+      <c r="C48" s="315"/>
+      <c r="D48" s="315"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -48812,12 +48837,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="313"/>
-      <c r="D49" s="313"/>
-      <c r="E49" s="314"/>
+      <c r="C49" s="317"/>
+      <c r="D49" s="317"/>
+      <c r="E49" s="318"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -48909,10 +48934,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="291" t="s">
+      <c r="D52" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="316"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -48942,10 +48967,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -48975,10 +49000,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="289" t="s">
+      <c r="D54" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -49072,8 +49097,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="317"/>
-      <c r="E57" s="316"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -49463,6 +49488,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B26:D26"/>
@@ -49476,12 +49507,6 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -49585,15 +49610,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49606,15 +49631,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49628,7 +49653,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -49648,15 +49673,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49690,15 +49715,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49761,19 +49786,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49802,11 +49827,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49818,7 +49843,7 @@
         <v>338</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E15" s="140" t="s">
         <v>313</v>
@@ -49835,11 +49860,11 @@
       <c r="I15" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49854,9 +49879,9 @@
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="162"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="315"/>
-      <c r="L16" s="316"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50018,11 +50043,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -50037,12 +50062,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -50134,10 +50159,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -50167,10 +50192,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="317" t="s">
+      <c r="D31" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="316"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -50233,8 +50258,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="316"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -50250,8 +50275,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -50488,11 +50513,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="325" t="s">
+      <c r="B48" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="325"/>
-      <c r="D48" s="325"/>
+      <c r="C48" s="315"/>
+      <c r="D48" s="315"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -50509,12 +50534,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="313"/>
-      <c r="D49" s="313"/>
-      <c r="E49" s="314"/>
+      <c r="C49" s="317"/>
+      <c r="D49" s="317"/>
+      <c r="E49" s="318"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -50606,10 +50631,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="291" t="s">
+      <c r="D52" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="316"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -50639,10 +50664,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -50672,10 +50697,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="289" t="s">
+      <c r="D54" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -50769,8 +50794,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="317"/>
-      <c r="E57" s="316"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -51160,14 +51185,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -51180,6 +51197,14 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -51633,10 +51658,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L54"/>
+  <dimension ref="B1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:E33"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -51861,7 +51886,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="117" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C17" s="124"/>
       <c r="D17" s="124"/>
@@ -51887,7 +51912,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="147" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D19" s="274" t="s">
         <v>4</v>
@@ -51902,10 +51927,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="147" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D20" s="274" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E20" s="274"/>
       <c r="F20" s="148"/>
@@ -51917,7 +51942,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="147" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D21" s="274" t="s">
         <v>24</v>
@@ -51932,7 +51957,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="147" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D22" s="274" t="s">
         <v>5</v>
@@ -51947,7 +51972,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="147" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D23" s="274" t="s">
         <v>26</v>
@@ -51962,7 +51987,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="147" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D24" s="274" t="s">
         <v>25</v>
@@ -52018,7 +52043,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="274" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E29" s="274"/>
       <c r="F29" s="148"/>
@@ -52033,7 +52058,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="274" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E30" s="274"/>
       <c r="F30" s="148"/>
@@ -52048,7 +52073,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="274" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E31" s="274"/>
       <c r="F31" s="148"/>
@@ -52063,7 +52088,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="274" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E32" s="274"/>
       <c r="F32" s="148"/>
@@ -52130,188 +52155,242 @@
       <c r="G36" s="119"/>
       <c r="H36" s="119"/>
     </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="117" t="s">
+    <row r="37" spans="2:8" ht="20" customHeight="1">
+      <c r="B37" s="146">
+        <v>10</v>
+      </c>
+      <c r="C37" s="147" t="s">
+        <v>617</v>
+      </c>
+      <c r="D37" s="274" t="s">
+        <v>619</v>
+      </c>
+      <c r="E37" s="274"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+    </row>
+    <row r="38" spans="2:8" ht="20" customHeight="1">
+      <c r="B38" s="146">
+        <v>11</v>
+      </c>
+      <c r="C38" s="147" t="s">
+        <v>618</v>
+      </c>
+      <c r="D38" s="274" t="s">
+        <v>620</v>
+      </c>
+      <c r="E38" s="274"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="117" t="s">
         <v>360</v>
       </c>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="116"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="118"/>
-      <c r="C40" s="134" t="s">
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="116"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="118"/>
+      <c r="C42" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="275" t="s">
+      <c r="D42" s="275" t="s">
         <v>212</v>
       </c>
-      <c r="E40" s="275"/>
-      <c r="F40" s="134" t="s">
+      <c r="E42" s="275"/>
+      <c r="F42" s="134" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1">
-      <c r="B41" s="146">
+    <row r="43" spans="2:8" ht="15" customHeight="1">
+      <c r="B43" s="146">
         <v>2</v>
       </c>
-      <c r="C41" s="147" t="s">
+      <c r="C43" s="147" t="s">
         <v>375</v>
       </c>
-      <c r="D41" s="276" t="s">
+      <c r="D43" s="276" t="s">
         <v>377</v>
-      </c>
-      <c r="E41" s="277"/>
-      <c r="F41" s="148"/>
-    </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1">
-      <c r="B42" s="146">
-        <v>3</v>
-      </c>
-      <c r="C42" s="147" t="s">
-        <v>376</v>
-      </c>
-      <c r="D42" s="276" t="s">
-        <v>363</v>
-      </c>
-      <c r="E42" s="277"/>
-      <c r="F42" s="148"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="146">
-        <v>4</v>
-      </c>
-      <c r="C43" s="147" t="s">
-        <v>365</v>
-      </c>
-      <c r="D43" s="276" t="s">
-        <v>362</v>
       </c>
       <c r="E43" s="277"/>
       <c r="F43" s="148"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" ht="15" customHeight="1">
       <c r="B44" s="146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="147" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="D44" s="276" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E44" s="277"/>
       <c r="F44" s="148"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" s="147" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D45" s="276" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E45" s="277"/>
       <c r="F45" s="148"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="146">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="147" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D46" s="276" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E46" s="277"/>
       <c r="F46" s="148"/>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="117" t="s">
+    <row r="47" spans="2:8">
+      <c r="B47" s="146">
+        <v>6</v>
+      </c>
+      <c r="C47" s="147" t="s">
+        <v>367</v>
+      </c>
+      <c r="D47" s="276" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" s="277"/>
+      <c r="F47" s="148"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="146">
+        <v>7</v>
+      </c>
+      <c r="C48" s="147" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" s="276" t="s">
+        <v>370</v>
+      </c>
+      <c r="E48" s="277"/>
+      <c r="F48" s="148"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="116"/>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="118"/>
-      <c r="C50" s="134" t="s">
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="116"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="118"/>
+      <c r="C52" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="275" t="s">
+      <c r="D52" s="275" t="s">
         <v>212</v>
       </c>
-      <c r="E50" s="275"/>
-      <c r="F50" s="134" t="s">
+      <c r="E52" s="275"/>
+      <c r="F52" s="134" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="20" customHeight="1">
-      <c r="B51" s="146">
-        <v>1</v>
-      </c>
-      <c r="C51" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="274" t="s">
-        <v>371</v>
-      </c>
-      <c r="E51" s="274"/>
-      <c r="F51" s="148"/>
-    </row>
-    <row r="52" spans="2:6" ht="20" customHeight="1">
-      <c r="B52" s="146">
-        <v>2</v>
-      </c>
-      <c r="C52" s="147" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="274" t="s">
-        <v>372</v>
-      </c>
-      <c r="E52" s="274"/>
-      <c r="F52" s="148"/>
     </row>
     <row r="53" spans="2:6" ht="20" customHeight="1">
       <c r="B53" s="146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" s="147" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D53" s="274" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E53" s="274"/>
       <c r="F53" s="148"/>
     </row>
     <row r="54" spans="2:6" ht="20" customHeight="1">
       <c r="B54" s="146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="147" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D54" s="274" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E54" s="274"/>
       <c r="F54" s="148"/>
     </row>
+    <row r="55" spans="2:6" ht="20" customHeight="1">
+      <c r="B55" s="146">
+        <v>3</v>
+      </c>
+      <c r="C55" s="147" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="274" t="s">
+        <v>373</v>
+      </c>
+      <c r="E55" s="274"/>
+      <c r="F55" s="148"/>
+    </row>
+    <row r="56" spans="2:6" ht="20" customHeight="1">
+      <c r="B56" s="146">
+        <v>4</v>
+      </c>
+      <c r="C56" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="274" t="s">
+        <v>374</v>
+      </c>
+      <c r="E56" s="274"/>
+      <c r="F56" s="148"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D28:E28"/>
@@ -52319,29 +52398,7 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D51:E51"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -52359,7 +52416,7 @@
   <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -52472,10 +52529,10 @@
         <v>514</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>530</v>
+        <v>613</v>
       </c>
       <c r="G6" s="102" t="s">
-        <v>515</v>
+        <v>614</v>
       </c>
       <c r="H6" s="103" t="s">
         <v>508</v>
@@ -52496,10 +52553,10 @@
         <v>514</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H7" s="103" t="s">
         <v>441</v>
@@ -52544,13 +52601,13 @@
         <v>464</v>
       </c>
       <c r="F9" s="211" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H9" s="103" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I9" s="104"/>
       <c r="J9" s="38"/>
@@ -52568,10 +52625,10 @@
         <v>464</v>
       </c>
       <c r="F10" s="211" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G10" s="101" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H10" s="103" t="s">
         <v>463</v>
@@ -52592,10 +52649,10 @@
         <v>464</v>
       </c>
       <c r="F11" s="211" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G11" s="101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H11" s="100" t="s">
         <v>505</v>
@@ -52632,7 +52689,7 @@
         <v>232</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H13" s="108" t="s">
         <v>238</v>
@@ -52677,10 +52734,10 @@
         <v>235</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H15" s="108" t="s">
         <v>245</v>
@@ -52701,10 +52758,10 @@
         <v>231</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H16" s="108" t="s">
         <v>244</v>
@@ -52725,10 +52782,10 @@
         <v>236</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H17" s="108" t="s">
         <v>246</v>
@@ -52749,10 +52806,10 @@
         <v>237</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H18" s="108" t="s">
         <v>247</v>
@@ -52788,10 +52845,10 @@
         <v>234</v>
       </c>
       <c r="F20" s="111" t="s">
+        <v>539</v>
+      </c>
+      <c r="G20" s="111" t="s">
         <v>542</v>
-      </c>
-      <c r="G20" s="111" t="s">
-        <v>545</v>
       </c>
       <c r="H20" s="112" t="s">
         <v>248</v>
@@ -52812,13 +52869,13 @@
         <v>239</v>
       </c>
       <c r="F21" s="111" t="s">
+        <v>540</v>
+      </c>
+      <c r="G21" s="111" t="s">
         <v>543</v>
       </c>
-      <c r="G21" s="111" t="s">
+      <c r="H21" s="112" t="s">
         <v>546</v>
-      </c>
-      <c r="H21" s="112" t="s">
-        <v>549</v>
       </c>
       <c r="I21" s="104"/>
       <c r="J21" s="38"/>
@@ -52836,10 +52893,10 @@
         <v>240</v>
       </c>
       <c r="F22" s="111" t="s">
+        <v>541</v>
+      </c>
+      <c r="G22" s="111" t="s">
         <v>544</v>
-      </c>
-      <c r="G22" s="111" t="s">
-        <v>547</v>
       </c>
       <c r="H22" s="112" t="s">
         <v>249</v>
@@ -52860,10 +52917,10 @@
         <v>241</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G23" s="111" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H23" s="112" t="s">
         <v>250</v>
@@ -53087,15 +53144,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -53108,15 +53165,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -53130,7 +53187,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -53150,15 +53207,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -53192,15 +53249,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -53263,19 +53320,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -53304,11 +53361,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -53335,13 +53392,13 @@
         <v>50</v>
       </c>
       <c r="I15" s="158" t="s">
-        <v>568</v>
-      </c>
-      <c r="J15" s="304" t="s">
-        <v>567</v>
-      </c>
-      <c r="K15" s="304"/>
-      <c r="L15" s="304"/>
+        <v>565</v>
+      </c>
+      <c r="J15" s="297" t="s">
+        <v>564</v>
+      </c>
+      <c r="K15" s="297"/>
+      <c r="L15" s="297"/>
       <c r="M15" s="168"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
@@ -53370,11 +53427,11 @@
       <c r="I16" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="304"/>
-      <c r="L16" s="304"/>
+      <c r="K16" s="297"/>
+      <c r="L16" s="297"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -53469,11 +53526,11 @@
       <c r="I19" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="291" t="s">
+      <c r="J19" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="299"/>
-      <c r="L19" s="290"/>
+      <c r="K19" s="291"/>
+      <c r="L19" s="292"/>
       <c r="M19" s="168"/>
       <c r="N19" s="168"/>
       <c r="O19" s="168"/>
@@ -53500,11 +53557,11 @@
       <c r="I20" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="J20" s="291" t="s">
+      <c r="J20" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="K20" s="299"/>
-      <c r="L20" s="290"/>
+      <c r="K20" s="291"/>
+      <c r="L20" s="292"/>
       <c r="M20" s="168"/>
       <c r="N20" s="168"/>
       <c r="O20" s="168"/>
@@ -53593,11 +53650,11 @@
       <c r="I23" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="291" t="s">
+      <c r="J23" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="299"/>
-      <c r="L23" s="290"/>
+      <c r="K23" s="291"/>
+      <c r="L23" s="292"/>
       <c r="M23" s="168"/>
       <c r="N23" s="168"/>
       <c r="O23" s="168"/>
@@ -53699,26 +53756,26 @@
       <c r="A27" s="168"/>
       <c r="B27" s="175"/>
       <c r="C27" s="139" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E27" s="140" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F27" s="140"/>
       <c r="G27" s="140" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H27" s="140" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I27" s="158" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J27" s="164" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K27" s="172"/>
       <c r="L27" s="165"/>
@@ -53866,11 +53923,11 @@
     </row>
     <row r="36" spans="1:15" s="181" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="144"/>
-      <c r="B36" s="298" t="s">
+      <c r="B36" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="298"/>
-      <c r="D36" s="298"/>
+      <c r="C36" s="289"/>
+      <c r="D36" s="289"/>
       <c r="E36" s="179"/>
       <c r="F36" s="180"/>
       <c r="G36" s="179"/>
@@ -53885,12 +53942,12 @@
     </row>
     <row r="37" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="182"/>
-      <c r="B37" s="293" t="s">
+      <c r="B37" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="294"/>
-      <c r="D37" s="294"/>
-      <c r="E37" s="295"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="299"/>
+      <c r="E37" s="300"/>
       <c r="F37" s="174" t="s">
         <v>125</v>
       </c>
@@ -53982,10 +54039,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="291" t="s">
+      <c r="D40" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="290"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="139" t="s">
         <v>415</v>
       </c>
@@ -54015,10 +54072,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="190"/>
-      <c r="D41" s="291" t="s">
+      <c r="D41" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="290"/>
+      <c r="E41" s="292"/>
       <c r="F41" s="139" t="s">
         <v>192</v>
       </c>
@@ -54081,10 +54138,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="191"/>
-      <c r="D43" s="291" t="s">
+      <c r="D43" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="290"/>
+      <c r="E43" s="292"/>
       <c r="F43" s="139" t="s">
         <v>196</v>
       </c>
@@ -54114,10 +54171,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="184"/>
       <c r="C44" s="191"/>
-      <c r="D44" s="296" t="s">
+      <c r="D44" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="297"/>
+      <c r="E44" s="302"/>
       <c r="F44" s="139" t="s">
         <v>163</v>
       </c>
@@ -54147,10 +54204,10 @@
       <c r="A45" s="168"/>
       <c r="B45" s="184"/>
       <c r="C45" s="189"/>
-      <c r="D45" s="291" t="s">
+      <c r="D45" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="290"/>
+      <c r="E45" s="292"/>
       <c r="F45" s="139" t="s">
         <v>173</v>
       </c>
@@ -54213,10 +54270,10 @@
       <c r="A47" s="168"/>
       <c r="B47" s="184"/>
       <c r="C47" s="189"/>
-      <c r="D47" s="291" t="s">
+      <c r="D47" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E47" s="290"/>
+      <c r="E47" s="292"/>
       <c r="F47" s="141" t="s">
         <v>385</v>
       </c>
@@ -54244,10 +54301,10 @@
       <c r="A48" s="168"/>
       <c r="B48" s="184"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="291" t="s">
+      <c r="D48" s="290" t="s">
         <v>388</v>
       </c>
-      <c r="E48" s="290"/>
+      <c r="E48" s="292"/>
       <c r="F48" s="141" t="s">
         <v>389</v>
       </c>
@@ -54275,10 +54332,10 @@
       <c r="A49" s="168"/>
       <c r="B49" s="184"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="291" t="s">
+      <c r="D49" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="E49" s="290"/>
+      <c r="E49" s="292"/>
       <c r="F49" s="141" t="s">
         <v>393</v>
       </c>
@@ -54308,10 +54365,10 @@
       <c r="A50" s="168"/>
       <c r="B50" s="184"/>
       <c r="C50" s="189"/>
-      <c r="D50" s="291" t="s">
+      <c r="D50" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="290"/>
+      <c r="E50" s="292"/>
       <c r="F50" s="141" t="s">
         <v>182</v>
       </c>
@@ -54341,10 +54398,10 @@
       <c r="A51" s="168"/>
       <c r="B51" s="184"/>
       <c r="C51" s="189"/>
-      <c r="D51" s="291" t="s">
+      <c r="D51" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E51" s="290"/>
+      <c r="E51" s="292"/>
       <c r="F51" s="141" t="s">
         <v>397</v>
       </c>
@@ -54372,10 +54429,10 @@
       <c r="A52" s="168"/>
       <c r="B52" s="184"/>
       <c r="C52" s="189"/>
-      <c r="D52" s="291" t="s">
+      <c r="D52" s="290" t="s">
         <v>400</v>
       </c>
-      <c r="E52" s="290"/>
+      <c r="E52" s="292"/>
       <c r="F52" s="141" t="s">
         <v>401</v>
       </c>
@@ -54403,10 +54460,10 @@
       <c r="A53" s="168"/>
       <c r="B53" s="184"/>
       <c r="C53" s="189"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="141" t="s">
         <v>405</v>
       </c>
@@ -54435,27 +54492,27 @@
       <c r="B54" s="184"/>
       <c r="C54" s="189"/>
       <c r="D54" s="217" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E54" s="216"/>
       <c r="F54" s="139" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G54" s="140" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H54" s="140"/>
       <c r="I54" s="140">
         <v>1</v>
       </c>
       <c r="J54" s="140" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K54" s="140" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L54" s="141" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M54" s="168"/>
       <c r="N54" s="168"/>
@@ -54466,24 +54523,24 @@
       <c r="B55" s="184"/>
       <c r="C55" s="189"/>
       <c r="D55" s="217" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E55" s="216"/>
       <c r="F55" s="139" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G55" s="140" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H55" s="140"/>
       <c r="I55" s="140">
         <v>1</v>
       </c>
       <c r="J55" s="140" t="s">
+        <v>568</v>
+      </c>
+      <c r="K55" s="140" t="s">
         <v>571</v>
-      </c>
-      <c r="K55" s="140" t="s">
-        <v>574</v>
       </c>
       <c r="L55" s="218" t="s">
         <v>411</v>
@@ -54496,10 +54553,10 @@
       <c r="A56" s="168"/>
       <c r="B56" s="192"/>
       <c r="C56" s="190"/>
-      <c r="D56" s="291" t="s">
+      <c r="D56" s="290" t="s">
         <v>337</v>
       </c>
-      <c r="E56" s="290"/>
+      <c r="E56" s="292"/>
       <c r="F56" s="139" t="s">
         <v>419</v>
       </c>
@@ -54903,11 +54960,11 @@
     </row>
     <row r="79" spans="1:15" ht="20" customHeight="1">
       <c r="A79" s="168"/>
-      <c r="B79" s="292" t="s">
+      <c r="B79" s="304" t="s">
         <v>420</v>
       </c>
-      <c r="C79" s="292"/>
-      <c r="D79" s="292"/>
+      <c r="C79" s="304"/>
+      <c r="D79" s="304"/>
       <c r="E79" s="168"/>
       <c r="F79" s="168"/>
       <c r="G79" s="168"/>
@@ -54922,12 +54979,12 @@
     </row>
     <row r="80" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="182"/>
-      <c r="B80" s="293" t="s">
+      <c r="B80" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="294"/>
-      <c r="D80" s="294"/>
-      <c r="E80" s="295"/>
+      <c r="C80" s="299"/>
+      <c r="D80" s="299"/>
+      <c r="E80" s="300"/>
       <c r="F80" s="174" t="s">
         <v>125</v>
       </c>
@@ -55019,10 +55076,10 @@
       <c r="A83" s="168"/>
       <c r="B83" s="184"/>
       <c r="C83" s="189"/>
-      <c r="D83" s="291" t="s">
+      <c r="D83" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E83" s="290"/>
+      <c r="E83" s="292"/>
       <c r="F83" s="139" t="s">
         <v>140</v>
       </c>
@@ -55052,10 +55109,10 @@
       <c r="A84" s="168"/>
       <c r="B84" s="184"/>
       <c r="C84" s="189"/>
-      <c r="D84" s="291" t="s">
+      <c r="D84" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="290"/>
+      <c r="E84" s="292"/>
       <c r="F84" s="139" t="s">
         <v>215</v>
       </c>
@@ -55085,10 +55142,10 @@
       <c r="A85" s="168"/>
       <c r="B85" s="184"/>
       <c r="C85" s="189"/>
-      <c r="D85" s="289" t="s">
+      <c r="D85" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E85" s="290"/>
+      <c r="E85" s="292"/>
       <c r="F85" s="139" t="s">
         <v>218</v>
       </c>
@@ -55182,8 +55239,8 @@
       <c r="A88" s="168"/>
       <c r="B88" s="192"/>
       <c r="C88" s="190"/>
-      <c r="D88" s="291"/>
-      <c r="E88" s="290"/>
+      <c r="D88" s="290"/>
+      <c r="E88" s="292"/>
       <c r="F88" s="139"/>
       <c r="G88" s="140"/>
       <c r="H88" s="140"/>
@@ -55573,6 +55630,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -55585,26 +55662,6 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -55628,8 +55685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -55711,15 +55768,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -55732,15 +55789,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -55754,7 +55811,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>533</v>
+        <v>615</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -55774,15 +55831,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
-        <v>529</v>
-      </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="C7" s="290" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -55796,7 +55853,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="164" t="s">
-        <v>28</v>
+        <v>616</v>
       </c>
       <c r="D8" s="172"/>
       <c r="E8" s="172"/>
@@ -55816,15 +55873,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -55887,19 +55944,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -55928,11 +55985,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -55994,11 +56051,11 @@
       <c r="I16" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="299"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="292"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -56025,11 +56082,11 @@
       <c r="I17" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="J17" s="291" t="s">
+      <c r="J17" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="K17" s="299"/>
-      <c r="L17" s="290"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="292"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -56118,11 +56175,11 @@
       <c r="I20" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="291" t="s">
+      <c r="J20" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="299"/>
-      <c r="L20" s="290"/>
+      <c r="K20" s="291"/>
+      <c r="L20" s="292"/>
       <c r="M20" s="168"/>
       <c r="N20" s="168"/>
       <c r="O20" s="168"/>
@@ -56393,11 +56450,11 @@
     </row>
     <row r="33" spans="1:15" s="181" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="144"/>
-      <c r="B33" s="298" t="s">
+      <c r="B33" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="298"/>
-      <c r="D33" s="298"/>
+      <c r="C33" s="289"/>
+      <c r="D33" s="289"/>
       <c r="E33" s="179"/>
       <c r="F33" s="180"/>
       <c r="G33" s="179"/>
@@ -56412,12 +56469,12 @@
     </row>
     <row r="34" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="182"/>
-      <c r="B34" s="293" t="s">
+      <c r="B34" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="294"/>
-      <c r="D34" s="294"/>
-      <c r="E34" s="295"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="299"/>
+      <c r="E34" s="300"/>
       <c r="F34" s="174" t="s">
         <v>125</v>
       </c>
@@ -56509,10 +56566,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="290"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="139" t="s">
         <v>435</v>
       </c>
@@ -56542,10 +56599,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="190"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="139" t="s">
         <v>192</v>
       </c>
@@ -56608,10 +56665,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="191"/>
-      <c r="D40" s="291" t="s">
+      <c r="D40" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="290"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="139" t="s">
         <v>196</v>
       </c>
@@ -56641,10 +56698,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="191"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="297"/>
+      <c r="E41" s="302"/>
       <c r="F41" s="139" t="s">
         <v>163</v>
       </c>
@@ -56674,10 +56731,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="291" t="s">
+      <c r="D42" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="290"/>
+      <c r="E42" s="292"/>
       <c r="F42" s="139" t="s">
         <v>173</v>
       </c>
@@ -56740,10 +56797,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="184"/>
       <c r="C44" s="189"/>
-      <c r="D44" s="291" t="s">
+      <c r="D44" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E44" s="290"/>
+      <c r="E44" s="292"/>
       <c r="F44" s="141" t="s">
         <v>385</v>
       </c>
@@ -56771,10 +56828,10 @@
       <c r="A45" s="168"/>
       <c r="B45" s="184"/>
       <c r="C45" s="189"/>
-      <c r="D45" s="291" t="s">
+      <c r="D45" s="290" t="s">
         <v>388</v>
       </c>
-      <c r="E45" s="290"/>
+      <c r="E45" s="292"/>
       <c r="F45" s="141" t="s">
         <v>389</v>
       </c>
@@ -56802,10 +56859,10 @@
       <c r="A46" s="168"/>
       <c r="B46" s="184"/>
       <c r="C46" s="189"/>
-      <c r="D46" s="291" t="s">
+      <c r="D46" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="E46" s="290"/>
+      <c r="E46" s="292"/>
       <c r="F46" s="141" t="s">
         <v>393</v>
       </c>
@@ -56835,10 +56892,10 @@
       <c r="A47" s="168"/>
       <c r="B47" s="184"/>
       <c r="C47" s="189"/>
-      <c r="D47" s="291" t="s">
+      <c r="D47" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="290"/>
+      <c r="E47" s="292"/>
       <c r="F47" s="141" t="s">
         <v>182</v>
       </c>
@@ -56868,10 +56925,10 @@
       <c r="A48" s="168"/>
       <c r="B48" s="184"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="291" t="s">
+      <c r="D48" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E48" s="290"/>
+      <c r="E48" s="292"/>
       <c r="F48" s="141" t="s">
         <v>397</v>
       </c>
@@ -56899,10 +56956,10 @@
       <c r="A49" s="168"/>
       <c r="B49" s="184"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="291" t="s">
+      <c r="D49" s="290" t="s">
         <v>400</v>
       </c>
-      <c r="E49" s="290"/>
+      <c r="E49" s="292"/>
       <c r="F49" s="141" t="s">
         <v>401</v>
       </c>
@@ -56930,10 +56987,10 @@
       <c r="A50" s="168"/>
       <c r="B50" s="184"/>
       <c r="C50" s="189"/>
-      <c r="D50" s="291" t="s">
+      <c r="D50" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="E50" s="290"/>
+      <c r="E50" s="292"/>
       <c r="F50" s="141" t="s">
         <v>405</v>
       </c>
@@ -56962,27 +57019,27 @@
       <c r="B51" s="184"/>
       <c r="C51" s="189"/>
       <c r="D51" s="217" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E51" s="216"/>
       <c r="F51" s="139" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G51" s="140" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H51" s="140"/>
       <c r="I51" s="140">
         <v>1</v>
       </c>
       <c r="J51" s="140" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="K51" s="140" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L51" s="141" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M51" s="168"/>
       <c r="N51" s="168"/>
@@ -56993,24 +57050,24 @@
       <c r="B52" s="192"/>
       <c r="C52" s="190"/>
       <c r="D52" s="217" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E52" s="216"/>
       <c r="F52" s="139" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G52" s="140" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H52" s="140"/>
       <c r="I52" s="140">
         <v>1</v>
       </c>
       <c r="J52" s="140" t="s">
+        <v>568</v>
+      </c>
+      <c r="K52" s="140" t="s">
         <v>571</v>
-      </c>
-      <c r="K52" s="140" t="s">
-        <v>574</v>
       </c>
       <c r="L52" s="218" t="s">
         <v>411</v>
@@ -57397,11 +57454,11 @@
     </row>
     <row r="75" spans="1:15" ht="20" customHeight="1">
       <c r="A75" s="168"/>
-      <c r="B75" s="292" t="s">
+      <c r="B75" s="304" t="s">
         <v>436</v>
       </c>
-      <c r="C75" s="292"/>
-      <c r="D75" s="292"/>
+      <c r="C75" s="304"/>
+      <c r="D75" s="304"/>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
       <c r="G75" s="168"/>
@@ -57416,12 +57473,12 @@
     </row>
     <row r="76" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A76" s="182"/>
-      <c r="B76" s="293" t="s">
+      <c r="B76" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="294"/>
-      <c r="D76" s="294"/>
-      <c r="E76" s="295"/>
+      <c r="C76" s="299"/>
+      <c r="D76" s="299"/>
+      <c r="E76" s="300"/>
       <c r="F76" s="174" t="s">
         <v>125</v>
       </c>
@@ -57513,10 +57570,10 @@
       <c r="A79" s="168"/>
       <c r="B79" s="184"/>
       <c r="C79" s="189"/>
-      <c r="D79" s="291" t="s">
+      <c r="D79" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="290"/>
+      <c r="E79" s="292"/>
       <c r="F79" s="139" t="s">
         <v>435</v>
       </c>
@@ -57546,10 +57603,10 @@
       <c r="A80" s="168"/>
       <c r="B80" s="184"/>
       <c r="C80" s="189"/>
-      <c r="D80" s="291" t="s">
+      <c r="D80" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="290"/>
+      <c r="E80" s="292"/>
       <c r="F80" s="139" t="s">
         <v>215</v>
       </c>
@@ -57579,10 +57636,10 @@
       <c r="A81" s="168"/>
       <c r="B81" s="184"/>
       <c r="C81" s="189"/>
-      <c r="D81" s="289" t="s">
+      <c r="D81" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E81" s="290"/>
+      <c r="E81" s="292"/>
       <c r="F81" s="139" t="s">
         <v>218</v>
       </c>
@@ -57676,8 +57733,8 @@
       <c r="A84" s="168"/>
       <c r="B84" s="192"/>
       <c r="C84" s="190"/>
-      <c r="D84" s="291"/>
-      <c r="E84" s="290"/>
+      <c r="D84" s="290"/>
+      <c r="E84" s="292"/>
       <c r="F84" s="139"/>
       <c r="G84" s="140"/>
       <c r="H84" s="140"/>
@@ -58067,12 +58124,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -58085,17 +58147,12 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58199,15 +58256,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -58220,15 +58277,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -58242,7 +58299,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -58262,15 +58319,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
-        <v>529</v>
-      </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="C7" s="290" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -58304,15 +58361,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -58375,19 +58432,19 @@
     </row>
     <row r="13" spans="1:15" ht="22" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -58416,11 +58473,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -58482,11 +58539,11 @@
       <c r="I16" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="290" t="s">
         <v>448</v>
       </c>
-      <c r="K16" s="299"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="292"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -58515,11 +58572,11 @@
       <c r="I17" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="J17" s="291" t="s">
+      <c r="J17" s="290" t="s">
         <v>382</v>
       </c>
-      <c r="K17" s="299"/>
-      <c r="L17" s="290"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="292"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -58697,11 +58754,11 @@
     </row>
     <row r="27" spans="1:15" s="181" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="144"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
       <c r="E27" s="179"/>
       <c r="F27" s="180"/>
       <c r="G27" s="179"/>
@@ -58716,12 +58773,12 @@
     </row>
     <row r="28" spans="1:15" s="183" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="182"/>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
-      <c r="E28" s="295"/>
+      <c r="C28" s="299"/>
+      <c r="D28" s="299"/>
+      <c r="E28" s="300"/>
       <c r="F28" s="174" t="s">
         <v>125</v>
       </c>
@@ -58813,10 +58870,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="189"/>
-      <c r="D31" s="291" t="s">
+      <c r="D31" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="290"/>
+      <c r="E31" s="292"/>
       <c r="F31" s="139" t="s">
         <v>435</v>
       </c>
@@ -58879,10 +58936,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="196"/>
       <c r="C33" s="190"/>
-      <c r="D33" s="291" t="s">
+      <c r="D33" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="290"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="139" t="s">
         <v>192</v>
       </c>
@@ -59167,11 +59224,11 @@
     </row>
     <row r="49" spans="1:15" ht="22" customHeight="1">
       <c r="A49" s="168"/>
-      <c r="B49" s="292" t="s">
+      <c r="B49" s="304" t="s">
         <v>420</v>
       </c>
-      <c r="C49" s="292"/>
-      <c r="D49" s="292"/>
+      <c r="C49" s="304"/>
+      <c r="D49" s="304"/>
       <c r="E49" s="168"/>
       <c r="F49" s="168"/>
       <c r="G49" s="168"/>
@@ -59186,12 +59243,12 @@
     </row>
     <row r="50" spans="1:15" s="183" customFormat="1" ht="22" customHeight="1">
       <c r="A50" s="182"/>
-      <c r="B50" s="293" t="s">
+      <c r="B50" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="294"/>
-      <c r="D50" s="294"/>
-      <c r="E50" s="295"/>
+      <c r="C50" s="299"/>
+      <c r="D50" s="299"/>
+      <c r="E50" s="300"/>
       <c r="F50" s="174" t="s">
         <v>125</v>
       </c>
@@ -59283,10 +59340,10 @@
       <c r="A53" s="168"/>
       <c r="B53" s="184"/>
       <c r="C53" s="189"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="139" t="s">
         <v>435</v>
       </c>
@@ -59316,10 +59373,10 @@
       <c r="A54" s="168"/>
       <c r="B54" s="184"/>
       <c r="C54" s="189"/>
-      <c r="D54" s="291" t="s">
+      <c r="D54" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>215</v>
       </c>
@@ -59349,10 +59406,10 @@
       <c r="A55" s="168"/>
       <c r="B55" s="184"/>
       <c r="C55" s="189"/>
-      <c r="D55" s="289" t="s">
+      <c r="D55" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="290"/>
+      <c r="E55" s="292"/>
       <c r="F55" s="139" t="s">
         <v>218</v>
       </c>
@@ -59789,6 +59846,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -59801,11 +59863,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59906,15 +59963,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -59927,15 +59984,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>454</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -59969,15 +60026,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -60011,15 +60068,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -60082,19 +60139,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -60123,11 +60180,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -60154,7 +60211,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="158" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J15" s="164" t="s">
         <v>457</v>
@@ -60189,11 +60246,11 @@
       <c r="I16" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="289" t="s">
+      <c r="J16" s="303" t="s">
         <v>458</v>
       </c>
-      <c r="K16" s="299"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="292"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -60222,11 +60279,11 @@
       <c r="I17" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="J17" s="306" t="s">
+      <c r="J17" s="305" t="s">
         <v>460</v>
       </c>
-      <c r="K17" s="307"/>
-      <c r="L17" s="308"/>
+      <c r="K17" s="306"/>
+      <c r="L17" s="307"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -60371,11 +60428,11 @@
     </row>
     <row r="26" spans="1:15" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="144"/>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
+      <c r="C26" s="289"/>
+      <c r="D26" s="289"/>
       <c r="E26" s="179"/>
       <c r="F26" s="180"/>
       <c r="G26" s="179"/>
@@ -60390,12 +60447,12 @@
     </row>
     <row r="27" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="293" t="s">
+      <c r="B27" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="295"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="300"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -60487,10 +60544,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="189"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="290"/>
+      <c r="E30" s="292"/>
       <c r="F30" s="139" t="s">
         <v>435</v>
       </c>
@@ -60520,10 +60577,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="190"/>
-      <c r="D31" s="291" t="s">
+      <c r="D31" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="290"/>
+      <c r="E31" s="292"/>
       <c r="F31" s="139" t="s">
         <v>192</v>
       </c>
@@ -60586,10 +60643,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="291" t="s">
+      <c r="D33" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="290"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="139" t="s">
         <v>196</v>
       </c>
@@ -60619,10 +60676,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
-      <c r="D34" s="296" t="s">
+      <c r="D34" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="297"/>
+      <c r="E34" s="302"/>
       <c r="F34" s="139" t="s">
         <v>163</v>
       </c>
@@ -60652,10 +60709,10 @@
       <c r="A35" s="168"/>
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="291" t="s">
+      <c r="D35" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="290"/>
+      <c r="E35" s="292"/>
       <c r="F35" s="139" t="s">
         <v>173</v>
       </c>
@@ -60718,10 +60775,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="290"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="141" t="s">
         <v>385</v>
       </c>
@@ -60749,15 +60806,15 @@
       <c r="A38" s="168"/>
       <c r="B38" s="192"/>
       <c r="C38" s="190"/>
-      <c r="D38" s="291" t="s">
-        <v>576</v>
-      </c>
-      <c r="E38" s="290"/>
+      <c r="D38" s="290" t="s">
+        <v>573</v>
+      </c>
+      <c r="E38" s="292"/>
       <c r="F38" s="139" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G38" s="140" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H38" s="140" t="s">
         <v>185</v>
@@ -60766,13 +60823,13 @@
         <v>1</v>
       </c>
       <c r="J38" s="140" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K38" s="140" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L38" s="141" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M38" s="168"/>
       <c r="N38" s="168"/>
@@ -61156,11 +61213,11 @@
     </row>
     <row r="61" spans="1:15" ht="19" customHeight="1">
       <c r="A61" s="168"/>
-      <c r="B61" s="292" t="s">
+      <c r="B61" s="304" t="s">
         <v>436</v>
       </c>
-      <c r="C61" s="292"/>
-      <c r="D61" s="292"/>
+      <c r="C61" s="304"/>
+      <c r="D61" s="304"/>
       <c r="E61" s="168"/>
       <c r="F61" s="168"/>
       <c r="G61" s="168"/>
@@ -61175,12 +61232,12 @@
     </row>
     <row r="62" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A62" s="182"/>
-      <c r="B62" s="293" t="s">
+      <c r="B62" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="294"/>
-      <c r="D62" s="294"/>
-      <c r="E62" s="295"/>
+      <c r="C62" s="299"/>
+      <c r="D62" s="299"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="174" t="s">
         <v>125</v>
       </c>
@@ -61272,10 +61329,10 @@
       <c r="A65" s="168"/>
       <c r="B65" s="184"/>
       <c r="C65" s="189"/>
-      <c r="D65" s="291" t="s">
+      <c r="D65" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="290"/>
+      <c r="E65" s="292"/>
       <c r="F65" s="139" t="s">
         <v>435</v>
       </c>
@@ -61305,10 +61362,10 @@
       <c r="A66" s="168"/>
       <c r="B66" s="184"/>
       <c r="C66" s="189"/>
-      <c r="D66" s="291" t="s">
+      <c r="D66" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="290"/>
+      <c r="E66" s="292"/>
       <c r="F66" s="139" t="s">
         <v>215</v>
       </c>
@@ -61338,10 +61395,10 @@
       <c r="A67" s="168"/>
       <c r="B67" s="184"/>
       <c r="C67" s="189"/>
-      <c r="D67" s="289" t="s">
+      <c r="D67" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="305"/>
+      <c r="E67" s="308"/>
       <c r="F67" s="139" t="s">
         <v>218</v>
       </c>
@@ -61435,8 +61492,8 @@
       <c r="A70" s="168"/>
       <c r="B70" s="192"/>
       <c r="C70" s="190"/>
-      <c r="D70" s="291"/>
-      <c r="E70" s="290"/>
+      <c r="D70" s="290"/>
+      <c r="E70" s="292"/>
       <c r="F70" s="139"/>
       <c r="G70" s="140"/>
       <c r="H70" s="140"/>
@@ -61826,12 +61883,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -61844,11 +61900,12 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
+++ b/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="19080" tabRatio="957" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="19080" tabRatio="957" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -1936,14 +1936,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>/v1/users/{user_id}/password</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>PUT /v1/users/13/password</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>/v1/users/search?keyword={keyword}</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -2088,10 +2080,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>http://{domain}/v1/users/{user_id}/password</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>Token</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -2281,6 +2269,18 @@
   </si>
   <si>
     <t>You are not login!</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>/v1/users/password</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>PUT /v1/users/password</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>http://{domain}/v1/users/password</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -3715,44 +3715,48 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3784,16 +3788,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3821,21 +3815,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3848,22 +3827,43 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3911,25 +3911,16 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3943,10 +3934,22 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3958,9 +3961,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3969,16 +3969,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3992,6 +3982,12 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4002,6 +3998,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15634,7 +15634,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>PUT /v1/users/user-id/passsword HTTP/1.1</a:t>
+            <a:t>PUT /v1/users/passsword HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15704,7 +15704,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>?current_password=abcd1234&amp;new_password=abc123&amp;retype_password=abc123&amp;token=xxxxxx</a:t>
+            <a:t>?old_password=abcd1234&amp;new_password=abc123&amp;retype_password=abc123&amp;token=xxxxxx</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21892,303 +21892,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="263" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="268" t="s">
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="269"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="250" t="s">
+      <c r="L1" s="235"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="271" t="s">
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="239"/>
+      <c r="V1" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="272"/>
-      <c r="AD1" s="273"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="241"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="241"/>
+      <c r="AD1" s="242"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="263" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="245" t="s">
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="246"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="265" t="s">
+      <c r="L2" s="247"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="258" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="267"/>
-      <c r="V2" s="242" t="s">
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="243" t="s">
         <v>149</v>
       </c>
-      <c r="W2" s="243"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="242" t="s">
+      <c r="W2" s="244"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="242" t="s">
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="245"/>
+      <c r="AB2" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="245"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="248" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="245" t="s">
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="246" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="246"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="250" t="s">
+      <c r="L3" s="247"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="237" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="253" t="s">
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="238"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="239"/>
+      <c r="V3" s="251" t="s">
         <v>511</v>
       </c>
-      <c r="W3" s="254"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="256">
+      <c r="W3" s="252"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="254">
         <v>41997</v>
       </c>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="259">
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="257">
         <v>42003</v>
       </c>
-      <c r="AC3" s="257"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="255"/>
+      <c r="AD3" s="256"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240" t="s">
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240" t="s">
+      <c r="G8" s="273"/>
+      <c r="H8" s="273" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240" t="s">
+      <c r="I8" s="273"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="240"/>
-      <c r="M8" s="240"/>
-      <c r="N8" s="240"/>
-      <c r="O8" s="240"/>
-      <c r="P8" s="240"/>
-      <c r="Q8" s="240"/>
-      <c r="R8" s="240"/>
-      <c r="S8" s="240"/>
-      <c r="T8" s="240"/>
-      <c r="U8" s="240"/>
-      <c r="V8" s="240"/>
-      <c r="W8" s="240"/>
-      <c r="X8" s="240" t="s">
+      <c r="L8" s="273"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="273"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="273"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="273"/>
+      <c r="T8" s="273"/>
+      <c r="U8" s="273"/>
+      <c r="V8" s="273"/>
+      <c r="W8" s="273"/>
+      <c r="X8" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="240"/>
-      <c r="Z8" s="240"/>
-      <c r="AA8" s="240"/>
-      <c r="AB8" s="240"/>
-      <c r="AC8" s="240"/>
+      <c r="Y8" s="273"/>
+      <c r="Z8" s="273"/>
+      <c r="AA8" s="273"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="273"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="241">
+      <c r="B9" s="261">
         <v>41997</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="232" t="s">
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="264" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="233"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="235"/>
-      <c r="N9" s="235"/>
-      <c r="O9" s="235"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="235"/>
-      <c r="U9" s="235"/>
-      <c r="V9" s="235"/>
-      <c r="W9" s="236"/>
-      <c r="X9" s="237"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="239"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="267"/>
+      <c r="L9" s="268"/>
+      <c r="M9" s="268"/>
+      <c r="N9" s="268"/>
+      <c r="O9" s="268"/>
+      <c r="P9" s="268"/>
+      <c r="Q9" s="268"/>
+      <c r="R9" s="268"/>
+      <c r="S9" s="268"/>
+      <c r="T9" s="268"/>
+      <c r="U9" s="268"/>
+      <c r="V9" s="268"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="270"/>
+      <c r="Y9" s="271"/>
+      <c r="Z9" s="271"/>
+      <c r="AA9" s="271"/>
+      <c r="AB9" s="271"/>
+      <c r="AC9" s="272"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="229"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
-      <c r="M10" s="235"/>
-      <c r="N10" s="235"/>
-      <c r="O10" s="235"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="235"/>
-      <c r="U10" s="235"/>
-      <c r="V10" s="235"/>
-      <c r="W10" s="236"/>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="239"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="263"/>
+      <c r="K10" s="267"/>
+      <c r="L10" s="268"/>
+      <c r="M10" s="268"/>
+      <c r="N10" s="268"/>
+      <c r="O10" s="268"/>
+      <c r="P10" s="268"/>
+      <c r="Q10" s="268"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="268"/>
+      <c r="T10" s="268"/>
+      <c r="U10" s="268"/>
+      <c r="V10" s="268"/>
+      <c r="W10" s="269"/>
+      <c r="X10" s="270"/>
+      <c r="Y10" s="271"/>
+      <c r="Z10" s="271"/>
+      <c r="AA10" s="271"/>
+      <c r="AB10" s="271"/>
+      <c r="AC10" s="272"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="229"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="231"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
-      <c r="M11" s="235"/>
-      <c r="N11" s="235"/>
-      <c r="O11" s="235"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="235"/>
-      <c r="R11" s="235"/>
-      <c r="S11" s="235"/>
-      <c r="T11" s="235"/>
-      <c r="U11" s="235"/>
-      <c r="V11" s="235"/>
-      <c r="W11" s="236"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="239"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="262"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="265"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="263"/>
+      <c r="K11" s="267"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="268"/>
+      <c r="S11" s="268"/>
+      <c r="T11" s="268"/>
+      <c r="U11" s="268"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="270"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="272"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="229"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="235"/>
-      <c r="R12" s="235"/>
-      <c r="S12" s="235"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="235"/>
-      <c r="V12" s="235"/>
-      <c r="W12" s="236"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="239"/>
+      <c r="B12" s="266"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="265"/>
+      <c r="H12" s="266"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="267"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="268"/>
+      <c r="U12" s="268"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="270"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="272"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -22218,11 +22218,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -22237,31 +22257,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22321,7 +22321,7 @@
         <v>439</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C2" s="168"/>
       <c r="D2" s="168"/>
@@ -22361,15 +22361,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
-        <v>604</v>
-      </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="C4" s="291" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -22382,15 +22382,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
-        <v>605</v>
-      </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="C5" s="291" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -22404,7 +22404,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="224" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D6" s="227"/>
       <c r="E6" s="227"/>
@@ -22424,15 +22424,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
-        <v>607</v>
-      </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="C7" s="291" t="s">
+        <v>604</v>
+      </c>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -22446,7 +22446,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="224" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D8" s="227"/>
       <c r="E8" s="227"/>
@@ -22466,15 +22466,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -22537,19 +22537,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -22578,11 +22578,11 @@
       <c r="I14" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -22611,11 +22611,11 @@
       <c r="I15" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="306" t="s">
         <v>460</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="307"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="168"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
@@ -22760,11 +22760,11 @@
     </row>
     <row r="24" spans="1:15" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A24" s="144"/>
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="289"/>
-      <c r="D24" s="289"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
       <c r="E24" s="179"/>
       <c r="F24" s="180"/>
       <c r="G24" s="179"/>
@@ -22779,12 +22779,12 @@
     </row>
     <row r="25" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="182"/>
-      <c r="B25" s="298" t="s">
+      <c r="B25" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="300"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="295"/>
       <c r="F25" s="228" t="s">
         <v>125</v>
       </c>
@@ -22876,10 +22876,10 @@
       <c r="A28" s="168"/>
       <c r="B28" s="184"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="290" t="s">
+      <c r="D28" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="292"/>
+      <c r="E28" s="290"/>
       <c r="F28" s="139" t="s">
         <v>435</v>
       </c>
@@ -22909,10 +22909,10 @@
       <c r="A29" s="168"/>
       <c r="B29" s="184"/>
       <c r="C29" s="190"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="292"/>
+      <c r="E29" s="290"/>
       <c r="F29" s="139" t="s">
         <v>192</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>185</v>
       </c>
       <c r="I30" s="140" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J30" s="140" t="s">
         <v>137</v>
@@ -23349,11 +23349,11 @@
     </row>
     <row r="53" spans="1:15" ht="19" customHeight="1">
       <c r="A53" s="168"/>
-      <c r="B53" s="304" t="s">
+      <c r="B53" s="292" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="304"/>
-      <c r="D53" s="304"/>
+      <c r="C53" s="292"/>
+      <c r="D53" s="292"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
       <c r="G53" s="168"/>
@@ -23368,12 +23368,12 @@
     </row>
     <row r="54" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="182"/>
-      <c r="B54" s="298" t="s">
+      <c r="B54" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="300"/>
+      <c r="C54" s="294"/>
+      <c r="D54" s="294"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="228" t="s">
         <v>125</v>
       </c>
@@ -23465,10 +23465,10 @@
       <c r="A57" s="168"/>
       <c r="B57" s="184"/>
       <c r="C57" s="189"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="292"/>
+      <c r="E57" s="290"/>
       <c r="F57" s="139" t="s">
         <v>435</v>
       </c>
@@ -23498,12 +23498,12 @@
       <c r="A58" s="168"/>
       <c r="B58" s="184"/>
       <c r="C58" s="189"/>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="308"/>
+      <c r="E58" s="305"/>
       <c r="F58" s="139" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G58" s="140" t="s">
         <v>137</v>
@@ -23521,7 +23521,7 @@
         <v>137</v>
       </c>
       <c r="L58" s="141" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M58" s="168"/>
       <c r="N58" s="168"/>
@@ -23562,8 +23562,8 @@
       <c r="A60" s="168"/>
       <c r="B60" s="192"/>
       <c r="C60" s="190"/>
-      <c r="D60" s="290"/>
-      <c r="E60" s="292"/>
+      <c r="D60" s="291"/>
+      <c r="E60" s="290"/>
       <c r="F60" s="139"/>
       <c r="G60" s="140"/>
       <c r="H60" s="140"/>
@@ -23953,22 +23953,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24073,16 +24073,16 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="290"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
       <c r="M4" s="168"/>
@@ -24095,16 +24095,16 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="290"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
       <c r="M5" s="168"/>
@@ -24139,16 +24139,16 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="290"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
       <c r="M7" s="168"/>
@@ -24183,16 +24183,16 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="299"/>
+      <c r="J9" s="290"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
       <c r="M9" s="168"/>
@@ -24258,20 +24258,20 @@
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="294"/>
-      <c r="M13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="301"/>
+      <c r="M13" s="302"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
       <c r="P13" s="168"/>
@@ -24301,11 +24301,11 @@
       <c r="J14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="296" t="s">
+      <c r="K14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="296"/>
-      <c r="M14" s="296"/>
+      <c r="L14" s="303"/>
+      <c r="M14" s="303"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
       <c r="P14" s="168"/>
@@ -24335,11 +24335,11 @@
       <c r="J15" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="K15" s="305" t="s">
+      <c r="K15" s="306" t="s">
         <v>460</v>
       </c>
-      <c r="L15" s="306"/>
-      <c r="M15" s="307"/>
+      <c r="L15" s="307"/>
+      <c r="M15" s="308"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
       <c r="P15" s="168"/>
@@ -24492,11 +24492,11 @@
     </row>
     <row r="24" spans="1:16" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A24" s="144"/>
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="289"/>
-      <c r="D24" s="289"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
       <c r="E24" s="179"/>
       <c r="F24" s="179"/>
       <c r="G24" s="180"/>
@@ -24512,13 +24512,13 @@
     </row>
     <row r="25" spans="1:16" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="182"/>
-      <c r="B25" s="298" t="s">
+      <c r="B25" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="300"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="295"/>
       <c r="G25" s="174" t="s">
         <v>125</v>
       </c>
@@ -24612,10 +24612,10 @@
       <c r="A28" s="168"/>
       <c r="B28" s="184"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="290" t="s">
+      <c r="D28" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="291"/>
+      <c r="E28" s="299"/>
       <c r="F28" s="165"/>
       <c r="G28" s="139" t="s">
         <v>435</v>
@@ -24680,10 +24680,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="190"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="291"/>
+      <c r="E30" s="299"/>
       <c r="F30" s="165"/>
       <c r="G30" s="139" t="s">
         <v>192</v>
@@ -24817,10 +24817,10 @@
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
       <c r="D34" s="191"/>
-      <c r="E34" s="290" t="s">
+      <c r="E34" s="291" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="292"/>
+      <c r="F34" s="290"/>
       <c r="G34" s="139" t="s">
         <v>163</v>
       </c>
@@ -24851,10 +24851,10 @@
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
       <c r="D35" s="178"/>
-      <c r="E35" s="290" t="s">
+      <c r="E35" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="292"/>
+      <c r="F35" s="290"/>
       <c r="G35" s="139" t="s">
         <v>173</v>
       </c>
@@ -24885,10 +24885,10 @@
       <c r="B36" s="184"/>
       <c r="C36" s="189"/>
       <c r="D36" s="178"/>
-      <c r="E36" s="290" t="s">
+      <c r="E36" s="291" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="292"/>
+      <c r="F36" s="290"/>
       <c r="G36" s="139" t="s">
         <v>174</v>
       </c>
@@ -25088,7 +25088,7 @@
       </c>
       <c r="F42" s="165"/>
       <c r="G42" s="139" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="H42" s="140" t="s">
         <v>164</v>
@@ -25122,7 +25122,7 @@
       </c>
       <c r="F43" s="165"/>
       <c r="G43" s="139" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H43" s="140" t="s">
         <v>164</v>
@@ -25904,11 +25904,11 @@
     </row>
     <row r="85" spans="1:16" ht="19" customHeight="1">
       <c r="A85" s="168"/>
-      <c r="B85" s="304" t="s">
+      <c r="B85" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="304"/>
-      <c r="D85" s="304"/>
+      <c r="C85" s="292"/>
+      <c r="D85" s="292"/>
       <c r="E85" s="168"/>
       <c r="F85" s="168"/>
       <c r="G85" s="168"/>
@@ -25924,12 +25924,12 @@
     </row>
     <row r="86" spans="1:16" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A86" s="182"/>
-      <c r="B86" s="298" t="s">
+      <c r="B86" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="299"/>
-      <c r="D86" s="299"/>
-      <c r="E86" s="300"/>
+      <c r="C86" s="294"/>
+      <c r="D86" s="294"/>
+      <c r="E86" s="295"/>
       <c r="F86" s="203"/>
       <c r="G86" s="174" t="s">
         <v>125</v>
@@ -26026,10 +26026,10 @@
       <c r="A89" s="168"/>
       <c r="B89" s="184"/>
       <c r="C89" s="189"/>
-      <c r="D89" s="290" t="s">
+      <c r="D89" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E89" s="292"/>
+      <c r="E89" s="290"/>
       <c r="F89" s="165"/>
       <c r="G89" s="139" t="s">
         <v>435</v>
@@ -26060,10 +26060,10 @@
       <c r="A90" s="168"/>
       <c r="B90" s="184"/>
       <c r="C90" s="189"/>
-      <c r="D90" s="290" t="s">
+      <c r="D90" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="292"/>
+      <c r="E90" s="290"/>
       <c r="F90" s="165"/>
       <c r="G90" s="139" t="s">
         <v>215</v>
@@ -26162,8 +26162,8 @@
       <c r="A93" s="168"/>
       <c r="B93" s="192"/>
       <c r="C93" s="190"/>
-      <c r="D93" s="290"/>
-      <c r="E93" s="292"/>
+      <c r="D93" s="291"/>
+      <c r="E93" s="290"/>
       <c r="F93" s="165"/>
       <c r="G93" s="139"/>
       <c r="H93" s="140"/>
@@ -26576,6 +26576,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="B13:M13"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
@@ -26589,12 +26595,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26694,15 +26694,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -26715,15 +26715,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -26737,7 +26737,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -26757,15 +26757,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -26799,15 +26799,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -26870,19 +26870,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -26911,11 +26911,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -27162,12 +27162,12 @@
     </row>
     <row r="27" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="300"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -27259,10 +27259,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="189"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="292"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="139" t="s">
         <v>435</v>
       </c>
@@ -27292,10 +27292,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="190"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="292"/>
+      <c r="E31" s="290"/>
       <c r="F31" s="139" t="s">
         <v>192</v>
       </c>
@@ -27358,10 +27358,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="139" t="s">
         <v>196</v>
       </c>
@@ -27391,10 +27391,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
-      <c r="D34" s="301" t="s">
+      <c r="D34" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="302"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="139" t="s">
         <v>163</v>
       </c>
@@ -27424,10 +27424,10 @@
       <c r="A35" s="168"/>
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="292"/>
+      <c r="E35" s="290"/>
       <c r="F35" s="139" t="s">
         <v>173</v>
       </c>
@@ -27490,10 +27490,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="290"/>
       <c r="F37" s="141" t="s">
         <v>385</v>
       </c>
@@ -27521,10 +27521,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="189"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="292"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="141" t="s">
         <v>389</v>
       </c>
@@ -27552,10 +27552,10 @@
       <c r="A39" s="168"/>
       <c r="B39" s="184"/>
       <c r="C39" s="189"/>
-      <c r="D39" s="290" t="s">
+      <c r="D39" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="E39" s="292"/>
+      <c r="E39" s="290"/>
       <c r="F39" s="141" t="s">
         <v>393</v>
       </c>
@@ -27585,10 +27585,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="292"/>
+      <c r="E40" s="290"/>
       <c r="F40" s="141" t="s">
         <v>182</v>
       </c>
@@ -27618,10 +27618,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="189"/>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="291" t="s">
         <v>396</v>
       </c>
-      <c r="E41" s="292"/>
+      <c r="E41" s="290"/>
       <c r="F41" s="141" t="s">
         <v>397</v>
       </c>
@@ -27649,10 +27649,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="292"/>
+      <c r="E42" s="290"/>
       <c r="F42" s="141" t="s">
         <v>401</v>
       </c>
@@ -27680,10 +27680,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="189"/>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="E43" s="292"/>
+      <c r="E43" s="290"/>
       <c r="F43" s="141" t="s">
         <v>405</v>
       </c>
@@ -27712,27 +27712,27 @@
       <c r="B44" s="310"/>
       <c r="C44" s="310"/>
       <c r="D44" s="217" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E44" s="216"/>
       <c r="F44" s="139" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G44" s="140" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H44" s="140"/>
       <c r="I44" s="140">
         <v>1</v>
       </c>
       <c r="J44" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K44" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L44" s="141" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M44" s="168"/>
       <c r="N44" s="168"/>
@@ -27743,24 +27743,24 @@
       <c r="B45" s="311"/>
       <c r="C45" s="311"/>
       <c r="D45" s="217" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E45" s="216"/>
       <c r="F45" s="139" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G45" s="140" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H45" s="140"/>
       <c r="I45" s="140">
         <v>1</v>
       </c>
       <c r="J45" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K45" s="140" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L45" s="218" t="s">
         <v>411</v>
@@ -28489,12 +28489,12 @@
     </row>
     <row r="88" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A88" s="182"/>
-      <c r="B88" s="298" t="s">
+      <c r="B88" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="299"/>
-      <c r="D88" s="299"/>
-      <c r="E88" s="300"/>
+      <c r="C88" s="294"/>
+      <c r="D88" s="294"/>
+      <c r="E88" s="295"/>
       <c r="F88" s="174" t="s">
         <v>125</v>
       </c>
@@ -28588,10 +28588,10 @@
       <c r="A91" s="168"/>
       <c r="B91" s="184"/>
       <c r="C91" s="189"/>
-      <c r="D91" s="290" t="s">
+      <c r="D91" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E91" s="292"/>
+      <c r="E91" s="290"/>
       <c r="F91" s="139" t="s">
         <v>435</v>
       </c>
@@ -28621,10 +28621,10 @@
       <c r="A92" s="168"/>
       <c r="B92" s="184"/>
       <c r="C92" s="189"/>
-      <c r="D92" s="290" t="s">
+      <c r="D92" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="292"/>
+      <c r="E92" s="290"/>
       <c r="F92" s="139" t="s">
         <v>215</v>
       </c>
@@ -28654,10 +28654,10 @@
       <c r="A93" s="168"/>
       <c r="B93" s="184"/>
       <c r="C93" s="189"/>
-      <c r="D93" s="303" t="s">
+      <c r="D93" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E93" s="308"/>
+      <c r="E93" s="305"/>
       <c r="F93" s="139" t="s">
         <v>218</v>
       </c>
@@ -28753,8 +28753,8 @@
       <c r="A96" s="168"/>
       <c r="B96" s="192"/>
       <c r="C96" s="190"/>
-      <c r="D96" s="290"/>
-      <c r="E96" s="292"/>
+      <c r="D96" s="291"/>
+      <c r="E96" s="290"/>
       <c r="F96" s="139"/>
       <c r="G96" s="140"/>
       <c r="H96" s="140"/>
@@ -29144,16 +29144,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -29166,12 +29162,16 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29272,15 +29272,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -29293,15 +29293,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -29335,15 +29335,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -29377,15 +29377,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -29448,19 +29448,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -29489,11 +29489,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -29707,12 +29707,12 @@
     </row>
     <row r="26" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="182"/>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="300"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="295"/>
       <c r="F26" s="174" t="s">
         <v>125</v>
       </c>
@@ -29804,10 +29804,10 @@
       <c r="A29" s="168"/>
       <c r="B29" s="184"/>
       <c r="C29" s="189"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="292"/>
+      <c r="E29" s="290"/>
       <c r="F29" s="139" t="s">
         <v>435</v>
       </c>
@@ -29837,10 +29837,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="190"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="292"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="139" t="s">
         <v>192</v>
       </c>
@@ -29903,10 +29903,10 @@
       <c r="A32" s="168"/>
       <c r="B32" s="184"/>
       <c r="C32" s="191"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="292"/>
+      <c r="E32" s="290"/>
       <c r="F32" s="139" t="s">
         <v>196</v>
       </c>
@@ -29936,10 +29936,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="301" t="s">
+      <c r="D33" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="302"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="139" t="s">
         <v>163</v>
       </c>
@@ -29969,10 +29969,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="189"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="292"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139" t="s">
         <v>173</v>
       </c>
@@ -30035,10 +30035,10 @@
       <c r="A36" s="168"/>
       <c r="B36" s="184"/>
       <c r="C36" s="189"/>
-      <c r="D36" s="290" t="s">
+      <c r="D36" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E36" s="292"/>
+      <c r="E36" s="290"/>
       <c r="F36" s="141" t="s">
         <v>385</v>
       </c>
@@ -30066,10 +30066,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="290"/>
       <c r="F37" s="141" t="s">
         <v>389</v>
       </c>
@@ -30097,10 +30097,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="189"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="292"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="141" t="s">
         <v>393</v>
       </c>
@@ -30130,10 +30130,10 @@
       <c r="A39" s="168"/>
       <c r="B39" s="184"/>
       <c r="C39" s="189"/>
-      <c r="D39" s="290" t="s">
+      <c r="D39" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="292"/>
+      <c r="E39" s="290"/>
       <c r="F39" s="141" t="s">
         <v>182</v>
       </c>
@@ -30163,10 +30163,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="291" t="s">
         <v>396</v>
       </c>
-      <c r="E40" s="292"/>
+      <c r="E40" s="290"/>
       <c r="F40" s="141" t="s">
         <v>397</v>
       </c>
@@ -30194,10 +30194,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="189"/>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="E41" s="292"/>
+      <c r="E41" s="290"/>
       <c r="F41" s="141" t="s">
         <v>401</v>
       </c>
@@ -30225,10 +30225,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="E42" s="292"/>
+      <c r="E42" s="290"/>
       <c r="F42" s="141" t="s">
         <v>405</v>
       </c>
@@ -30256,12 +30256,12 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="189"/>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="291" t="s">
         <v>408</v>
       </c>
-      <c r="E43" s="292"/>
+      <c r="E43" s="290"/>
       <c r="F43" s="141" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G43" s="140" t="s">
         <v>164</v>
@@ -30289,12 +30289,12 @@
       <c r="A44" s="168"/>
       <c r="B44" s="196"/>
       <c r="C44" s="190"/>
-      <c r="D44" s="290" t="s">
+      <c r="D44" s="291" t="s">
         <v>410</v>
       </c>
-      <c r="E44" s="292"/>
+      <c r="E44" s="290"/>
       <c r="F44" s="141" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G44" s="140" t="s">
         <v>164</v>
@@ -30817,12 +30817,12 @@
     </row>
     <row r="74" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A74" s="182"/>
-      <c r="B74" s="298" t="s">
+      <c r="B74" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="299"/>
-      <c r="D74" s="299"/>
-      <c r="E74" s="300"/>
+      <c r="C74" s="294"/>
+      <c r="D74" s="294"/>
+      <c r="E74" s="295"/>
       <c r="F74" s="174" t="s">
         <v>125</v>
       </c>
@@ -30914,10 +30914,10 @@
       <c r="A77" s="168"/>
       <c r="B77" s="184"/>
       <c r="C77" s="189"/>
-      <c r="D77" s="290" t="s">
+      <c r="D77" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E77" s="292"/>
+      <c r="E77" s="290"/>
       <c r="F77" s="139" t="s">
         <v>435</v>
       </c>
@@ -30947,10 +30947,10 @@
       <c r="A78" s="168"/>
       <c r="B78" s="184"/>
       <c r="C78" s="189"/>
-      <c r="D78" s="290" t="s">
+      <c r="D78" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="292"/>
+      <c r="E78" s="290"/>
       <c r="F78" s="139" t="s">
         <v>215</v>
       </c>
@@ -30980,10 +30980,10 @@
       <c r="A79" s="168"/>
       <c r="B79" s="184"/>
       <c r="C79" s="189"/>
-      <c r="D79" s="303" t="s">
+      <c r="D79" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E79" s="308"/>
+      <c r="E79" s="305"/>
       <c r="F79" s="139" t="s">
         <v>218</v>
       </c>
@@ -31077,8 +31077,8 @@
       <c r="A82" s="168"/>
       <c r="B82" s="192"/>
       <c r="C82" s="190"/>
-      <c r="D82" s="290"/>
-      <c r="E82" s="292"/>
+      <c r="D82" s="291"/>
+      <c r="E82" s="290"/>
       <c r="F82" s="139"/>
       <c r="G82" s="140"/>
       <c r="H82" s="140"/>
@@ -31468,16 +31468,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
@@ -31490,12 +31486,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:E74"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31595,15 +31595,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31616,15 +31616,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31658,15 +31658,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31700,15 +31700,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31771,19 +31771,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31812,11 +31812,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31843,11 +31843,11 @@
       <c r="I15" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31874,11 +31874,11 @@
       <c r="I16" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -31924,9 +31924,9 @@
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="75"/>
-      <c r="J18" s="312"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="313"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -31941,9 +31941,9 @@
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="312"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="313"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="316"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -32105,11 +32105,11 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="325" t="s">
+      <c r="B29" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="325"/>
-      <c r="D29" s="325"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="323"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="82"/>
@@ -32124,12 +32124,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="316" t="s">
+      <c r="B30" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="317"/>
-      <c r="D30" s="317"/>
-      <c r="E30" s="318"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="154" t="s">
         <v>125</v>
       </c>
@@ -32221,10 +32221,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="312" t="s">
+      <c r="D33" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="313"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -32254,10 +32254,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="312" t="s">
+      <c r="D34" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="74" t="s">
         <v>192</v>
       </c>
@@ -32301,7 +32301,7 @@
         <v>185</v>
       </c>
       <c r="I35" s="140" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J35" s="76" t="s">
         <v>137</v>
@@ -32320,10 +32320,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="87"/>
       <c r="C36" s="97"/>
-      <c r="D36" s="290" t="s">
+      <c r="D36" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="313"/>
+      <c r="E36" s="316"/>
       <c r="F36" s="139" t="s">
         <v>271</v>
       </c>
@@ -32353,10 +32353,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="301" t="s">
+      <c r="D37" s="296" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="314"/>
+      <c r="E37" s="324"/>
       <c r="F37" s="139" t="s">
         <v>274</v>
       </c>
@@ -32386,10 +32386,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="87"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>276</v>
       </c>
-      <c r="E38" s="313"/>
+      <c r="E38" s="316"/>
       <c r="F38" s="139" t="s">
         <v>277</v>
       </c>
@@ -32424,7 +32424,7 @@
       </c>
       <c r="E39" s="151"/>
       <c r="F39" s="139" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G39" s="76" t="s">
         <v>164</v>
@@ -32485,10 +32485,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="93"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="313"/>
+      <c r="E41" s="316"/>
       <c r="F41" s="139" t="s">
         <v>284</v>
       </c>
@@ -33096,11 +33096,11 @@
     </row>
     <row r="76" spans="1:15" ht="20" customHeight="1">
       <c r="A76" s="66"/>
-      <c r="B76" s="315" t="s">
+      <c r="B76" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="315"/>
-      <c r="D76" s="315"/>
+      <c r="C76" s="325"/>
+      <c r="D76" s="325"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -33117,12 +33117,12 @@
     </row>
     <row r="77" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A77" s="85"/>
-      <c r="B77" s="316" t="s">
+      <c r="B77" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="317"/>
-      <c r="D77" s="317"/>
-      <c r="E77" s="318"/>
+      <c r="C77" s="313"/>
+      <c r="D77" s="313"/>
+      <c r="E77" s="314"/>
       <c r="F77" s="154" t="s">
         <v>125</v>
       </c>
@@ -33214,10 +33214,10 @@
       <c r="A80" s="66"/>
       <c r="B80" s="87"/>
       <c r="C80" s="92"/>
-      <c r="D80" s="290" t="s">
+      <c r="D80" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E80" s="313"/>
+      <c r="E80" s="316"/>
       <c r="F80" s="74" t="s">
         <v>140</v>
       </c>
@@ -33247,10 +33247,10 @@
       <c r="A81" s="66"/>
       <c r="B81" s="87"/>
       <c r="C81" s="92"/>
-      <c r="D81" s="290" t="s">
+      <c r="D81" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="292"/>
+      <c r="E81" s="290"/>
       <c r="F81" s="139" t="s">
         <v>215</v>
       </c>
@@ -33280,10 +33280,10 @@
       <c r="A82" s="66"/>
       <c r="B82" s="87"/>
       <c r="C82" s="92"/>
-      <c r="D82" s="303" t="s">
+      <c r="D82" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E82" s="292"/>
+      <c r="E82" s="290"/>
       <c r="F82" s="139" t="s">
         <v>218</v>
       </c>
@@ -33377,8 +33377,8 @@
       <c r="A85" s="66"/>
       <c r="B85" s="93"/>
       <c r="C85" s="94"/>
-      <c r="D85" s="312"/>
-      <c r="E85" s="313"/>
+      <c r="D85" s="317"/>
+      <c r="E85" s="316"/>
       <c r="F85" s="74"/>
       <c r="G85" s="76"/>
       <c r="H85" s="76"/>
@@ -33768,6 +33768,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -33780,18 +33792,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -33896,15 +33896,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33917,15 +33917,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33959,15 +33959,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -34001,15 +34001,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -34072,19 +34072,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -34113,11 +34113,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34132,9 +34132,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="312"/>
-      <c r="K15" s="319"/>
-      <c r="L15" s="313"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="315"/>
+      <c r="L15" s="316"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -34296,11 +34296,11 @@
     </row>
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="325" t="s">
+      <c r="B25" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="325"/>
-      <c r="D25" s="325"/>
+      <c r="C25" s="323"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="82"/>
@@ -34315,12 +34315,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="318"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="314"/>
       <c r="F26" s="154" t="s">
         <v>125</v>
       </c>
@@ -34412,10 +34412,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="87"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="312" t="s">
+      <c r="D29" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="313"/>
+      <c r="E29" s="316"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -34445,10 +34445,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>192</v>
       </c>
@@ -34511,10 +34511,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="316"/>
       <c r="F32" s="139" t="s">
         <v>271</v>
       </c>
@@ -34544,10 +34544,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="301" t="s">
+      <c r="D33" s="296" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="314"/>
+      <c r="E33" s="324"/>
       <c r="F33" s="139" t="s">
         <v>274</v>
       </c>
@@ -34577,10 +34577,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="291" t="s">
         <v>292</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="139" t="s">
         <v>293</v>
       </c>
@@ -34615,7 +34615,7 @@
       </c>
       <c r="E35" s="151"/>
       <c r="F35" s="139" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G35" s="76" t="s">
         <v>164</v>
@@ -34676,10 +34676,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="93"/>
       <c r="C37" s="94"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="313"/>
+      <c r="E37" s="316"/>
       <c r="F37" s="139" t="s">
         <v>284</v>
       </c>
@@ -35049,11 +35049,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="315" t="s">
+      <c r="B58" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="315"/>
-      <c r="D58" s="315"/>
+      <c r="C58" s="325"/>
+      <c r="D58" s="325"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -35070,12 +35070,12 @@
     </row>
     <row r="59" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="85"/>
-      <c r="B59" s="316" t="s">
+      <c r="B59" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="317"/>
-      <c r="D59" s="317"/>
-      <c r="E59" s="318"/>
+      <c r="C59" s="313"/>
+      <c r="D59" s="313"/>
+      <c r="E59" s="314"/>
       <c r="F59" s="154" t="s">
         <v>125</v>
       </c>
@@ -35167,10 +35167,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="87"/>
       <c r="C62" s="92"/>
-      <c r="D62" s="290" t="s">
+      <c r="D62" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="313"/>
+      <c r="E62" s="316"/>
       <c r="F62" s="74" t="s">
         <v>140</v>
       </c>
@@ -35200,10 +35200,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="87"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="290" t="s">
+      <c r="D63" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="292"/>
+      <c r="E63" s="290"/>
       <c r="F63" s="139" t="s">
         <v>215</v>
       </c>
@@ -35233,10 +35233,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="87"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="303" t="s">
+      <c r="D64" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="292"/>
+      <c r="E64" s="290"/>
       <c r="F64" s="139" t="s">
         <v>218</v>
       </c>
@@ -35330,8 +35330,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="94"/>
-      <c r="D67" s="312"/>
-      <c r="E67" s="313"/>
+      <c r="D67" s="317"/>
+      <c r="E67" s="316"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -35721,15 +35721,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
@@ -35742,6 +35733,15 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35842,15 +35842,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35863,15 +35863,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35885,7 +35885,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -35905,15 +35905,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -35947,15 +35947,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -36018,19 +36018,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36059,11 +36059,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36090,11 +36090,11 @@
       <c r="I15" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -36121,11 +36121,11 @@
       <c r="I16" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36134,10 +36134,10 @@
       <c r="A17" s="66"/>
       <c r="B17" s="73"/>
       <c r="C17" s="139" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D17" s="141" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E17" s="140" t="s">
         <v>266</v>
@@ -36168,7 +36168,7 @@
         <v>299</v>
       </c>
       <c r="D18" s="141" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E18" s="140" t="s">
         <v>300</v>
@@ -36183,9 +36183,9 @@
       <c r="I18" s="159" t="s">
         <v>301</v>
       </c>
-      <c r="J18" s="312"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="313"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -36200,9 +36200,9 @@
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="312"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="313"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="316"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -36364,11 +36364,11 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="325" t="s">
+      <c r="B29" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="325"/>
-      <c r="D29" s="325"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="323"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="82"/>
@@ -36383,12 +36383,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="316" t="s">
+      <c r="B30" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="317"/>
-      <c r="D30" s="317"/>
-      <c r="E30" s="318"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="154" t="s">
         <v>125</v>
       </c>
@@ -36480,10 +36480,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="312" t="s">
+      <c r="D33" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="313"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -36513,10 +36513,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="312" t="s">
+      <c r="D34" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="74" t="s">
         <v>192</v>
       </c>
@@ -36579,10 +36579,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="87"/>
       <c r="C36" s="97"/>
-      <c r="D36" s="290" t="s">
+      <c r="D36" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="313"/>
+      <c r="E36" s="316"/>
       <c r="F36" s="139" t="s">
         <v>271</v>
       </c>
@@ -36612,10 +36612,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="301" t="s">
+      <c r="D37" s="296" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="314"/>
+      <c r="E37" s="324"/>
       <c r="F37" s="139" t="s">
         <v>274</v>
       </c>
@@ -36645,12 +36645,12 @@
       <c r="A38" s="66"/>
       <c r="B38" s="87"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="313"/>
+      <c r="E38" s="316"/>
       <c r="F38" s="139" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G38" s="76" t="s">
         <v>164</v>
@@ -36683,7 +36683,7 @@
       </c>
       <c r="E39" s="151"/>
       <c r="F39" s="139" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G39" s="76" t="s">
         <v>164</v>
@@ -36728,8 +36728,8 @@
       <c r="A41" s="66"/>
       <c r="B41" s="93"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="313"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="316"/>
       <c r="F41" s="139"/>
       <c r="G41" s="140"/>
       <c r="H41" s="76"/>
@@ -37238,11 +37238,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="315" t="s">
+      <c r="B71" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="315"/>
-      <c r="D71" s="315"/>
+      <c r="C71" s="325"/>
+      <c r="D71" s="325"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -37259,12 +37259,12 @@
     </row>
     <row r="72" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="85"/>
-      <c r="B72" s="316" t="s">
+      <c r="B72" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="317"/>
-      <c r="D72" s="317"/>
-      <c r="E72" s="318"/>
+      <c r="C72" s="313"/>
+      <c r="D72" s="313"/>
+      <c r="E72" s="314"/>
       <c r="F72" s="154" t="s">
         <v>125</v>
       </c>
@@ -37356,10 +37356,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="87"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="290" t="s">
+      <c r="D75" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="313"/>
+      <c r="E75" s="316"/>
       <c r="F75" s="74" t="s">
         <v>140</v>
       </c>
@@ -37389,10 +37389,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="87"/>
       <c r="C76" s="92"/>
-      <c r="D76" s="290" t="s">
+      <c r="D76" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="292"/>
+      <c r="E76" s="290"/>
       <c r="F76" s="139" t="s">
         <v>215</v>
       </c>
@@ -37422,10 +37422,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="87"/>
       <c r="C77" s="92"/>
-      <c r="D77" s="303" t="s">
+      <c r="D77" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E77" s="292"/>
+      <c r="E77" s="290"/>
       <c r="F77" s="139" t="s">
         <v>218</v>
       </c>
@@ -37519,8 +37519,8 @@
       <c r="A80" s="66"/>
       <c r="B80" s="93"/>
       <c r="C80" s="94"/>
-      <c r="D80" s="312"/>
-      <c r="E80" s="313"/>
+      <c r="D80" s="317"/>
+      <c r="E80" s="316"/>
       <c r="F80" s="74"/>
       <c r="G80" s="76"/>
       <c r="H80" s="76"/>
@@ -37910,6 +37910,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37922,18 +37934,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -38038,15 +38038,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -38059,15 +38059,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -38101,15 +38101,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -38143,15 +38143,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -38214,19 +38214,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -38255,11 +38255,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -38288,11 +38288,11 @@
       <c r="I15" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -38321,11 +38321,11 @@
       <c r="I16" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -38387,11 +38387,11 @@
       <c r="I18" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="291" t="s">
         <v>326</v>
       </c>
-      <c r="K18" s="319"/>
-      <c r="L18" s="313"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -38420,11 +38420,11 @@
       <c r="I19" s="161">
         <v>1</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="291" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="319"/>
-      <c r="L19" s="313"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="316"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -38433,10 +38433,10 @@
       <c r="A20" s="66"/>
       <c r="B20" s="327"/>
       <c r="C20" s="139" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D20" s="141" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E20" s="140" t="s">
         <v>266</v>
@@ -38451,13 +38451,13 @@
         <v>282</v>
       </c>
       <c r="I20" s="162" t="s">
-        <v>559</v>
-      </c>
-      <c r="J20" s="290" t="s">
-        <v>560</v>
-      </c>
-      <c r="K20" s="319"/>
-      <c r="L20" s="313"/>
+        <v>557</v>
+      </c>
+      <c r="J20" s="291" t="s">
+        <v>558</v>
+      </c>
+      <c r="K20" s="315"/>
+      <c r="L20" s="316"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -38619,11 +38619,11 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="325" t="s">
+      <c r="B30" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="325"/>
-      <c r="D30" s="325"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="323"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
       <c r="G30" s="82"/>
@@ -38638,12 +38638,12 @@
     </row>
     <row r="31" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="316" t="s">
+      <c r="B31" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="317"/>
-      <c r="D31" s="317"/>
-      <c r="E31" s="318"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="154" t="s">
         <v>125</v>
       </c>
@@ -38735,10 +38735,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="312" t="s">
+      <c r="D34" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -38768,10 +38768,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="87"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="312" t="s">
+      <c r="D35" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="316"/>
       <c r="F35" s="74" t="s">
         <v>192</v>
       </c>
@@ -38834,8 +38834,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="313"/>
+      <c r="D37" s="291"/>
+      <c r="E37" s="316"/>
       <c r="F37" s="139"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -38851,8 +38851,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="292"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
       <c r="H38" s="76"/>
@@ -39089,11 +39089,11 @@
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="315" t="s">
+      <c r="B52" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="315"/>
-      <c r="D52" s="315"/>
+      <c r="C52" s="325"/>
+      <c r="D52" s="325"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -39110,12 +39110,12 @@
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="316" t="s">
+      <c r="B53" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="317"/>
-      <c r="D53" s="317"/>
-      <c r="E53" s="318"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="313"/>
+      <c r="E53" s="314"/>
       <c r="F53" s="154" t="s">
         <v>125</v>
       </c>
@@ -39207,10 +39207,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="87"/>
       <c r="C56" s="92"/>
-      <c r="D56" s="290" t="s">
+      <c r="D56" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="313"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -39240,10 +39240,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="87"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="292"/>
+      <c r="E57" s="290"/>
       <c r="F57" s="139" t="s">
         <v>215</v>
       </c>
@@ -39273,10 +39273,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="87"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="292"/>
+      <c r="E58" s="290"/>
       <c r="F58" s="139" t="s">
         <v>218</v>
       </c>
@@ -39370,8 +39370,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="93"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="312"/>
-      <c r="E61" s="313"/>
+      <c r="D61" s="317"/>
+      <c r="E61" s="316"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -39761,20 +39761,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D34:E34"/>
@@ -39785,6 +39771,20 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -39889,15 +39889,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39910,15 +39910,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39952,15 +39952,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39994,15 +39994,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -40065,19 +40065,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40106,11 +40106,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40139,11 +40139,11 @@
       <c r="I15" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40172,11 +40172,11 @@
       <c r="I16" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40238,11 +40238,11 @@
       <c r="I18" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="291" t="s">
         <v>326</v>
       </c>
-      <c r="K18" s="319"/>
-      <c r="L18" s="313"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -40271,11 +40271,11 @@
       <c r="I19" s="161">
         <v>1</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="291" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="319"/>
-      <c r="L19" s="313"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="316"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -40287,7 +40287,7 @@
         <v>335</v>
       </c>
       <c r="D20" s="141" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E20" s="140" t="s">
         <v>266</v>
@@ -40304,11 +40304,11 @@
       <c r="I20" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J20" s="290" t="s">
+      <c r="J20" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="K20" s="319"/>
-      <c r="L20" s="313"/>
+      <c r="K20" s="315"/>
+      <c r="L20" s="316"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -40470,11 +40470,11 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="325" t="s">
+      <c r="B30" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="325"/>
-      <c r="D30" s="325"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="323"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
       <c r="G30" s="82"/>
@@ -40489,12 +40489,12 @@
     </row>
     <row r="31" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="316" t="s">
+      <c r="B31" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="317"/>
-      <c r="D31" s="317"/>
-      <c r="E31" s="318"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="154" t="s">
         <v>125</v>
       </c>
@@ -40586,10 +40586,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="312" t="s">
+      <c r="D34" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -40619,10 +40619,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="87"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="312" t="s">
+      <c r="D35" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="316"/>
       <c r="F35" s="74" t="s">
         <v>192</v>
       </c>
@@ -40685,8 +40685,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="313"/>
+      <c r="D37" s="291"/>
+      <c r="E37" s="316"/>
       <c r="F37" s="139"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -40702,8 +40702,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="292"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
       <c r="H38" s="76"/>
@@ -40957,11 +40957,11 @@
     </row>
     <row r="53" spans="1:15" ht="20" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="315" t="s">
+      <c r="B53" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="315"/>
-      <c r="D53" s="315"/>
+      <c r="C53" s="325"/>
+      <c r="D53" s="325"/>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
       <c r="G53" s="66"/>
@@ -40978,12 +40978,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="316" t="s">
+      <c r="B54" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="317"/>
-      <c r="D54" s="317"/>
-      <c r="E54" s="318"/>
+      <c r="C54" s="313"/>
+      <c r="D54" s="313"/>
+      <c r="E54" s="314"/>
       <c r="F54" s="154" t="s">
         <v>125</v>
       </c>
@@ -41075,10 +41075,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="87"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="313"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="74" t="s">
         <v>140</v>
       </c>
@@ -41108,10 +41108,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="87"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="290" t="s">
+      <c r="D58" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="292"/>
+      <c r="E58" s="290"/>
       <c r="F58" s="139" t="s">
         <v>215</v>
       </c>
@@ -41141,10 +41141,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="87"/>
       <c r="C59" s="92"/>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="290"/>
       <c r="F59" s="139" t="s">
         <v>218</v>
       </c>
@@ -41238,8 +41238,8 @@
       <c r="A62" s="66"/>
       <c r="B62" s="93"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="312"/>
-      <c r="E62" s="313"/>
+      <c r="D62" s="317"/>
+      <c r="E62" s="316"/>
       <c r="F62" s="74"/>
       <c r="G62" s="76"/>
       <c r="H62" s="76"/>
@@ -41629,18 +41629,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:E31"/>
@@ -41653,6 +41641,18 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -41757,15 +41757,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41778,15 +41778,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41820,15 +41820,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41862,15 +41862,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41933,19 +41933,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -41974,11 +41974,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -41990,7 +41990,7 @@
         <v>338</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E15" s="140" t="s">
         <v>313</v>
@@ -42007,11 +42007,11 @@
       <c r="I15" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -42026,9 +42026,9 @@
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="162"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="319"/>
-      <c r="L16" s="313"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="316"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -42190,11 +42190,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -42209,12 +42209,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -42306,10 +42306,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -42339,10 +42339,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="312" t="s">
+      <c r="D31" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="316"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -42405,8 +42405,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -42422,8 +42422,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="292"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -42677,11 +42677,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="66"/>
-      <c r="B49" s="315" t="s">
+      <c r="B49" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="315"/>
-      <c r="D49" s="315"/>
+      <c r="C49" s="325"/>
+      <c r="D49" s="325"/>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
@@ -42698,12 +42698,12 @@
     </row>
     <row r="50" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="85"/>
-      <c r="B50" s="316" t="s">
+      <c r="B50" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="317"/>
-      <c r="D50" s="317"/>
-      <c r="E50" s="318"/>
+      <c r="C50" s="313"/>
+      <c r="D50" s="313"/>
+      <c r="E50" s="314"/>
       <c r="F50" s="154" t="s">
         <v>125</v>
       </c>
@@ -42795,10 +42795,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="313"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="74" t="s">
         <v>140</v>
       </c>
@@ -42828,10 +42828,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="290" t="s">
+      <c r="D54" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>215</v>
       </c>
@@ -42861,10 +42861,10 @@
       <c r="A55" s="66"/>
       <c r="B55" s="87"/>
       <c r="C55" s="92"/>
-      <c r="D55" s="303" t="s">
+      <c r="D55" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="292"/>
+      <c r="E55" s="290"/>
       <c r="F55" s="139" t="s">
         <v>218</v>
       </c>
@@ -42958,8 +42958,8 @@
       <c r="A58" s="66"/>
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
-      <c r="D58" s="312"/>
-      <c r="E58" s="313"/>
+      <c r="D58" s="317"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="74"/>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
@@ -43349,14 +43349,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -43369,6 +43361,14 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -44070,15 +44070,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -44091,15 +44091,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -44133,15 +44133,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -44175,15 +44175,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -44246,19 +44246,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -44287,11 +44287,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -44306,9 +44306,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="312"/>
-      <c r="K15" s="319"/>
-      <c r="L15" s="313"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="315"/>
+      <c r="L15" s="316"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -44470,11 +44470,11 @@
     </row>
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="325" t="s">
+      <c r="B25" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="325"/>
-      <c r="D25" s="325"/>
+      <c r="C25" s="323"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="82"/>
@@ -44489,12 +44489,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="318"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="314"/>
       <c r="F26" s="154" t="s">
         <v>125</v>
       </c>
@@ -44586,10 +44586,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="87"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="312" t="s">
+      <c r="D29" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="313"/>
+      <c r="E29" s="316"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -44619,10 +44619,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>192</v>
       </c>
@@ -44666,7 +44666,7 @@
         <v>185</v>
       </c>
       <c r="I31" s="140" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J31" s="76" t="s">
         <v>137</v>
@@ -44685,10 +44685,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="291" t="s">
         <v>347</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="316"/>
       <c r="F32" s="139" t="s">
         <v>271</v>
       </c>
@@ -44718,10 +44718,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="301" t="s">
+      <c r="D33" s="296" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="314"/>
+      <c r="E33" s="324"/>
       <c r="F33" s="139" t="s">
         <v>350</v>
       </c>
@@ -44756,7 +44756,7 @@
       </c>
       <c r="E34" s="151"/>
       <c r="F34" s="139" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G34" s="76" t="s">
         <v>164</v>
@@ -44784,10 +44784,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="93"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="316"/>
       <c r="F35" s="139" t="s">
         <v>284</v>
       </c>
@@ -45395,11 +45395,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="315" t="s">
+      <c r="B70" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="315"/>
-      <c r="D70" s="315"/>
+      <c r="C70" s="325"/>
+      <c r="D70" s="325"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -45416,12 +45416,12 @@
     </row>
     <row r="71" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="85"/>
-      <c r="B71" s="316" t="s">
+      <c r="B71" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="317"/>
-      <c r="D71" s="317"/>
-      <c r="E71" s="318"/>
+      <c r="C71" s="313"/>
+      <c r="D71" s="313"/>
+      <c r="E71" s="314"/>
       <c r="F71" s="154" t="s">
         <v>125</v>
       </c>
@@ -45513,10 +45513,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="87"/>
       <c r="C74" s="92"/>
-      <c r="D74" s="290" t="s">
+      <c r="D74" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="313"/>
+      <c r="E74" s="316"/>
       <c r="F74" s="74" t="s">
         <v>140</v>
       </c>
@@ -45546,10 +45546,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="87"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="290" t="s">
+      <c r="D75" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="292"/>
+      <c r="E75" s="290"/>
       <c r="F75" s="139" t="s">
         <v>215</v>
       </c>
@@ -45579,10 +45579,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="87"/>
       <c r="C76" s="92"/>
-      <c r="D76" s="303" t="s">
+      <c r="D76" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="292"/>
+      <c r="E76" s="290"/>
       <c r="F76" s="139" t="s">
         <v>218</v>
       </c>
@@ -45676,8 +45676,8 @@
       <c r="A79" s="66"/>
       <c r="B79" s="93"/>
       <c r="C79" s="94"/>
-      <c r="D79" s="312"/>
-      <c r="E79" s="313"/>
+      <c r="D79" s="317"/>
+      <c r="E79" s="316"/>
       <c r="F79" s="74"/>
       <c r="G79" s="76"/>
       <c r="H79" s="76"/>
@@ -46067,15 +46067,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
@@ -46087,6 +46078,15 @@
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46187,15 +46187,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -46208,15 +46208,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>354</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -46230,7 +46230,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -46250,15 +46250,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -46292,15 +46292,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -46363,19 +46363,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -46404,11 +46404,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -46450,10 +46450,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="219"/>
       <c r="C16" s="139" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D16" s="141" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E16" s="140" t="s">
         <v>266</v>
@@ -46468,13 +46468,13 @@
         <v>282</v>
       </c>
       <c r="I16" s="162" t="s">
-        <v>562</v>
-      </c>
-      <c r="J16" s="290" t="s">
-        <v>563</v>
-      </c>
-      <c r="K16" s="319"/>
-      <c r="L16" s="313"/>
+        <v>560</v>
+      </c>
+      <c r="J16" s="291" t="s">
+        <v>561</v>
+      </c>
+      <c r="K16" s="315"/>
+      <c r="L16" s="316"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -46636,11 +46636,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -46655,12 +46655,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -46752,10 +46752,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -46785,10 +46785,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="312" t="s">
+      <c r="D31" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="316"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -46851,8 +46851,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -46868,8 +46868,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="292"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -47106,11 +47106,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="315" t="s">
+      <c r="B48" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="315"/>
-      <c r="D48" s="315"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -47127,12 +47127,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="317"/>
-      <c r="D49" s="317"/>
-      <c r="E49" s="318"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="313"/>
+      <c r="E49" s="314"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -47224,10 +47224,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="290" t="s">
+      <c r="D52" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="316"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -47257,10 +47257,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -47290,10 +47290,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="303" t="s">
+      <c r="D54" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -47387,8 +47387,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="312"/>
-      <c r="E57" s="313"/>
+      <c r="D57" s="317"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -47778,12 +47778,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B26:D26"/>
@@ -47797,6 +47791,12 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -47897,15 +47897,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47918,15 +47918,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -47960,15 +47960,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -48002,15 +48002,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -48073,19 +48073,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48114,11 +48114,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48163,7 +48163,7 @@
         <v>335</v>
       </c>
       <c r="D16" s="141" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E16" s="140" t="s">
         <v>266</v>
@@ -48180,11 +48180,11 @@
       <c r="I16" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="319"/>
-      <c r="L16" s="313"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="316"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -48346,11 +48346,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -48365,12 +48365,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -48462,10 +48462,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -48495,10 +48495,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="312" t="s">
+      <c r="D31" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="316"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -48561,8 +48561,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -48578,8 +48578,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="292"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -48816,11 +48816,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="315" t="s">
+      <c r="B48" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="315"/>
-      <c r="D48" s="315"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -48837,12 +48837,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="317"/>
-      <c r="D49" s="317"/>
-      <c r="E49" s="318"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="313"/>
+      <c r="E49" s="314"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -48934,10 +48934,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="290" t="s">
+      <c r="D52" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="316"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -48967,10 +48967,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -49000,10 +49000,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="303" t="s">
+      <c r="D54" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -49097,8 +49097,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="312"/>
-      <c r="E57" s="313"/>
+      <c r="D57" s="317"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -49488,12 +49488,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B26:D26"/>
@@ -49507,6 +49501,12 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -49610,15 +49610,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49631,15 +49631,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49673,15 +49673,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49715,15 +49715,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49786,19 +49786,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49827,11 +49827,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49843,7 +49843,7 @@
         <v>338</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E15" s="140" t="s">
         <v>313</v>
@@ -49860,11 +49860,11 @@
       <c r="I15" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49879,9 +49879,9 @@
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="162"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="319"/>
-      <c r="L16" s="313"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="316"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50043,11 +50043,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -50062,12 +50062,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -50159,10 +50159,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -50192,10 +50192,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="312" t="s">
+      <c r="D31" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="316"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -50258,8 +50258,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -50275,8 +50275,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="292"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -50513,11 +50513,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="315" t="s">
+      <c r="B48" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="315"/>
-      <c r="D48" s="315"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -50534,12 +50534,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="317"/>
-      <c r="D49" s="317"/>
-      <c r="E49" s="318"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="313"/>
+      <c r="E49" s="314"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -50631,10 +50631,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="290" t="s">
+      <c r="D52" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="316"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -50664,10 +50664,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -50697,10 +50697,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="303" t="s">
+      <c r="D54" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -50794,8 +50794,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="312"/>
-      <c r="E57" s="313"/>
+      <c r="D57" s="317"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -51185,6 +51185,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -51197,14 +51205,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -51660,7 +51660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -51886,7 +51886,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="117" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C17" s="124"/>
       <c r="D17" s="124"/>
@@ -51912,7 +51912,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="147" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D19" s="274" t="s">
         <v>4</v>
@@ -51927,10 +51927,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="147" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D20" s="274" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E20" s="274"/>
       <c r="F20" s="148"/>
@@ -51942,7 +51942,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="147" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D21" s="274" t="s">
         <v>24</v>
@@ -51957,7 +51957,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="147" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D22" s="274" t="s">
         <v>5</v>
@@ -51972,7 +51972,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="147" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D23" s="274" t="s">
         <v>26</v>
@@ -51987,7 +51987,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="147" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D24" s="274" t="s">
         <v>25</v>
@@ -52043,7 +52043,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="274" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E29" s="274"/>
       <c r="F29" s="148"/>
@@ -52058,7 +52058,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="274" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E30" s="274"/>
       <c r="F30" s="148"/>
@@ -52073,7 +52073,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="274" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E31" s="274"/>
       <c r="F31" s="148"/>
@@ -52088,7 +52088,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="274" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E32" s="274"/>
       <c r="F32" s="148"/>
@@ -52160,10 +52160,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="147" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D37" s="274" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E37" s="274"/>
       <c r="F37" s="148"/>
@@ -52175,10 +52175,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="147" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D38" s="274" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E38" s="274"/>
       <c r="F38" s="148"/>
@@ -52359,30 +52359,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D18:E18"/>
@@ -52399,6 +52375,30 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -52416,7 +52416,7 @@
   <dimension ref="B1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -52529,10 +52529,10 @@
         <v>514</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G6" s="102" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H6" s="103" t="s">
         <v>508</v>
@@ -52553,10 +52553,10 @@
         <v>514</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>534</v>
+        <v>618</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>535</v>
+        <v>619</v>
       </c>
       <c r="H7" s="103" t="s">
         <v>441</v>
@@ -52601,13 +52601,13 @@
         <v>464</v>
       </c>
       <c r="F9" s="211" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H9" s="103" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I9" s="104"/>
       <c r="J9" s="38"/>
@@ -52734,10 +52734,10 @@
         <v>235</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H15" s="108" t="s">
         <v>245</v>
@@ -52761,7 +52761,7 @@
         <v>517</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H16" s="108" t="s">
         <v>244</v>
@@ -52845,10 +52845,10 @@
         <v>234</v>
       </c>
       <c r="F20" s="111" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G20" s="111" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H20" s="112" t="s">
         <v>248</v>
@@ -52869,13 +52869,13 @@
         <v>239</v>
       </c>
       <c r="F21" s="111" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G21" s="111" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H21" s="112" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I21" s="104"/>
       <c r="J21" s="38"/>
@@ -52893,10 +52893,10 @@
         <v>240</v>
       </c>
       <c r="F22" s="111" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G22" s="111" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H22" s="112" t="s">
         <v>249</v>
@@ -52917,10 +52917,10 @@
         <v>241</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G23" s="111" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H23" s="112" t="s">
         <v>250</v>
@@ -53144,15 +53144,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -53165,15 +53165,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -53207,15 +53207,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -53249,15 +53249,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -53320,19 +53320,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -53361,11 +53361,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -53392,13 +53392,13 @@
         <v>50</v>
       </c>
       <c r="I15" s="158" t="s">
-        <v>565</v>
-      </c>
-      <c r="J15" s="297" t="s">
-        <v>564</v>
-      </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+        <v>563</v>
+      </c>
+      <c r="J15" s="304" t="s">
+        <v>562</v>
+      </c>
+      <c r="K15" s="304"/>
+      <c r="L15" s="304"/>
       <c r="M15" s="168"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
@@ -53427,11 +53427,11 @@
       <c r="I16" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="K16" s="304"/>
+      <c r="L16" s="304"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -53526,11 +53526,11 @@
       <c r="I19" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="291" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="291"/>
-      <c r="L19" s="292"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="290"/>
       <c r="M19" s="168"/>
       <c r="N19" s="168"/>
       <c r="O19" s="168"/>
@@ -53557,11 +53557,11 @@
       <c r="I20" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="J20" s="290" t="s">
+      <c r="J20" s="291" t="s">
         <v>387</v>
       </c>
-      <c r="K20" s="291"/>
-      <c r="L20" s="292"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="290"/>
       <c r="M20" s="168"/>
       <c r="N20" s="168"/>
       <c r="O20" s="168"/>
@@ -53650,11 +53650,11 @@
       <c r="I23" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="290" t="s">
+      <c r="J23" s="291" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="291"/>
-      <c r="L23" s="292"/>
+      <c r="K23" s="299"/>
+      <c r="L23" s="290"/>
       <c r="M23" s="168"/>
       <c r="N23" s="168"/>
       <c r="O23" s="168"/>
@@ -53756,26 +53756,26 @@
       <c r="A27" s="168"/>
       <c r="B27" s="175"/>
       <c r="C27" s="139" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E27" s="140" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F27" s="140"/>
       <c r="G27" s="140" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H27" s="140" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I27" s="158" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J27" s="164" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K27" s="172"/>
       <c r="L27" s="165"/>
@@ -53923,11 +53923,11 @@
     </row>
     <row r="36" spans="1:15" s="181" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="144"/>
-      <c r="B36" s="289" t="s">
+      <c r="B36" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="289"/>
-      <c r="D36" s="289"/>
+      <c r="C36" s="298"/>
+      <c r="D36" s="298"/>
       <c r="E36" s="179"/>
       <c r="F36" s="180"/>
       <c r="G36" s="179"/>
@@ -53942,12 +53942,12 @@
     </row>
     <row r="37" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="182"/>
-      <c r="B37" s="298" t="s">
+      <c r="B37" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="300"/>
+      <c r="C37" s="294"/>
+      <c r="D37" s="294"/>
+      <c r="E37" s="295"/>
       <c r="F37" s="174" t="s">
         <v>125</v>
       </c>
@@ -54039,10 +54039,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="292"/>
+      <c r="E40" s="290"/>
       <c r="F40" s="139" t="s">
         <v>415</v>
       </c>
@@ -54072,10 +54072,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="190"/>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="292"/>
+      <c r="E41" s="290"/>
       <c r="F41" s="139" t="s">
         <v>192</v>
       </c>
@@ -54138,10 +54138,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="191"/>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="292"/>
+      <c r="E43" s="290"/>
       <c r="F43" s="139" t="s">
         <v>196</v>
       </c>
@@ -54171,10 +54171,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="184"/>
       <c r="C44" s="191"/>
-      <c r="D44" s="301" t="s">
+      <c r="D44" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="302"/>
+      <c r="E44" s="297"/>
       <c r="F44" s="139" t="s">
         <v>163</v>
       </c>
@@ -54204,10 +54204,10 @@
       <c r="A45" s="168"/>
       <c r="B45" s="184"/>
       <c r="C45" s="189"/>
-      <c r="D45" s="290" t="s">
+      <c r="D45" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="292"/>
+      <c r="E45" s="290"/>
       <c r="F45" s="139" t="s">
         <v>173</v>
       </c>
@@ -54270,10 +54270,10 @@
       <c r="A47" s="168"/>
       <c r="B47" s="184"/>
       <c r="C47" s="189"/>
-      <c r="D47" s="290" t="s">
+      <c r="D47" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E47" s="292"/>
+      <c r="E47" s="290"/>
       <c r="F47" s="141" t="s">
         <v>385</v>
       </c>
@@ -54301,10 +54301,10 @@
       <c r="A48" s="168"/>
       <c r="B48" s="184"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="290" t="s">
+      <c r="D48" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="E48" s="292"/>
+      <c r="E48" s="290"/>
       <c r="F48" s="141" t="s">
         <v>389</v>
       </c>
@@ -54332,10 +54332,10 @@
       <c r="A49" s="168"/>
       <c r="B49" s="184"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="290" t="s">
+      <c r="D49" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="E49" s="292"/>
+      <c r="E49" s="290"/>
       <c r="F49" s="141" t="s">
         <v>393</v>
       </c>
@@ -54365,10 +54365,10 @@
       <c r="A50" s="168"/>
       <c r="B50" s="184"/>
       <c r="C50" s="189"/>
-      <c r="D50" s="290" t="s">
+      <c r="D50" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="292"/>
+      <c r="E50" s="290"/>
       <c r="F50" s="141" t="s">
         <v>182</v>
       </c>
@@ -54398,10 +54398,10 @@
       <c r="A51" s="168"/>
       <c r="B51" s="184"/>
       <c r="C51" s="189"/>
-      <c r="D51" s="290" t="s">
+      <c r="D51" s="291" t="s">
         <v>396</v>
       </c>
-      <c r="E51" s="292"/>
+      <c r="E51" s="290"/>
       <c r="F51" s="141" t="s">
         <v>397</v>
       </c>
@@ -54429,10 +54429,10 @@
       <c r="A52" s="168"/>
       <c r="B52" s="184"/>
       <c r="C52" s="189"/>
-      <c r="D52" s="290" t="s">
+      <c r="D52" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="E52" s="292"/>
+      <c r="E52" s="290"/>
       <c r="F52" s="141" t="s">
         <v>401</v>
       </c>
@@ -54460,10 +54460,10 @@
       <c r="A53" s="168"/>
       <c r="B53" s="184"/>
       <c r="C53" s="189"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="141" t="s">
         <v>405</v>
       </c>
@@ -54492,27 +54492,27 @@
       <c r="B54" s="184"/>
       <c r="C54" s="189"/>
       <c r="D54" s="217" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E54" s="216"/>
       <c r="F54" s="139" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G54" s="140" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H54" s="140"/>
       <c r="I54" s="140">
         <v>1</v>
       </c>
       <c r="J54" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K54" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L54" s="141" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M54" s="168"/>
       <c r="N54" s="168"/>
@@ -54523,24 +54523,24 @@
       <c r="B55" s="184"/>
       <c r="C55" s="189"/>
       <c r="D55" s="217" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E55" s="216"/>
       <c r="F55" s="139" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G55" s="140" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H55" s="140"/>
       <c r="I55" s="140">
         <v>1</v>
       </c>
       <c r="J55" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K55" s="140" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L55" s="218" t="s">
         <v>411</v>
@@ -54553,10 +54553,10 @@
       <c r="A56" s="168"/>
       <c r="B56" s="192"/>
       <c r="C56" s="190"/>
-      <c r="D56" s="290" t="s">
+      <c r="D56" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="E56" s="292"/>
+      <c r="E56" s="290"/>
       <c r="F56" s="139" t="s">
         <v>419</v>
       </c>
@@ -54960,11 +54960,11 @@
     </row>
     <row r="79" spans="1:15" ht="20" customHeight="1">
       <c r="A79" s="168"/>
-      <c r="B79" s="304" t="s">
+      <c r="B79" s="292" t="s">
         <v>420</v>
       </c>
-      <c r="C79" s="304"/>
-      <c r="D79" s="304"/>
+      <c r="C79" s="292"/>
+      <c r="D79" s="292"/>
       <c r="E79" s="168"/>
       <c r="F79" s="168"/>
       <c r="G79" s="168"/>
@@ -54979,12 +54979,12 @@
     </row>
     <row r="80" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="182"/>
-      <c r="B80" s="298" t="s">
+      <c r="B80" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="299"/>
-      <c r="D80" s="299"/>
-      <c r="E80" s="300"/>
+      <c r="C80" s="294"/>
+      <c r="D80" s="294"/>
+      <c r="E80" s="295"/>
       <c r="F80" s="174" t="s">
         <v>125</v>
       </c>
@@ -55076,10 +55076,10 @@
       <c r="A83" s="168"/>
       <c r="B83" s="184"/>
       <c r="C83" s="189"/>
-      <c r="D83" s="290" t="s">
+      <c r="D83" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E83" s="292"/>
+      <c r="E83" s="290"/>
       <c r="F83" s="139" t="s">
         <v>140</v>
       </c>
@@ -55109,10 +55109,10 @@
       <c r="A84" s="168"/>
       <c r="B84" s="184"/>
       <c r="C84" s="189"/>
-      <c r="D84" s="290" t="s">
+      <c r="D84" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="292"/>
+      <c r="E84" s="290"/>
       <c r="F84" s="139" t="s">
         <v>215</v>
       </c>
@@ -55142,10 +55142,10 @@
       <c r="A85" s="168"/>
       <c r="B85" s="184"/>
       <c r="C85" s="189"/>
-      <c r="D85" s="303" t="s">
+      <c r="D85" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E85" s="292"/>
+      <c r="E85" s="290"/>
       <c r="F85" s="139" t="s">
         <v>218</v>
       </c>
@@ -55239,8 +55239,8 @@
       <c r="A88" s="168"/>
       <c r="B88" s="192"/>
       <c r="C88" s="190"/>
-      <c r="D88" s="290"/>
-      <c r="E88" s="292"/>
+      <c r="D88" s="291"/>
+      <c r="E88" s="290"/>
       <c r="F88" s="139"/>
       <c r="G88" s="140"/>
       <c r="H88" s="140"/>
@@ -55630,14 +55630,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J23:L23"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="D40:E40"/>
@@ -55650,18 +55654,14 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -55768,15 +55768,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -55789,15 +55789,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -55811,7 +55811,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -55831,15 +55831,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>528</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -55853,7 +55853,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="164" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D8" s="172"/>
       <c r="E8" s="172"/>
@@ -55873,15 +55873,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -55944,19 +55944,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -55985,11 +55985,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -56051,11 +56051,11 @@
       <c r="I16" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="291" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="292"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -56082,11 +56082,11 @@
       <c r="I17" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="291" t="s">
         <v>387</v>
       </c>
-      <c r="K17" s="291"/>
-      <c r="L17" s="292"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="290"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -56175,11 +56175,11 @@
       <c r="I20" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="290" t="s">
+      <c r="J20" s="291" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="291"/>
-      <c r="L20" s="292"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="290"/>
       <c r="M20" s="168"/>
       <c r="N20" s="168"/>
       <c r="O20" s="168"/>
@@ -56450,11 +56450,11 @@
     </row>
     <row r="33" spans="1:15" s="181" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="144"/>
-      <c r="B33" s="289" t="s">
+      <c r="B33" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="289"/>
-      <c r="D33" s="289"/>
+      <c r="C33" s="298"/>
+      <c r="D33" s="298"/>
       <c r="E33" s="179"/>
       <c r="F33" s="180"/>
       <c r="G33" s="179"/>
@@ -56469,12 +56469,12 @@
     </row>
     <row r="34" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="182"/>
-      <c r="B34" s="298" t="s">
+      <c r="B34" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="300"/>
+      <c r="C34" s="294"/>
+      <c r="D34" s="294"/>
+      <c r="E34" s="295"/>
       <c r="F34" s="174" t="s">
         <v>125</v>
       </c>
@@ -56566,10 +56566,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="290"/>
       <c r="F37" s="139" t="s">
         <v>435</v>
       </c>
@@ -56599,10 +56599,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="190"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="292"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="139" t="s">
         <v>192</v>
       </c>
@@ -56665,10 +56665,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="191"/>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="292"/>
+      <c r="E40" s="290"/>
       <c r="F40" s="139" t="s">
         <v>196</v>
       </c>
@@ -56698,10 +56698,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="191"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="302"/>
+      <c r="E41" s="297"/>
       <c r="F41" s="139" t="s">
         <v>163</v>
       </c>
@@ -56731,10 +56731,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="292"/>
+      <c r="E42" s="290"/>
       <c r="F42" s="139" t="s">
         <v>173</v>
       </c>
@@ -56797,10 +56797,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="184"/>
       <c r="C44" s="189"/>
-      <c r="D44" s="290" t="s">
+      <c r="D44" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E44" s="292"/>
+      <c r="E44" s="290"/>
       <c r="F44" s="141" t="s">
         <v>385</v>
       </c>
@@ -56828,10 +56828,10 @@
       <c r="A45" s="168"/>
       <c r="B45" s="184"/>
       <c r="C45" s="189"/>
-      <c r="D45" s="290" t="s">
+      <c r="D45" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="E45" s="292"/>
+      <c r="E45" s="290"/>
       <c r="F45" s="141" t="s">
         <v>389</v>
       </c>
@@ -56859,10 +56859,10 @@
       <c r="A46" s="168"/>
       <c r="B46" s="184"/>
       <c r="C46" s="189"/>
-      <c r="D46" s="290" t="s">
+      <c r="D46" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="E46" s="292"/>
+      <c r="E46" s="290"/>
       <c r="F46" s="141" t="s">
         <v>393</v>
       </c>
@@ -56892,10 +56892,10 @@
       <c r="A47" s="168"/>
       <c r="B47" s="184"/>
       <c r="C47" s="189"/>
-      <c r="D47" s="290" t="s">
+      <c r="D47" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="292"/>
+      <c r="E47" s="290"/>
       <c r="F47" s="141" t="s">
         <v>182</v>
       </c>
@@ -56925,10 +56925,10 @@
       <c r="A48" s="168"/>
       <c r="B48" s="184"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="290" t="s">
+      <c r="D48" s="291" t="s">
         <v>396</v>
       </c>
-      <c r="E48" s="292"/>
+      <c r="E48" s="290"/>
       <c r="F48" s="141" t="s">
         <v>397</v>
       </c>
@@ -56956,10 +56956,10 @@
       <c r="A49" s="168"/>
       <c r="B49" s="184"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="290" t="s">
+      <c r="D49" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="E49" s="292"/>
+      <c r="E49" s="290"/>
       <c r="F49" s="141" t="s">
         <v>401</v>
       </c>
@@ -56987,10 +56987,10 @@
       <c r="A50" s="168"/>
       <c r="B50" s="184"/>
       <c r="C50" s="189"/>
-      <c r="D50" s="290" t="s">
+      <c r="D50" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="E50" s="292"/>
+      <c r="E50" s="290"/>
       <c r="F50" s="141" t="s">
         <v>405</v>
       </c>
@@ -57019,27 +57019,27 @@
       <c r="B51" s="184"/>
       <c r="C51" s="189"/>
       <c r="D51" s="217" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E51" s="216"/>
       <c r="F51" s="139" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G51" s="140" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H51" s="140"/>
       <c r="I51" s="140">
         <v>1</v>
       </c>
       <c r="J51" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K51" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L51" s="141" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M51" s="168"/>
       <c r="N51" s="168"/>
@@ -57050,24 +57050,24 @@
       <c r="B52" s="192"/>
       <c r="C52" s="190"/>
       <c r="D52" s="217" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E52" s="216"/>
       <c r="F52" s="139" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G52" s="140" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H52" s="140"/>
       <c r="I52" s="140">
         <v>1</v>
       </c>
       <c r="J52" s="140" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K52" s="140" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L52" s="218" t="s">
         <v>411</v>
@@ -57454,11 +57454,11 @@
     </row>
     <row r="75" spans="1:15" ht="20" customHeight="1">
       <c r="A75" s="168"/>
-      <c r="B75" s="304" t="s">
+      <c r="B75" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="C75" s="304"/>
-      <c r="D75" s="304"/>
+      <c r="C75" s="292"/>
+      <c r="D75" s="292"/>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
       <c r="G75" s="168"/>
@@ -57473,12 +57473,12 @@
     </row>
     <row r="76" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A76" s="182"/>
-      <c r="B76" s="298" t="s">
+      <c r="B76" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="299"/>
-      <c r="D76" s="299"/>
-      <c r="E76" s="300"/>
+      <c r="C76" s="294"/>
+      <c r="D76" s="294"/>
+      <c r="E76" s="295"/>
       <c r="F76" s="174" t="s">
         <v>125</v>
       </c>
@@ -57570,10 +57570,10 @@
       <c r="A79" s="168"/>
       <c r="B79" s="184"/>
       <c r="C79" s="189"/>
-      <c r="D79" s="290" t="s">
+      <c r="D79" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="292"/>
+      <c r="E79" s="290"/>
       <c r="F79" s="139" t="s">
         <v>435</v>
       </c>
@@ -57603,10 +57603,10 @@
       <c r="A80" s="168"/>
       <c r="B80" s="184"/>
       <c r="C80" s="189"/>
-      <c r="D80" s="290" t="s">
+      <c r="D80" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="292"/>
+      <c r="E80" s="290"/>
       <c r="F80" s="139" t="s">
         <v>215</v>
       </c>
@@ -57636,10 +57636,10 @@
       <c r="A81" s="168"/>
       <c r="B81" s="184"/>
       <c r="C81" s="189"/>
-      <c r="D81" s="303" t="s">
+      <c r="D81" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E81" s="292"/>
+      <c r="E81" s="290"/>
       <c r="F81" s="139" t="s">
         <v>218</v>
       </c>
@@ -57733,8 +57733,8 @@
       <c r="A84" s="168"/>
       <c r="B84" s="192"/>
       <c r="C84" s="190"/>
-      <c r="D84" s="290"/>
-      <c r="E84" s="292"/>
+      <c r="D84" s="291"/>
+      <c r="E84" s="290"/>
       <c r="F84" s="139"/>
       <c r="G84" s="140"/>
       <c r="H84" s="140"/>
@@ -58124,17 +58124,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -58147,12 +58142,17 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58173,8 +58173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -58256,15 +58256,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -58277,15 +58277,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -58299,7 +58299,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -58319,15 +58319,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>528</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -58361,15 +58361,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -58432,19 +58432,19 @@
     </row>
     <row r="13" spans="1:15" ht="22" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -58473,11 +58473,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -58539,11 +58539,11 @@
       <c r="I16" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="291" t="s">
         <v>448</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="292"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -58572,11 +58572,11 @@
       <c r="I17" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="291" t="s">
         <v>382</v>
       </c>
-      <c r="K17" s="291"/>
-      <c r="L17" s="292"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="290"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -58754,11 +58754,11 @@
     </row>
     <row r="27" spans="1:15" s="181" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="144"/>
-      <c r="B27" s="289" t="s">
+      <c r="B27" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="298"/>
       <c r="E27" s="179"/>
       <c r="F27" s="180"/>
       <c r="G27" s="179"/>
@@ -58773,12 +58773,12 @@
     </row>
     <row r="28" spans="1:15" s="183" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="182"/>
-      <c r="B28" s="298" t="s">
+      <c r="B28" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="300"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="295"/>
       <c r="F28" s="174" t="s">
         <v>125</v>
       </c>
@@ -58870,10 +58870,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="189"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="292"/>
+      <c r="E31" s="290"/>
       <c r="F31" s="139" t="s">
         <v>435</v>
       </c>
@@ -58936,10 +58936,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="196"/>
       <c r="C33" s="190"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="139" t="s">
         <v>192</v>
       </c>
@@ -59224,11 +59224,11 @@
     </row>
     <row r="49" spans="1:15" ht="22" customHeight="1">
       <c r="A49" s="168"/>
-      <c r="B49" s="304" t="s">
+      <c r="B49" s="292" t="s">
         <v>420</v>
       </c>
-      <c r="C49" s="304"/>
-      <c r="D49" s="304"/>
+      <c r="C49" s="292"/>
+      <c r="D49" s="292"/>
       <c r="E49" s="168"/>
       <c r="F49" s="168"/>
       <c r="G49" s="168"/>
@@ -59243,12 +59243,12 @@
     </row>
     <row r="50" spans="1:15" s="183" customFormat="1" ht="22" customHeight="1">
       <c r="A50" s="182"/>
-      <c r="B50" s="298" t="s">
+      <c r="B50" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="300"/>
+      <c r="C50" s="294"/>
+      <c r="D50" s="294"/>
+      <c r="E50" s="295"/>
       <c r="F50" s="174" t="s">
         <v>125</v>
       </c>
@@ -59340,10 +59340,10 @@
       <c r="A53" s="168"/>
       <c r="B53" s="184"/>
       <c r="C53" s="189"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="139" t="s">
         <v>435</v>
       </c>
@@ -59373,10 +59373,10 @@
       <c r="A54" s="168"/>
       <c r="B54" s="184"/>
       <c r="C54" s="189"/>
-      <c r="D54" s="290" t="s">
+      <c r="D54" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>215</v>
       </c>
@@ -59406,10 +59406,10 @@
       <c r="A55" s="168"/>
       <c r="B55" s="184"/>
       <c r="C55" s="189"/>
-      <c r="D55" s="303" t="s">
+      <c r="D55" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="292"/>
+      <c r="E55" s="290"/>
       <c r="F55" s="139" t="s">
         <v>218</v>
       </c>
@@ -59846,11 +59846,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -59863,6 +59858,11 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59963,15 +59963,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -59984,15 +59984,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>454</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -60026,15 +60026,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -60068,15 +60068,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -60139,19 +60139,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -60180,11 +60180,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -60211,7 +60211,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="158" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J15" s="164" t="s">
         <v>457</v>
@@ -60246,11 +60246,11 @@
       <c r="I16" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="303" t="s">
+      <c r="J16" s="289" t="s">
         <v>458</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="292"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -60279,11 +60279,11 @@
       <c r="I17" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="J17" s="305" t="s">
+      <c r="J17" s="306" t="s">
         <v>460</v>
       </c>
-      <c r="K17" s="306"/>
-      <c r="L17" s="307"/>
+      <c r="K17" s="307"/>
+      <c r="L17" s="308"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -60428,11 +60428,11 @@
     </row>
     <row r="26" spans="1:15" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="144"/>
-      <c r="B26" s="289" t="s">
+      <c r="B26" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="289"/>
-      <c r="D26" s="289"/>
+      <c r="C26" s="298"/>
+      <c r="D26" s="298"/>
       <c r="E26" s="179"/>
       <c r="F26" s="180"/>
       <c r="G26" s="179"/>
@@ -60447,12 +60447,12 @@
     </row>
     <row r="27" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="300"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -60544,10 +60544,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="189"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="292"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="139" t="s">
         <v>435</v>
       </c>
@@ -60577,10 +60577,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="190"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="292"/>
+      <c r="E31" s="290"/>
       <c r="F31" s="139" t="s">
         <v>192</v>
       </c>
@@ -60643,10 +60643,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="139" t="s">
         <v>196</v>
       </c>
@@ -60676,10 +60676,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
-      <c r="D34" s="301" t="s">
+      <c r="D34" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="302"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="139" t="s">
         <v>163</v>
       </c>
@@ -60709,10 +60709,10 @@
       <c r="A35" s="168"/>
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="292"/>
+      <c r="E35" s="290"/>
       <c r="F35" s="139" t="s">
         <v>173</v>
       </c>
@@ -60775,10 +60775,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="290"/>
       <c r="F37" s="141" t="s">
         <v>385</v>
       </c>
@@ -60806,15 +60806,15 @@
       <c r="A38" s="168"/>
       <c r="B38" s="192"/>
       <c r="C38" s="190"/>
-      <c r="D38" s="290" t="s">
-        <v>573</v>
-      </c>
-      <c r="E38" s="292"/>
+      <c r="D38" s="291" t="s">
+        <v>570</v>
+      </c>
+      <c r="E38" s="290"/>
       <c r="F38" s="139" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G38" s="140" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H38" s="140" t="s">
         <v>185</v>
@@ -60823,13 +60823,13 @@
         <v>1</v>
       </c>
       <c r="J38" s="140" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K38" s="140" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L38" s="141" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M38" s="168"/>
       <c r="N38" s="168"/>
@@ -61213,11 +61213,11 @@
     </row>
     <row r="61" spans="1:15" ht="19" customHeight="1">
       <c r="A61" s="168"/>
-      <c r="B61" s="304" t="s">
+      <c r="B61" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="C61" s="304"/>
-      <c r="D61" s="304"/>
+      <c r="C61" s="292"/>
+      <c r="D61" s="292"/>
       <c r="E61" s="168"/>
       <c r="F61" s="168"/>
       <c r="G61" s="168"/>
@@ -61232,12 +61232,12 @@
     </row>
     <row r="62" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A62" s="182"/>
-      <c r="B62" s="298" t="s">
+      <c r="B62" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="299"/>
-      <c r="D62" s="299"/>
-      <c r="E62" s="300"/>
+      <c r="C62" s="294"/>
+      <c r="D62" s="294"/>
+      <c r="E62" s="295"/>
       <c r="F62" s="174" t="s">
         <v>125</v>
       </c>
@@ -61329,10 +61329,10 @@
       <c r="A65" s="168"/>
       <c r="B65" s="184"/>
       <c r="C65" s="189"/>
-      <c r="D65" s="290" t="s">
+      <c r="D65" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="292"/>
+      <c r="E65" s="290"/>
       <c r="F65" s="139" t="s">
         <v>435</v>
       </c>
@@ -61362,10 +61362,10 @@
       <c r="A66" s="168"/>
       <c r="B66" s="184"/>
       <c r="C66" s="189"/>
-      <c r="D66" s="290" t="s">
+      <c r="D66" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="292"/>
+      <c r="E66" s="290"/>
       <c r="F66" s="139" t="s">
         <v>215</v>
       </c>
@@ -61395,10 +61395,10 @@
       <c r="A67" s="168"/>
       <c r="B67" s="184"/>
       <c r="C67" s="189"/>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="308"/>
+      <c r="E67" s="305"/>
       <c r="F67" s="139" t="s">
         <v>218</v>
       </c>
@@ -61492,8 +61492,8 @@
       <c r="A70" s="168"/>
       <c r="B70" s="192"/>
       <c r="C70" s="190"/>
-      <c r="D70" s="290"/>
-      <c r="E70" s="292"/>
+      <c r="D70" s="291"/>
+      <c r="E70" s="290"/>
       <c r="F70" s="139"/>
       <c r="G70" s="140"/>
       <c r="H70" s="140"/>
@@ -61883,11 +61883,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -61900,12 +61901,11 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
+++ b/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="19080" tabRatio="957" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="19080" tabRatio="957" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="631">
   <si>
     <t>Description</t>
   </si>
@@ -2281,6 +2281,46 @@
   </si>
   <si>
     <t>http://{domain}/v1/users/password</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2012</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Change password failed</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2013</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Retype password not match</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2014</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2015</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Keyword can not null!</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Search user failed</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Can not found result by keyword</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -2759,7 +2799,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="426">
+  <cellStyleXfs count="432">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3041,6 +3081,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4011,7 +4057,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="426">
+  <cellStyles count="432">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4362,6 +4408,12 @@
     <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -23986,7 +24038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -26611,7 +26663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -29189,7 +29241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
@@ -31512,7 +31564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A72" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -51658,10 +51710,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L56"/>
+  <dimension ref="B1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -52185,188 +52237,263 @@
       <c r="G38" s="119"/>
       <c r="H38" s="119"/>
     </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="117" t="s">
+    <row r="39" spans="2:8" ht="20" customHeight="1">
+      <c r="B39" s="146">
+        <v>12</v>
+      </c>
+      <c r="C39" s="147" t="s">
+        <v>621</v>
+      </c>
+      <c r="D39" s="274" t="s">
+        <v>622</v>
+      </c>
+      <c r="E39" s="274"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+    </row>
+    <row r="40" spans="2:8" ht="20" customHeight="1">
+      <c r="B40" s="146">
+        <v>13</v>
+      </c>
+      <c r="C40" s="147" t="s">
+        <v>623</v>
+      </c>
+      <c r="D40" s="274" t="s">
+        <v>624</v>
+      </c>
+      <c r="E40" s="274"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+    </row>
+    <row r="41" spans="2:8" ht="20" customHeight="1">
+      <c r="B41" s="146">
+        <v>14</v>
+      </c>
+      <c r="C41" s="147" t="s">
+        <v>625</v>
+      </c>
+      <c r="D41" s="274" t="s">
+        <v>628</v>
+      </c>
+      <c r="E41" s="274"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="119"/>
+    </row>
+    <row r="42" spans="2:8" ht="20" customHeight="1">
+      <c r="B42" s="146">
+        <v>15</v>
+      </c>
+      <c r="C42" s="147" t="s">
+        <v>626</v>
+      </c>
+      <c r="D42" s="274" t="s">
+        <v>629</v>
+      </c>
+      <c r="E42" s="274"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119"/>
+    </row>
+    <row r="43" spans="2:8" ht="20" customHeight="1">
+      <c r="B43" s="146">
+        <v>16</v>
+      </c>
+      <c r="C43" s="147" t="s">
+        <v>627</v>
+      </c>
+      <c r="D43" s="274" t="s">
+        <v>630</v>
+      </c>
+      <c r="E43" s="274"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="117" t="s">
         <v>360</v>
       </c>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="116"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="118"/>
-      <c r="C42" s="134" t="s">
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="116"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="118"/>
+      <c r="C47" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="275" t="s">
+      <c r="D47" s="275" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="275"/>
-      <c r="F42" s="134" t="s">
+      <c r="E47" s="275"/>
+      <c r="F47" s="134" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1">
-      <c r="B43" s="146">
+    <row r="48" spans="2:8" ht="15" customHeight="1">
+      <c r="B48" s="146">
         <v>2</v>
       </c>
-      <c r="C43" s="147" t="s">
+      <c r="C48" s="147" t="s">
         <v>375</v>
       </c>
-      <c r="D43" s="276" t="s">
+      <c r="D48" s="276" t="s">
         <v>377</v>
-      </c>
-      <c r="E43" s="277"/>
-      <c r="F43" s="148"/>
-    </row>
-    <row r="44" spans="2:8" ht="15" customHeight="1">
-      <c r="B44" s="146">
-        <v>3</v>
-      </c>
-      <c r="C44" s="147" t="s">
-        <v>376</v>
-      </c>
-      <c r="D44" s="276" t="s">
-        <v>363</v>
-      </c>
-      <c r="E44" s="277"/>
-      <c r="F44" s="148"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="146">
-        <v>4</v>
-      </c>
-      <c r="C45" s="147" t="s">
-        <v>365</v>
-      </c>
-      <c r="D45" s="276" t="s">
-        <v>362</v>
-      </c>
-      <c r="E45" s="277"/>
-      <c r="F45" s="148"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="146">
-        <v>5</v>
-      </c>
-      <c r="C46" s="147" t="s">
-        <v>366</v>
-      </c>
-      <c r="D46" s="276" t="s">
-        <v>364</v>
-      </c>
-      <c r="E46" s="277"/>
-      <c r="F46" s="148"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="146">
-        <v>6</v>
-      </c>
-      <c r="C47" s="147" t="s">
-        <v>367</v>
-      </c>
-      <c r="D47" s="276" t="s">
-        <v>369</v>
-      </c>
-      <c r="E47" s="277"/>
-      <c r="F47" s="148"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="146">
-        <v>7</v>
-      </c>
-      <c r="C48" s="147" t="s">
-        <v>368</v>
-      </c>
-      <c r="D48" s="276" t="s">
-        <v>370</v>
       </c>
       <c r="E48" s="277"/>
       <c r="F48" s="148"/>
     </row>
+    <row r="49" spans="2:6" ht="15" customHeight="1">
+      <c r="B49" s="146">
+        <v>3</v>
+      </c>
+      <c r="C49" s="147" t="s">
+        <v>376</v>
+      </c>
+      <c r="D49" s="276" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" s="277"/>
+      <c r="F49" s="148"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="146">
+        <v>4</v>
+      </c>
+      <c r="C50" s="147" t="s">
+        <v>365</v>
+      </c>
+      <c r="D50" s="276" t="s">
+        <v>362</v>
+      </c>
+      <c r="E50" s="277"/>
+      <c r="F50" s="148"/>
+    </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="117" t="s">
+      <c r="B51" s="146">
+        <v>5</v>
+      </c>
+      <c r="C51" s="147" t="s">
+        <v>366</v>
+      </c>
+      <c r="D51" s="276" t="s">
+        <v>364</v>
+      </c>
+      <c r="E51" s="277"/>
+      <c r="F51" s="148"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="146">
+        <v>6</v>
+      </c>
+      <c r="C52" s="147" t="s">
+        <v>367</v>
+      </c>
+      <c r="D52" s="276" t="s">
+        <v>369</v>
+      </c>
+      <c r="E52" s="277"/>
+      <c r="F52" s="148"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="146">
+        <v>7</v>
+      </c>
+      <c r="C53" s="147" t="s">
+        <v>368</v>
+      </c>
+      <c r="D53" s="276" t="s">
+        <v>370</v>
+      </c>
+      <c r="E53" s="277"/>
+      <c r="F53" s="148"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="116"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="118"/>
-      <c r="C52" s="134" t="s">
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="116"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="118"/>
+      <c r="C57" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="275" t="s">
+      <c r="D57" s="275" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="275"/>
-      <c r="F52" s="134" t="s">
+      <c r="E57" s="275"/>
+      <c r="F57" s="134" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="20" customHeight="1">
-      <c r="B53" s="146">
+    <row r="58" spans="2:6" ht="20" customHeight="1">
+      <c r="B58" s="146">
         <v>1</v>
       </c>
-      <c r="C53" s="147" t="s">
+      <c r="C58" s="147" t="s">
         <v>102</v>
       </c>
-      <c r="D53" s="274" t="s">
+      <c r="D58" s="274" t="s">
         <v>371</v>
       </c>
-      <c r="E53" s="274"/>
-      <c r="F53" s="148"/>
-    </row>
-    <row r="54" spans="2:6" ht="20" customHeight="1">
-      <c r="B54" s="146">
+      <c r="E58" s="274"/>
+      <c r="F58" s="148"/>
+    </row>
+    <row r="59" spans="2:6" ht="20" customHeight="1">
+      <c r="B59" s="146">
         <v>2</v>
       </c>
-      <c r="C54" s="147" t="s">
+      <c r="C59" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="274" t="s">
+      <c r="D59" s="274" t="s">
         <v>372</v>
       </c>
-      <c r="E54" s="274"/>
-      <c r="F54" s="148"/>
-    </row>
-    <row r="55" spans="2:6" ht="20" customHeight="1">
-      <c r="B55" s="146">
+      <c r="E59" s="274"/>
+      <c r="F59" s="148"/>
+    </row>
+    <row r="60" spans="2:6" ht="20" customHeight="1">
+      <c r="B60" s="146">
         <v>3</v>
       </c>
-      <c r="C55" s="147" t="s">
+      <c r="C60" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="274" t="s">
+      <c r="D60" s="274" t="s">
         <v>373</v>
       </c>
-      <c r="E55" s="274"/>
-      <c r="F55" s="148"/>
-    </row>
-    <row r="56" spans="2:6" ht="20" customHeight="1">
-      <c r="B56" s="146">
+      <c r="E60" s="274"/>
+      <c r="F60" s="148"/>
+    </row>
+    <row r="61" spans="2:6" ht="20" customHeight="1">
+      <c r="B61" s="146">
         <v>4</v>
       </c>
-      <c r="C56" s="147" t="s">
+      <c r="C61" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="274" t="s">
+      <c r="D61" s="274" t="s">
         <v>374</v>
       </c>
-      <c r="E56" s="274"/>
-      <c r="F56" s="148"/>
+      <c r="E61" s="274"/>
+      <c r="F61" s="148"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
+  <mergeCells count="45">
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D28:E28"/>
@@ -52374,7 +52501,7 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -52391,14 +52518,19 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -58173,7 +58305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
+++ b/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="19080" tabRatio="957" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="19080" tabRatio="957" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="632">
   <si>
     <t>Description</t>
   </si>
@@ -1865,9 +1865,6 @@
     <t>GET /v1/users/13/posts</t>
   </si>
   <si>
-    <t>GET /v1/users/13</t>
-  </si>
-  <si>
     <t>/v1/posts</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1916,10 +1913,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>/v1/users/{user_id}</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>/v1/users/{user_id}/posts</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1928,10 +1921,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>http://{domain}/v1/users/{user_id}</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t xml:space="preserve">GET /v1/posts?limit=20&amp;offset=20&amp;order=date </t>
     <phoneticPr fontId="14"/>
   </si>
@@ -2321,6 +2310,22 @@
   </si>
   <si>
     <t>Can not found result by keyword</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>http://{domain}/v1/users</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>/v1/users</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>GET /v1/users</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -20590,7 +20595,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>GET /v1/users/user-id HTTP/1.1</a:t>
+            <a:t>GET /v1/users HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -22373,7 +22378,7 @@
         <v>439</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C2" s="168"/>
       <c r="D2" s="168"/>
@@ -22414,7 +22419,7 @@
         <v>122</v>
       </c>
       <c r="C4" s="291" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D4" s="299"/>
       <c r="E4" s="299"/>
@@ -22435,7 +22440,7 @@
         <v>123</v>
       </c>
       <c r="C5" s="291" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D5" s="299"/>
       <c r="E5" s="299"/>
@@ -22456,7 +22461,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="224" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D6" s="227"/>
       <c r="E6" s="227"/>
@@ -22477,7 +22482,7 @@
         <v>170</v>
       </c>
       <c r="C7" s="291" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D7" s="299"/>
       <c r="E7" s="299"/>
@@ -22498,7 +22503,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="224" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D8" s="227"/>
       <c r="E8" s="227"/>
@@ -23008,7 +23013,7 @@
         <v>185</v>
       </c>
       <c r="I30" s="140" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="J30" s="140" t="s">
         <v>137</v>
@@ -23555,7 +23560,7 @@
       </c>
       <c r="E58" s="305"/>
       <c r="F58" s="139" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G58" s="140" t="s">
         <v>137</v>
@@ -23573,7 +23578,7 @@
         <v>137</v>
       </c>
       <c r="L58" s="141" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M58" s="168"/>
       <c r="N58" s="168"/>
@@ -24170,7 +24175,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -25140,7 +25145,7 @@
       </c>
       <c r="F42" s="165"/>
       <c r="G42" s="139" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="H42" s="140" t="s">
         <v>164</v>
@@ -25174,7 +25179,7 @@
       </c>
       <c r="F43" s="165"/>
       <c r="G43" s="139" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H43" s="140" t="s">
         <v>164</v>
@@ -26789,7 +26794,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -27764,27 +27769,27 @@
       <c r="B44" s="310"/>
       <c r="C44" s="310"/>
       <c r="D44" s="217" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E44" s="216"/>
       <c r="F44" s="139" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G44" s="140" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H44" s="140"/>
       <c r="I44" s="140">
         <v>1</v>
       </c>
       <c r="J44" s="140" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K44" s="140" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L44" s="141" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M44" s="168"/>
       <c r="N44" s="168"/>
@@ -27795,24 +27800,24 @@
       <c r="B45" s="311"/>
       <c r="C45" s="311"/>
       <c r="D45" s="217" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E45" s="216"/>
       <c r="F45" s="139" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G45" s="140" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H45" s="140"/>
       <c r="I45" s="140">
         <v>1</v>
       </c>
       <c r="J45" s="140" t="s">
+        <v>563</v>
+      </c>
+      <c r="K45" s="140" t="s">
         <v>566</v>
-      </c>
-      <c r="K45" s="140" t="s">
-        <v>569</v>
       </c>
       <c r="L45" s="218" t="s">
         <v>411</v>
@@ -29241,8 +29246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -29367,7 +29372,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>532</v>
+        <v>628</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -29409,7 +29414,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="164" t="s">
-        <v>28</v>
+        <v>629</v>
       </c>
       <c r="D8" s="172"/>
       <c r="E8" s="172"/>
@@ -30313,7 +30318,7 @@
       </c>
       <c r="E43" s="290"/>
       <c r="F43" s="141" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G43" s="140" t="s">
         <v>164</v>
@@ -30346,7 +30351,7 @@
       </c>
       <c r="E44" s="290"/>
       <c r="F44" s="141" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G44" s="140" t="s">
         <v>164</v>
@@ -32353,7 +32358,7 @@
         <v>185</v>
       </c>
       <c r="I35" s="140" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J35" s="76" t="s">
         <v>137</v>
@@ -32476,7 +32481,7 @@
       </c>
       <c r="E39" s="151"/>
       <c r="F39" s="139" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G39" s="76" t="s">
         <v>164</v>
@@ -34667,7 +34672,7 @@
       </c>
       <c r="E35" s="151"/>
       <c r="F35" s="139" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G35" s="76" t="s">
         <v>164</v>
@@ -35937,7 +35942,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -36186,10 +36191,10 @@
       <c r="A17" s="66"/>
       <c r="B17" s="73"/>
       <c r="C17" s="139" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D17" s="141" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E17" s="140" t="s">
         <v>266</v>
@@ -36220,7 +36225,7 @@
         <v>299</v>
       </c>
       <c r="D18" s="141" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E18" s="140" t="s">
         <v>300</v>
@@ -36702,7 +36707,7 @@
       </c>
       <c r="E38" s="316"/>
       <c r="F38" s="139" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G38" s="76" t="s">
         <v>164</v>
@@ -36735,7 +36740,7 @@
       </c>
       <c r="E39" s="151"/>
       <c r="F39" s="139" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G39" s="76" t="s">
         <v>164</v>
@@ -38133,7 +38138,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -38485,10 +38490,10 @@
       <c r="A20" s="66"/>
       <c r="B20" s="327"/>
       <c r="C20" s="139" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D20" s="141" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E20" s="140" t="s">
         <v>266</v>
@@ -38503,10 +38508,10 @@
         <v>282</v>
       </c>
       <c r="I20" s="162" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J20" s="291" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K20" s="315"/>
       <c r="L20" s="316"/>
@@ -39984,7 +39989,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -40339,7 +40344,7 @@
         <v>335</v>
       </c>
       <c r="D20" s="141" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E20" s="140" t="s">
         <v>266</v>
@@ -41852,7 +41857,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -42042,7 +42047,7 @@
         <v>338</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E15" s="140" t="s">
         <v>313</v>
@@ -44718,7 +44723,7 @@
         <v>185</v>
       </c>
       <c r="I31" s="140" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J31" s="76" t="s">
         <v>137</v>
@@ -44808,7 +44813,7 @@
       </c>
       <c r="E34" s="151"/>
       <c r="F34" s="139" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G34" s="76" t="s">
         <v>164</v>
@@ -46282,7 +46287,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -46502,10 +46507,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="219"/>
       <c r="C16" s="139" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D16" s="141" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E16" s="140" t="s">
         <v>266</v>
@@ -46520,10 +46525,10 @@
         <v>282</v>
       </c>
       <c r="I16" s="162" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J16" s="291" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K16" s="315"/>
       <c r="L16" s="316"/>
@@ -47992,7 +47997,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -48215,7 +48220,7 @@
         <v>335</v>
       </c>
       <c r="D16" s="141" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E16" s="140" t="s">
         <v>266</v>
@@ -49705,7 +49710,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -49895,7 +49900,7 @@
         <v>338</v>
       </c>
       <c r="D15" s="141" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E15" s="140" t="s">
         <v>313</v>
@@ -51712,7 +51717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -51938,7 +51943,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="117" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C17" s="124"/>
       <c r="D17" s="124"/>
@@ -51964,7 +51969,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="147" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D19" s="274" t="s">
         <v>4</v>
@@ -51979,10 +51984,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="147" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D20" s="274" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E20" s="274"/>
       <c r="F20" s="148"/>
@@ -51994,7 +51999,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="147" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D21" s="274" t="s">
         <v>24</v>
@@ -52009,7 +52014,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="147" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D22" s="274" t="s">
         <v>5</v>
@@ -52024,7 +52029,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="147" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D23" s="274" t="s">
         <v>26</v>
@@ -52039,7 +52044,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="147" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D24" s="274" t="s">
         <v>25</v>
@@ -52095,7 +52100,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="274" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E29" s="274"/>
       <c r="F29" s="148"/>
@@ -52110,7 +52115,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="274" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E30" s="274"/>
       <c r="F30" s="148"/>
@@ -52125,7 +52130,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="274" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E31" s="274"/>
       <c r="F31" s="148"/>
@@ -52140,7 +52145,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="274" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E32" s="274"/>
       <c r="F32" s="148"/>
@@ -52212,10 +52217,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="147" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D37" s="274" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E37" s="274"/>
       <c r="F37" s="148"/>
@@ -52227,10 +52232,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="147" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D38" s="274" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E38" s="274"/>
       <c r="F38" s="148"/>
@@ -52242,10 +52247,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="147" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D39" s="274" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E39" s="274"/>
       <c r="F39" s="148"/>
@@ -52257,10 +52262,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="147" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D40" s="274" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E40" s="274"/>
       <c r="F40" s="148"/>
@@ -52272,10 +52277,10 @@
         <v>14</v>
       </c>
       <c r="C41" s="147" t="s">
+        <v>622</v>
+      </c>
+      <c r="D41" s="274" t="s">
         <v>625</v>
-      </c>
-      <c r="D41" s="274" t="s">
-        <v>628</v>
       </c>
       <c r="E41" s="274"/>
       <c r="F41" s="148"/>
@@ -52287,10 +52292,10 @@
         <v>15</v>
       </c>
       <c r="C42" s="147" t="s">
+        <v>623</v>
+      </c>
+      <c r="D42" s="274" t="s">
         <v>626</v>
-      </c>
-      <c r="D42" s="274" t="s">
-        <v>629</v>
       </c>
       <c r="E42" s="274"/>
       <c r="F42" s="148"/>
@@ -52302,10 +52307,10 @@
         <v>16</v>
       </c>
       <c r="C43" s="147" t="s">
+        <v>624</v>
+      </c>
+      <c r="D43" s="274" t="s">
         <v>627</v>
-      </c>
-      <c r="D43" s="274" t="s">
-        <v>630</v>
       </c>
       <c r="E43" s="274"/>
       <c r="F43" s="148"/>
@@ -52547,8 +52552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -52661,10 +52666,10 @@
         <v>514</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G6" s="102" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H6" s="103" t="s">
         <v>508</v>
@@ -52685,10 +52690,10 @@
         <v>514</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H7" s="103" t="s">
         <v>441</v>
@@ -52733,13 +52738,13 @@
         <v>464</v>
       </c>
       <c r="F9" s="211" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H9" s="103" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I9" s="104"/>
       <c r="J9" s="38"/>
@@ -52757,7 +52762,7 @@
         <v>464</v>
       </c>
       <c r="F10" s="211" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G10" s="101" t="s">
         <v>515</v>
@@ -52781,10 +52786,10 @@
         <v>464</v>
       </c>
       <c r="F11" s="211" t="s">
-        <v>529</v>
+        <v>630</v>
       </c>
       <c r="G11" s="101" t="s">
-        <v>516</v>
+        <v>631</v>
       </c>
       <c r="H11" s="100" t="s">
         <v>505</v>
@@ -52821,7 +52826,7 @@
         <v>232</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H13" s="108" t="s">
         <v>238</v>
@@ -52866,10 +52871,10 @@
         <v>235</v>
       </c>
       <c r="F15" s="107" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H15" s="108" t="s">
         <v>245</v>
@@ -52890,10 +52895,10 @@
         <v>231</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H16" s="108" t="s">
         <v>244</v>
@@ -52914,10 +52919,10 @@
         <v>236</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H17" s="108" t="s">
         <v>246</v>
@@ -52938,10 +52943,10 @@
         <v>237</v>
       </c>
       <c r="F18" s="107" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H18" s="108" t="s">
         <v>247</v>
@@ -52977,10 +52982,10 @@
         <v>234</v>
       </c>
       <c r="F20" s="111" t="s">
+        <v>534</v>
+      </c>
+      <c r="G20" s="111" t="s">
         <v>537</v>
-      </c>
-      <c r="G20" s="111" t="s">
-        <v>540</v>
       </c>
       <c r="H20" s="112" t="s">
         <v>248</v>
@@ -53001,13 +53006,13 @@
         <v>239</v>
       </c>
       <c r="F21" s="111" t="s">
+        <v>535</v>
+      </c>
+      <c r="G21" s="111" t="s">
         <v>538</v>
       </c>
-      <c r="G21" s="111" t="s">
+      <c r="H21" s="112" t="s">
         <v>541</v>
-      </c>
-      <c r="H21" s="112" t="s">
-        <v>544</v>
       </c>
       <c r="I21" s="104"/>
       <c r="J21" s="38"/>
@@ -53025,10 +53030,10 @@
         <v>240</v>
       </c>
       <c r="F22" s="111" t="s">
+        <v>536</v>
+      </c>
+      <c r="G22" s="111" t="s">
         <v>539</v>
-      </c>
-      <c r="G22" s="111" t="s">
-        <v>542</v>
       </c>
       <c r="H22" s="112" t="s">
         <v>249</v>
@@ -53049,10 +53054,10 @@
         <v>241</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G23" s="111" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H23" s="112" t="s">
         <v>250</v>
@@ -53319,7 +53324,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -53524,10 +53529,10 @@
         <v>50</v>
       </c>
       <c r="I15" s="158" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J15" s="304" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="K15" s="304"/>
       <c r="L15" s="304"/>
@@ -53888,26 +53893,26 @@
       <c r="A27" s="168"/>
       <c r="B27" s="175"/>
       <c r="C27" s="139" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E27" s="140" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F27" s="140"/>
       <c r="G27" s="140" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H27" s="140" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I27" s="158" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="J27" s="164" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="K27" s="172"/>
       <c r="L27" s="165"/>
@@ -54624,27 +54629,27 @@
       <c r="B54" s="184"/>
       <c r="C54" s="189"/>
       <c r="D54" s="217" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E54" s="216"/>
       <c r="F54" s="139" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G54" s="140" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H54" s="140"/>
       <c r="I54" s="140">
         <v>1</v>
       </c>
       <c r="J54" s="140" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K54" s="140" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L54" s="141" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M54" s="168"/>
       <c r="N54" s="168"/>
@@ -54655,24 +54660,24 @@
       <c r="B55" s="184"/>
       <c r="C55" s="189"/>
       <c r="D55" s="217" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E55" s="216"/>
       <c r="F55" s="139" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G55" s="140" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H55" s="140"/>
       <c r="I55" s="140">
         <v>1</v>
       </c>
       <c r="J55" s="140" t="s">
+        <v>563</v>
+      </c>
+      <c r="K55" s="140" t="s">
         <v>566</v>
-      </c>
-      <c r="K55" s="140" t="s">
-        <v>569</v>
       </c>
       <c r="L55" s="218" t="s">
         <v>411</v>
@@ -55817,7 +55822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -55943,7 +55948,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -55964,7 +55969,7 @@
         <v>170</v>
       </c>
       <c r="C7" s="291" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D7" s="299"/>
       <c r="E7" s="299"/>
@@ -55985,7 +55990,7 @@
         <v>171</v>
       </c>
       <c r="C8" s="164" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D8" s="172"/>
       <c r="E8" s="172"/>
@@ -57151,27 +57156,27 @@
       <c r="B51" s="184"/>
       <c r="C51" s="189"/>
       <c r="D51" s="217" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E51" s="216"/>
       <c r="F51" s="139" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G51" s="140" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H51" s="140"/>
       <c r="I51" s="140">
         <v>1</v>
       </c>
       <c r="J51" s="140" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K51" s="140" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="L51" s="141" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M51" s="168"/>
       <c r="N51" s="168"/>
@@ -57182,24 +57187,24 @@
       <c r="B52" s="192"/>
       <c r="C52" s="190"/>
       <c r="D52" s="217" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E52" s="216"/>
       <c r="F52" s="139" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G52" s="140" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H52" s="140"/>
       <c r="I52" s="140">
         <v>1</v>
       </c>
       <c r="J52" s="140" t="s">
+        <v>563</v>
+      </c>
+      <c r="K52" s="140" t="s">
         <v>566</v>
-      </c>
-      <c r="K52" s="140" t="s">
-        <v>569</v>
       </c>
       <c r="L52" s="218" t="s">
         <v>411</v>
@@ -58305,7 +58310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -58431,7 +58436,7 @@
         <v>161</v>
       </c>
       <c r="C6" s="164" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D6" s="172"/>
       <c r="E6" s="172"/>
@@ -58452,7 +58457,7 @@
         <v>170</v>
       </c>
       <c r="C7" s="291" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D7" s="299"/>
       <c r="E7" s="299"/>
@@ -60343,7 +60348,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="158" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J15" s="164" t="s">
         <v>457</v>
@@ -60939,14 +60944,14 @@
       <c r="B38" s="192"/>
       <c r="C38" s="190"/>
       <c r="D38" s="291" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="139" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G38" s="140" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H38" s="140" t="s">
         <v>185</v>
@@ -60955,13 +60960,13 @@
         <v>1</v>
       </c>
       <c r="J38" s="140" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K38" s="140" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L38" s="141" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M38" s="168"/>
       <c r="N38" s="168"/>

--- a/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
+++ b/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="19080" tabRatio="957" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="19080" tabRatio="957" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="634">
   <si>
     <t>Description</t>
   </si>
@@ -2326,6 +2326,14 @@
   </si>
   <si>
     <t>GET /v1/users</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2507</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>Get list all post of user failed</t>
     <phoneticPr fontId="14"/>
   </si>
 </sst>
@@ -2804,7 +2812,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="432">
+  <cellStyleXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3086,6 +3094,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3766,48 +3775,44 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3839,6 +3844,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3866,6 +3881,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3878,43 +3908,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3962,16 +3971,25 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3985,22 +4003,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4012,6 +4018,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4020,6 +4029,16 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4031,12 +4050,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4051,10 +4064,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4062,7 +4071,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="432">
+  <cellStyles count="433">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4419,6 +4428,7 @@
     <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -21949,303 +21959,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="229" t="s">
+      <c r="A1" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="232" t="s">
+      <c r="B1" s="261"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="263" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="234" t="s">
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="235"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="237" t="s">
+      <c r="L1" s="269"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="250" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="238"/>
-      <c r="P1" s="238"/>
-      <c r="Q1" s="238"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="238"/>
-      <c r="T1" s="238"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="240" t="s">
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
+      <c r="T1" s="251"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="241"/>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="241"/>
-      <c r="AD1" s="242"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
+      <c r="Y1" s="272"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="272"/>
+      <c r="AD1" s="273"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="260" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="232" t="s">
+      <c r="B2" s="261"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="263" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="246" t="s">
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="247"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="258" t="s">
+      <c r="L2" s="246"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="265" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="259"/>
-      <c r="P2" s="259"/>
-      <c r="Q2" s="259"/>
-      <c r="R2" s="259"/>
-      <c r="S2" s="259"/>
-      <c r="T2" s="259"/>
-      <c r="U2" s="260"/>
-      <c r="V2" s="243" t="s">
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="266"/>
+      <c r="T2" s="266"/>
+      <c r="U2" s="267"/>
+      <c r="V2" s="242" t="s">
         <v>149</v>
       </c>
-      <c r="W2" s="244"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="243" t="s">
+      <c r="W2" s="243"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="244"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="243" t="s">
+      <c r="Z2" s="243"/>
+      <c r="AA2" s="244"/>
+      <c r="AB2" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="245"/>
+      <c r="AC2" s="243"/>
+      <c r="AD2" s="244"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="247"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249" t="s">
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="248" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="246" t="s">
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="247"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="237" t="s">
+      <c r="L3" s="246"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="238"/>
-      <c r="P3" s="238"/>
-      <c r="Q3" s="238"/>
-      <c r="R3" s="238"/>
-      <c r="S3" s="238"/>
-      <c r="T3" s="238"/>
-      <c r="U3" s="239"/>
-      <c r="V3" s="251" t="s">
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="252"/>
+      <c r="V3" s="253" t="s">
         <v>511</v>
       </c>
-      <c r="W3" s="252"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="254">
+      <c r="W3" s="254"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="256">
         <v>41997</v>
       </c>
-      <c r="Z3" s="255"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="257">
+      <c r="Z3" s="257"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="259">
         <v>42003</v>
       </c>
-      <c r="AC3" s="255"/>
-      <c r="AD3" s="256"/>
+      <c r="AC3" s="257"/>
+      <c r="AD3" s="258"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="273" t="s">
+      <c r="B8" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="273"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273" t="s">
+      <c r="C8" s="240"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273" t="s">
+      <c r="G8" s="240"/>
+      <c r="H8" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="273"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="273" t="s">
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="240" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="273"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="273"/>
-      <c r="P8" s="273"/>
-      <c r="Q8" s="273"/>
-      <c r="R8" s="273"/>
-      <c r="S8" s="273"/>
-      <c r="T8" s="273"/>
-      <c r="U8" s="273"/>
-      <c r="V8" s="273"/>
-      <c r="W8" s="273"/>
-      <c r="X8" s="273" t="s">
+      <c r="L8" s="240"/>
+      <c r="M8" s="240"/>
+      <c r="N8" s="240"/>
+      <c r="O8" s="240"/>
+      <c r="P8" s="240"/>
+      <c r="Q8" s="240"/>
+      <c r="R8" s="240"/>
+      <c r="S8" s="240"/>
+      <c r="T8" s="240"/>
+      <c r="U8" s="240"/>
+      <c r="V8" s="240"/>
+      <c r="W8" s="240"/>
+      <c r="X8" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="273"/>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="273"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
+      <c r="Y8" s="240"/>
+      <c r="Z8" s="240"/>
+      <c r="AA8" s="240"/>
+      <c r="AB8" s="240"/>
+      <c r="AC8" s="240"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="261">
+      <c r="B9" s="241">
         <v>41997</v>
       </c>
-      <c r="C9" s="262"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="264" t="s">
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="232" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="265"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="267"/>
-      <c r="L9" s="268"/>
-      <c r="M9" s="268"/>
-      <c r="N9" s="268"/>
-      <c r="O9" s="268"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="268"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="268"/>
-      <c r="T9" s="268"/>
-      <c r="U9" s="268"/>
-      <c r="V9" s="268"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="270"/>
-      <c r="Y9" s="271"/>
-      <c r="Z9" s="271"/>
-      <c r="AA9" s="271"/>
-      <c r="AB9" s="271"/>
-      <c r="AC9" s="272"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="231"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="235"/>
+      <c r="O9" s="235"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="235"/>
+      <c r="W9" s="236"/>
+      <c r="X9" s="237"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="238"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="239"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="266"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="265"/>
-      <c r="H10" s="266"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="267"/>
-      <c r="L10" s="268"/>
-      <c r="M10" s="268"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="268"/>
-      <c r="P10" s="268"/>
-      <c r="Q10" s="268"/>
-      <c r="R10" s="268"/>
-      <c r="S10" s="268"/>
-      <c r="T10" s="268"/>
-      <c r="U10" s="268"/>
-      <c r="V10" s="268"/>
-      <c r="W10" s="269"/>
-      <c r="X10" s="270"/>
-      <c r="Y10" s="271"/>
-      <c r="Z10" s="271"/>
-      <c r="AA10" s="271"/>
-      <c r="AB10" s="271"/>
-      <c r="AC10" s="272"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="232"/>
+      <c r="G10" s="233"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="230"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="235"/>
+      <c r="N10" s="235"/>
+      <c r="O10" s="235"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="235"/>
+      <c r="U10" s="235"/>
+      <c r="V10" s="235"/>
+      <c r="W10" s="236"/>
+      <c r="X10" s="237"/>
+      <c r="Y10" s="238"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="238"/>
+      <c r="AB10" s="238"/>
+      <c r="AC10" s="239"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="266"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="264"/>
-      <c r="G11" s="265"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="262"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="267"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="269"/>
-      <c r="X11" s="270"/>
-      <c r="Y11" s="271"/>
-      <c r="Z11" s="271"/>
-      <c r="AA11" s="271"/>
-      <c r="AB11" s="271"/>
-      <c r="AC11" s="272"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="231"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="235"/>
+      <c r="N11" s="235"/>
+      <c r="O11" s="235"/>
+      <c r="P11" s="235"/>
+      <c r="Q11" s="235"/>
+      <c r="R11" s="235"/>
+      <c r="S11" s="235"/>
+      <c r="T11" s="235"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="235"/>
+      <c r="W11" s="236"/>
+      <c r="X11" s="237"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="239"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="266"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="264"/>
-      <c r="G12" s="265"/>
-      <c r="H12" s="266"/>
-      <c r="I12" s="262"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="267"/>
-      <c r="L12" s="268"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="268"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="268"/>
-      <c r="U12" s="268"/>
-      <c r="V12" s="268"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="270"/>
-      <c r="Y12" s="271"/>
-      <c r="Z12" s="271"/>
-      <c r="AA12" s="271"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="272"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="233"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="235"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="235"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="235"/>
+      <c r="V12" s="235"/>
+      <c r="W12" s="236"/>
+      <c r="X12" s="237"/>
+      <c r="Y12" s="238"/>
+      <c r="Z12" s="238"/>
+      <c r="AA12" s="238"/>
+      <c r="AB12" s="238"/>
+      <c r="AC12" s="239"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -22275,31 +22285,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -22314,11 +22304,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22418,15 +22428,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>598</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -22439,15 +22449,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>599</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -22481,15 +22491,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>601</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -22523,15 +22533,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -22594,19 +22604,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -22635,11 +22645,11 @@
       <c r="I14" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -22668,11 +22678,11 @@
       <c r="I15" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="J15" s="306" t="s">
+      <c r="J15" s="305" t="s">
         <v>460</v>
       </c>
-      <c r="K15" s="307"/>
-      <c r="L15" s="308"/>
+      <c r="K15" s="306"/>
+      <c r="L15" s="307"/>
       <c r="M15" s="168"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
@@ -22817,11 +22827,11 @@
     </row>
     <row r="24" spans="1:15" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A24" s="144"/>
-      <c r="B24" s="298" t="s">
+      <c r="B24" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="D24" s="298"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
       <c r="E24" s="179"/>
       <c r="F24" s="180"/>
       <c r="G24" s="179"/>
@@ -22836,12 +22846,12 @@
     </row>
     <row r="25" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="182"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="295"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="300"/>
       <c r="F25" s="228" t="s">
         <v>125</v>
       </c>
@@ -22933,10 +22943,10 @@
       <c r="A28" s="168"/>
       <c r="B28" s="184"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="291" t="s">
+      <c r="D28" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="290"/>
+      <c r="E28" s="292"/>
       <c r="F28" s="139" t="s">
         <v>435</v>
       </c>
@@ -22966,10 +22976,10 @@
       <c r="A29" s="168"/>
       <c r="B29" s="184"/>
       <c r="C29" s="190"/>
-      <c r="D29" s="291" t="s">
+      <c r="D29" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="290"/>
+      <c r="E29" s="292"/>
       <c r="F29" s="139" t="s">
         <v>192</v>
       </c>
@@ -23406,11 +23416,11 @@
     </row>
     <row r="53" spans="1:15" ht="19" customHeight="1">
       <c r="A53" s="168"/>
-      <c r="B53" s="292" t="s">
+      <c r="B53" s="304" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="292"/>
-      <c r="D53" s="292"/>
+      <c r="C53" s="304"/>
+      <c r="D53" s="304"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
       <c r="G53" s="168"/>
@@ -23425,12 +23435,12 @@
     </row>
     <row r="54" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="182"/>
-      <c r="B54" s="293" t="s">
+      <c r="B54" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="294"/>
-      <c r="D54" s="294"/>
-      <c r="E54" s="295"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="300"/>
       <c r="F54" s="228" t="s">
         <v>125</v>
       </c>
@@ -23522,10 +23532,10 @@
       <c r="A57" s="168"/>
       <c r="B57" s="184"/>
       <c r="C57" s="189"/>
-      <c r="D57" s="291" t="s">
+      <c r="D57" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="290"/>
+      <c r="E57" s="292"/>
       <c r="F57" s="139" t="s">
         <v>435</v>
       </c>
@@ -23555,10 +23565,10 @@
       <c r="A58" s="168"/>
       <c r="B58" s="184"/>
       <c r="C58" s="189"/>
-      <c r="D58" s="289" t="s">
+      <c r="D58" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="305"/>
+      <c r="E58" s="308"/>
       <c r="F58" s="139" t="s">
         <v>604</v>
       </c>
@@ -23619,8 +23629,8 @@
       <c r="A60" s="168"/>
       <c r="B60" s="192"/>
       <c r="C60" s="190"/>
-      <c r="D60" s="291"/>
-      <c r="E60" s="290"/>
+      <c r="D60" s="290"/>
+      <c r="E60" s="292"/>
       <c r="F60" s="139"/>
       <c r="G60" s="140"/>
       <c r="H60" s="140"/>
@@ -24010,22 +24020,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24043,7 +24053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -24130,16 +24140,16 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="299"/>
-      <c r="J4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="291"/>
+      <c r="J4" s="292"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
       <c r="M4" s="168"/>
@@ -24152,16 +24162,16 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="292"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
       <c r="M5" s="168"/>
@@ -24196,16 +24206,16 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="292"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
       <c r="M7" s="168"/>
@@ -24240,16 +24250,16 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="292"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
       <c r="M9" s="168"/>
@@ -24315,20 +24325,20 @@
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="301"/>
-      <c r="M13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="295"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
       <c r="P13" s="168"/>
@@ -24358,11 +24368,11 @@
       <c r="J14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="303" t="s">
+      <c r="K14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="303"/>
-      <c r="M14" s="303"/>
+      <c r="L14" s="296"/>
+      <c r="M14" s="296"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
       <c r="P14" s="168"/>
@@ -24392,11 +24402,11 @@
       <c r="J15" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="K15" s="306" t="s">
+      <c r="K15" s="305" t="s">
         <v>460</v>
       </c>
-      <c r="L15" s="307"/>
-      <c r="M15" s="308"/>
+      <c r="L15" s="306"/>
+      <c r="M15" s="307"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
       <c r="P15" s="168"/>
@@ -24549,11 +24559,11 @@
     </row>
     <row r="24" spans="1:16" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A24" s="144"/>
-      <c r="B24" s="298" t="s">
+      <c r="B24" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="D24" s="298"/>
+      <c r="C24" s="289"/>
+      <c r="D24" s="289"/>
       <c r="E24" s="179"/>
       <c r="F24" s="179"/>
       <c r="G24" s="180"/>
@@ -24569,13 +24579,13 @@
     </row>
     <row r="25" spans="1:16" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="182"/>
-      <c r="B25" s="293" t="s">
+      <c r="B25" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="295"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="300"/>
       <c r="G25" s="174" t="s">
         <v>125</v>
       </c>
@@ -24669,10 +24679,10 @@
       <c r="A28" s="168"/>
       <c r="B28" s="184"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="291" t="s">
+      <c r="D28" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="299"/>
+      <c r="E28" s="291"/>
       <c r="F28" s="165"/>
       <c r="G28" s="139" t="s">
         <v>435</v>
@@ -24737,10 +24747,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="190"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="299"/>
+      <c r="E30" s="291"/>
       <c r="F30" s="165"/>
       <c r="G30" s="139" t="s">
         <v>192</v>
@@ -24874,10 +24884,10 @@
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
       <c r="D34" s="191"/>
-      <c r="E34" s="291" t="s">
+      <c r="E34" s="290" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="290"/>
+      <c r="F34" s="292"/>
       <c r="G34" s="139" t="s">
         <v>163</v>
       </c>
@@ -24908,10 +24918,10 @@
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
       <c r="D35" s="178"/>
-      <c r="E35" s="291" t="s">
+      <c r="E35" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="290"/>
+      <c r="F35" s="292"/>
       <c r="G35" s="139" t="s">
         <v>173</v>
       </c>
@@ -24942,10 +24952,10 @@
       <c r="B36" s="184"/>
       <c r="C36" s="189"/>
       <c r="D36" s="178"/>
-      <c r="E36" s="291" t="s">
+      <c r="E36" s="290" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="290"/>
+      <c r="F36" s="292"/>
       <c r="G36" s="139" t="s">
         <v>174</v>
       </c>
@@ -25961,11 +25971,11 @@
     </row>
     <row r="85" spans="1:16" ht="19" customHeight="1">
       <c r="A85" s="168"/>
-      <c r="B85" s="292" t="s">
+      <c r="B85" s="304" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="292"/>
-      <c r="D85" s="292"/>
+      <c r="C85" s="304"/>
+      <c r="D85" s="304"/>
       <c r="E85" s="168"/>
       <c r="F85" s="168"/>
       <c r="G85" s="168"/>
@@ -25981,12 +25991,12 @@
     </row>
     <row r="86" spans="1:16" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A86" s="182"/>
-      <c r="B86" s="293" t="s">
+      <c r="B86" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="294"/>
-      <c r="D86" s="294"/>
-      <c r="E86" s="295"/>
+      <c r="C86" s="299"/>
+      <c r="D86" s="299"/>
+      <c r="E86" s="300"/>
       <c r="F86" s="203"/>
       <c r="G86" s="174" t="s">
         <v>125</v>
@@ -26083,10 +26093,10 @@
       <c r="A89" s="168"/>
       <c r="B89" s="184"/>
       <c r="C89" s="189"/>
-      <c r="D89" s="291" t="s">
+      <c r="D89" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E89" s="290"/>
+      <c r="E89" s="292"/>
       <c r="F89" s="165"/>
       <c r="G89" s="139" t="s">
         <v>435</v>
@@ -26117,10 +26127,10 @@
       <c r="A90" s="168"/>
       <c r="B90" s="184"/>
       <c r="C90" s="189"/>
-      <c r="D90" s="291" t="s">
+      <c r="D90" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="290"/>
+      <c r="E90" s="292"/>
       <c r="F90" s="165"/>
       <c r="G90" s="139" t="s">
         <v>215</v>
@@ -26219,8 +26229,8 @@
       <c r="A93" s="168"/>
       <c r="B93" s="192"/>
       <c r="C93" s="190"/>
-      <c r="D93" s="291"/>
-      <c r="E93" s="290"/>
+      <c r="D93" s="290"/>
+      <c r="E93" s="292"/>
       <c r="F93" s="165"/>
       <c r="G93" s="139"/>
       <c r="H93" s="140"/>
@@ -26633,12 +26643,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
@@ -26652,6 +26656,12 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26668,7 +26678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -26751,15 +26761,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -26772,15 +26782,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -26814,15 +26824,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -26856,15 +26866,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -26927,19 +26937,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -26968,11 +26978,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -27219,12 +27229,12 @@
     </row>
     <row r="27" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="293" t="s">
+      <c r="B27" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="295"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="300"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -27316,10 +27326,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="189"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="290"/>
+      <c r="E30" s="292"/>
       <c r="F30" s="139" t="s">
         <v>435</v>
       </c>
@@ -27349,10 +27359,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="190"/>
-      <c r="D31" s="291" t="s">
+      <c r="D31" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="290"/>
+      <c r="E31" s="292"/>
       <c r="F31" s="139" t="s">
         <v>192</v>
       </c>
@@ -27415,10 +27425,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="291" t="s">
+      <c r="D33" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="290"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="139" t="s">
         <v>196</v>
       </c>
@@ -27448,10 +27458,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
-      <c r="D34" s="296" t="s">
+      <c r="D34" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="297"/>
+      <c r="E34" s="302"/>
       <c r="F34" s="139" t="s">
         <v>163</v>
       </c>
@@ -27481,10 +27491,10 @@
       <c r="A35" s="168"/>
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="291" t="s">
+      <c r="D35" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="290"/>
+      <c r="E35" s="292"/>
       <c r="F35" s="139" t="s">
         <v>173</v>
       </c>
@@ -27547,10 +27557,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="290"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="141" t="s">
         <v>385</v>
       </c>
@@ -27578,10 +27588,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="189"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="141" t="s">
         <v>389</v>
       </c>
@@ -27609,10 +27619,10 @@
       <c r="A39" s="168"/>
       <c r="B39" s="184"/>
       <c r="C39" s="189"/>
-      <c r="D39" s="291" t="s">
+      <c r="D39" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="E39" s="290"/>
+      <c r="E39" s="292"/>
       <c r="F39" s="141" t="s">
         <v>393</v>
       </c>
@@ -27642,10 +27652,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="291" t="s">
+      <c r="D40" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="290"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="141" t="s">
         <v>182</v>
       </c>
@@ -27675,10 +27685,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="189"/>
-      <c r="D41" s="291" t="s">
+      <c r="D41" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E41" s="290"/>
+      <c r="E41" s="292"/>
       <c r="F41" s="141" t="s">
         <v>397</v>
       </c>
@@ -27706,10 +27716,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="291" t="s">
+      <c r="D42" s="290" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="290"/>
+      <c r="E42" s="292"/>
       <c r="F42" s="141" t="s">
         <v>401</v>
       </c>
@@ -27737,10 +27747,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="189"/>
-      <c r="D43" s="291" t="s">
+      <c r="D43" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="E43" s="290"/>
+      <c r="E43" s="292"/>
       <c r="F43" s="141" t="s">
         <v>405</v>
       </c>
@@ -28546,12 +28556,12 @@
     </row>
     <row r="88" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A88" s="182"/>
-      <c r="B88" s="293" t="s">
+      <c r="B88" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="294"/>
-      <c r="D88" s="294"/>
-      <c r="E88" s="295"/>
+      <c r="C88" s="299"/>
+      <c r="D88" s="299"/>
+      <c r="E88" s="300"/>
       <c r="F88" s="174" t="s">
         <v>125</v>
       </c>
@@ -28645,10 +28655,10 @@
       <c r="A91" s="168"/>
       <c r="B91" s="184"/>
       <c r="C91" s="189"/>
-      <c r="D91" s="291" t="s">
+      <c r="D91" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E91" s="290"/>
+      <c r="E91" s="292"/>
       <c r="F91" s="139" t="s">
         <v>435</v>
       </c>
@@ -28678,10 +28688,10 @@
       <c r="A92" s="168"/>
       <c r="B92" s="184"/>
       <c r="C92" s="189"/>
-      <c r="D92" s="291" t="s">
+      <c r="D92" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="290"/>
+      <c r="E92" s="292"/>
       <c r="F92" s="139" t="s">
         <v>215</v>
       </c>
@@ -28711,10 +28721,10 @@
       <c r="A93" s="168"/>
       <c r="B93" s="184"/>
       <c r="C93" s="189"/>
-      <c r="D93" s="289" t="s">
+      <c r="D93" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E93" s="305"/>
+      <c r="E93" s="308"/>
       <c r="F93" s="139" t="s">
         <v>218</v>
       </c>
@@ -28810,8 +28820,8 @@
       <c r="A96" s="168"/>
       <c r="B96" s="192"/>
       <c r="C96" s="190"/>
-      <c r="D96" s="291"/>
-      <c r="E96" s="290"/>
+      <c r="D96" s="290"/>
+      <c r="E96" s="292"/>
       <c r="F96" s="139"/>
       <c r="G96" s="140"/>
       <c r="H96" s="140"/>
@@ -29201,12 +29211,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -29219,16 +29233,12 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29246,7 +29256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:I9"/>
     </sheetView>
   </sheetViews>
@@ -29329,15 +29339,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -29350,15 +29360,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -29392,15 +29402,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -29434,15 +29444,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -29505,19 +29515,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -29546,11 +29556,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -29764,12 +29774,12 @@
     </row>
     <row r="26" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="182"/>
-      <c r="B26" s="293" t="s">
+      <c r="B26" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="295"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="299"/>
+      <c r="E26" s="300"/>
       <c r="F26" s="174" t="s">
         <v>125</v>
       </c>
@@ -29861,10 +29871,10 @@
       <c r="A29" s="168"/>
       <c r="B29" s="184"/>
       <c r="C29" s="189"/>
-      <c r="D29" s="291" t="s">
+      <c r="D29" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="290"/>
+      <c r="E29" s="292"/>
       <c r="F29" s="139" t="s">
         <v>435</v>
       </c>
@@ -29894,10 +29904,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="190"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="290"/>
+      <c r="E30" s="292"/>
       <c r="F30" s="139" t="s">
         <v>192</v>
       </c>
@@ -29960,10 +29970,10 @@
       <c r="A32" s="168"/>
       <c r="B32" s="184"/>
       <c r="C32" s="191"/>
-      <c r="D32" s="291" t="s">
+      <c r="D32" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="290"/>
+      <c r="E32" s="292"/>
       <c r="F32" s="139" t="s">
         <v>196</v>
       </c>
@@ -29993,10 +30003,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="296" t="s">
+      <c r="D33" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="297"/>
+      <c r="E33" s="302"/>
       <c r="F33" s="139" t="s">
         <v>163</v>
       </c>
@@ -30026,10 +30036,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="189"/>
-      <c r="D34" s="291" t="s">
+      <c r="D34" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139" t="s">
         <v>173</v>
       </c>
@@ -30092,10 +30102,10 @@
       <c r="A36" s="168"/>
       <c r="B36" s="184"/>
       <c r="C36" s="189"/>
-      <c r="D36" s="291" t="s">
+      <c r="D36" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E36" s="290"/>
+      <c r="E36" s="292"/>
       <c r="F36" s="141" t="s">
         <v>385</v>
       </c>
@@ -30123,10 +30133,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>388</v>
       </c>
-      <c r="E37" s="290"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="141" t="s">
         <v>389</v>
       </c>
@@ -30154,10 +30164,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="189"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="141" t="s">
         <v>393</v>
       </c>
@@ -30187,10 +30197,10 @@
       <c r="A39" s="168"/>
       <c r="B39" s="184"/>
       <c r="C39" s="189"/>
-      <c r="D39" s="291" t="s">
+      <c r="D39" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="290"/>
+      <c r="E39" s="292"/>
       <c r="F39" s="141" t="s">
         <v>182</v>
       </c>
@@ -30220,10 +30230,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="291" t="s">
+      <c r="D40" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E40" s="290"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="141" t="s">
         <v>397</v>
       </c>
@@ -30251,10 +30261,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="189"/>
-      <c r="D41" s="291" t="s">
+      <c r="D41" s="290" t="s">
         <v>400</v>
       </c>
-      <c r="E41" s="290"/>
+      <c r="E41" s="292"/>
       <c r="F41" s="141" t="s">
         <v>401</v>
       </c>
@@ -30282,10 +30292,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="291" t="s">
+      <c r="D42" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="E42" s="290"/>
+      <c r="E42" s="292"/>
       <c r="F42" s="141" t="s">
         <v>405</v>
       </c>
@@ -30313,10 +30323,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="189"/>
-      <c r="D43" s="291" t="s">
+      <c r="D43" s="290" t="s">
         <v>408</v>
       </c>
-      <c r="E43" s="290"/>
+      <c r="E43" s="292"/>
       <c r="F43" s="141" t="s">
         <v>584</v>
       </c>
@@ -30346,10 +30356,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="196"/>
       <c r="C44" s="190"/>
-      <c r="D44" s="291" t="s">
+      <c r="D44" s="290" t="s">
         <v>410</v>
       </c>
-      <c r="E44" s="290"/>
+      <c r="E44" s="292"/>
       <c r="F44" s="141" t="s">
         <v>583</v>
       </c>
@@ -30874,12 +30884,12 @@
     </row>
     <row r="74" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A74" s="182"/>
-      <c r="B74" s="293" t="s">
+      <c r="B74" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="294"/>
-      <c r="D74" s="294"/>
-      <c r="E74" s="295"/>
+      <c r="C74" s="299"/>
+      <c r="D74" s="299"/>
+      <c r="E74" s="300"/>
       <c r="F74" s="174" t="s">
         <v>125</v>
       </c>
@@ -30971,10 +30981,10 @@
       <c r="A77" s="168"/>
       <c r="B77" s="184"/>
       <c r="C77" s="189"/>
-      <c r="D77" s="291" t="s">
+      <c r="D77" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E77" s="290"/>
+      <c r="E77" s="292"/>
       <c r="F77" s="139" t="s">
         <v>435</v>
       </c>
@@ -31004,10 +31014,10 @@
       <c r="A78" s="168"/>
       <c r="B78" s="184"/>
       <c r="C78" s="189"/>
-      <c r="D78" s="291" t="s">
+      <c r="D78" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="290"/>
+      <c r="E78" s="292"/>
       <c r="F78" s="139" t="s">
         <v>215</v>
       </c>
@@ -31037,10 +31047,10 @@
       <c r="A79" s="168"/>
       <c r="B79" s="184"/>
       <c r="C79" s="189"/>
-      <c r="D79" s="289" t="s">
+      <c r="D79" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E79" s="305"/>
+      <c r="E79" s="308"/>
       <c r="F79" s="139" t="s">
         <v>218</v>
       </c>
@@ -31134,8 +31144,8 @@
       <c r="A82" s="168"/>
       <c r="B82" s="192"/>
       <c r="C82" s="190"/>
-      <c r="D82" s="291"/>
-      <c r="E82" s="290"/>
+      <c r="D82" s="290"/>
+      <c r="E82" s="292"/>
       <c r="F82" s="139"/>
       <c r="G82" s="140"/>
       <c r="H82" s="140"/>
@@ -31525,12 +31535,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:E74"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
@@ -31543,16 +31557,12 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31652,15 +31662,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31673,15 +31683,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31715,15 +31725,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31757,15 +31767,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31828,19 +31838,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31869,11 +31879,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31900,11 +31910,11 @@
       <c r="I15" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31931,11 +31941,11 @@
       <c r="I16" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -31981,9 +31991,9 @@
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="75"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="315"/>
-      <c r="L18" s="316"/>
+      <c r="J18" s="312"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -31998,9 +32008,9 @@
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="317"/>
-      <c r="K19" s="315"/>
-      <c r="L19" s="316"/>
+      <c r="J19" s="312"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="313"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -32162,11 +32172,11 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="323" t="s">
+      <c r="B29" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="323"/>
-      <c r="D29" s="323"/>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="82"/>
@@ -32181,12 +32191,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="312" t="s">
+      <c r="B30" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="313"/>
-      <c r="D30" s="313"/>
-      <c r="E30" s="314"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="317"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="154" t="s">
         <v>125</v>
       </c>
@@ -32278,10 +32288,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="317" t="s">
+      <c r="D33" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="316"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -32311,10 +32321,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="317" t="s">
+      <c r="D34" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="74" t="s">
         <v>192</v>
       </c>
@@ -32377,10 +32387,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="87"/>
       <c r="C36" s="97"/>
-      <c r="D36" s="291" t="s">
+      <c r="D36" s="290" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="316"/>
+      <c r="E36" s="313"/>
       <c r="F36" s="139" t="s">
         <v>271</v>
       </c>
@@ -32410,10 +32420,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="296" t="s">
+      <c r="D37" s="301" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="324"/>
+      <c r="E37" s="314"/>
       <c r="F37" s="139" t="s">
         <v>274</v>
       </c>
@@ -32443,10 +32453,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="87"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>276</v>
       </c>
-      <c r="E38" s="316"/>
+      <c r="E38" s="313"/>
       <c r="F38" s="139" t="s">
         <v>277</v>
       </c>
@@ -32542,10 +32552,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="93"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="291" t="s">
+      <c r="D41" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="316"/>
+      <c r="E41" s="313"/>
       <c r="F41" s="139" t="s">
         <v>284</v>
       </c>
@@ -33153,11 +33163,11 @@
     </row>
     <row r="76" spans="1:15" ht="20" customHeight="1">
       <c r="A76" s="66"/>
-      <c r="B76" s="325" t="s">
+      <c r="B76" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="325"/>
-      <c r="D76" s="325"/>
+      <c r="C76" s="315"/>
+      <c r="D76" s="315"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -33174,12 +33184,12 @@
     </row>
     <row r="77" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A77" s="85"/>
-      <c r="B77" s="312" t="s">
+      <c r="B77" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="313"/>
-      <c r="D77" s="313"/>
-      <c r="E77" s="314"/>
+      <c r="C77" s="317"/>
+      <c r="D77" s="317"/>
+      <c r="E77" s="318"/>
       <c r="F77" s="154" t="s">
         <v>125</v>
       </c>
@@ -33271,10 +33281,10 @@
       <c r="A80" s="66"/>
       <c r="B80" s="87"/>
       <c r="C80" s="92"/>
-      <c r="D80" s="291" t="s">
+      <c r="D80" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E80" s="316"/>
+      <c r="E80" s="313"/>
       <c r="F80" s="74" t="s">
         <v>140</v>
       </c>
@@ -33304,10 +33314,10 @@
       <c r="A81" s="66"/>
       <c r="B81" s="87"/>
       <c r="C81" s="92"/>
-      <c r="D81" s="291" t="s">
+      <c r="D81" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="290"/>
+      <c r="E81" s="292"/>
       <c r="F81" s="139" t="s">
         <v>215</v>
       </c>
@@ -33337,10 +33347,10 @@
       <c r="A82" s="66"/>
       <c r="B82" s="87"/>
       <c r="C82" s="92"/>
-      <c r="D82" s="289" t="s">
+      <c r="D82" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E82" s="290"/>
+      <c r="E82" s="292"/>
       <c r="F82" s="139" t="s">
         <v>218</v>
       </c>
@@ -33434,8 +33444,8 @@
       <c r="A85" s="66"/>
       <c r="B85" s="93"/>
       <c r="C85" s="94"/>
-      <c r="D85" s="317"/>
-      <c r="E85" s="316"/>
+      <c r="D85" s="312"/>
+      <c r="E85" s="313"/>
       <c r="F85" s="74"/>
       <c r="G85" s="76"/>
       <c r="H85" s="76"/>
@@ -33825,6 +33835,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -33837,18 +33859,6 @@
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -33953,15 +33963,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33974,15 +33984,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -34016,15 +34026,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -34058,15 +34068,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -34129,19 +34139,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -34170,11 +34180,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34189,9 +34199,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="315"/>
-      <c r="L15" s="316"/>
+      <c r="J15" s="312"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -34353,11 +34363,11 @@
     </row>
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="323" t="s">
+      <c r="B25" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="323"/>
-      <c r="D25" s="323"/>
+      <c r="C25" s="325"/>
+      <c r="D25" s="325"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="82"/>
@@ -34372,12 +34382,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="312" t="s">
+      <c r="B26" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="314"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="318"/>
       <c r="F26" s="154" t="s">
         <v>125</v>
       </c>
@@ -34469,10 +34479,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="87"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="317" t="s">
+      <c r="D29" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="316"/>
+      <c r="E29" s="313"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -34502,10 +34512,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>192</v>
       </c>
@@ -34568,10 +34578,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="291" t="s">
+      <c r="D32" s="290" t="s">
         <v>270</v>
       </c>
-      <c r="E32" s="316"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="139" t="s">
         <v>271</v>
       </c>
@@ -34601,10 +34611,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="296" t="s">
+      <c r="D33" s="301" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="324"/>
+      <c r="E33" s="314"/>
       <c r="F33" s="139" t="s">
         <v>274</v>
       </c>
@@ -34634,10 +34644,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="291" t="s">
+      <c r="D34" s="290" t="s">
         <v>292</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="139" t="s">
         <v>293</v>
       </c>
@@ -34733,10 +34743,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="93"/>
       <c r="C37" s="94"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="316"/>
+      <c r="E37" s="313"/>
       <c r="F37" s="139" t="s">
         <v>284</v>
       </c>
@@ -35106,11 +35116,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="325" t="s">
+      <c r="B58" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="325"/>
-      <c r="D58" s="325"/>
+      <c r="C58" s="315"/>
+      <c r="D58" s="315"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -35127,12 +35137,12 @@
     </row>
     <row r="59" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="85"/>
-      <c r="B59" s="312" t="s">
+      <c r="B59" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="313"/>
-      <c r="D59" s="313"/>
-      <c r="E59" s="314"/>
+      <c r="C59" s="317"/>
+      <c r="D59" s="317"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="154" t="s">
         <v>125</v>
       </c>
@@ -35224,10 +35234,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="87"/>
       <c r="C62" s="92"/>
-      <c r="D62" s="291" t="s">
+      <c r="D62" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="316"/>
+      <c r="E62" s="313"/>
       <c r="F62" s="74" t="s">
         <v>140</v>
       </c>
@@ -35257,10 +35267,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="87"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="291" t="s">
+      <c r="D63" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="290"/>
+      <c r="E63" s="292"/>
       <c r="F63" s="139" t="s">
         <v>215</v>
       </c>
@@ -35290,10 +35300,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="87"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="289" t="s">
+      <c r="D64" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="290"/>
+      <c r="E64" s="292"/>
       <c r="F64" s="139" t="s">
         <v>218</v>
       </c>
@@ -35387,8 +35397,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="94"/>
-      <c r="D67" s="317"/>
-      <c r="E67" s="316"/>
+      <c r="D67" s="312"/>
+      <c r="E67" s="313"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -35778,6 +35788,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
@@ -35790,15 +35809,6 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35899,15 +35909,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35920,15 +35930,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35962,15 +35972,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -36004,15 +36014,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -36075,19 +36085,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36116,11 +36126,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36147,11 +36157,11 @@
       <c r="I15" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -36178,11 +36188,11 @@
       <c r="I16" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36240,9 +36250,9 @@
       <c r="I18" s="159" t="s">
         <v>301</v>
       </c>
-      <c r="J18" s="317"/>
-      <c r="K18" s="315"/>
-      <c r="L18" s="316"/>
+      <c r="J18" s="312"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -36257,9 +36267,9 @@
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="317"/>
-      <c r="K19" s="315"/>
-      <c r="L19" s="316"/>
+      <c r="J19" s="312"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="313"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -36421,11 +36431,11 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="323" t="s">
+      <c r="B29" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="323"/>
-      <c r="D29" s="323"/>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="82"/>
@@ -36440,12 +36450,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="312" t="s">
+      <c r="B30" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="313"/>
-      <c r="D30" s="313"/>
-      <c r="E30" s="314"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="317"/>
+      <c r="E30" s="318"/>
       <c r="F30" s="154" t="s">
         <v>125</v>
       </c>
@@ -36537,10 +36547,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="317" t="s">
+      <c r="D33" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="316"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -36570,10 +36580,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="317" t="s">
+      <c r="D34" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="74" t="s">
         <v>192</v>
       </c>
@@ -36636,10 +36646,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="87"/>
       <c r="C36" s="97"/>
-      <c r="D36" s="291" t="s">
+      <c r="D36" s="290" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="316"/>
+      <c r="E36" s="313"/>
       <c r="F36" s="139" t="s">
         <v>271</v>
       </c>
@@ -36669,10 +36679,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="296" t="s">
+      <c r="D37" s="301" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="324"/>
+      <c r="E37" s="314"/>
       <c r="F37" s="139" t="s">
         <v>274</v>
       </c>
@@ -36702,10 +36712,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="87"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="316"/>
+      <c r="E38" s="313"/>
       <c r="F38" s="139" t="s">
         <v>578</v>
       </c>
@@ -36785,8 +36795,8 @@
       <c r="A41" s="66"/>
       <c r="B41" s="93"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="291"/>
-      <c r="E41" s="316"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="313"/>
       <c r="F41" s="139"/>
       <c r="G41" s="140"/>
       <c r="H41" s="76"/>
@@ -37295,11 +37305,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="325" t="s">
+      <c r="B71" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="325"/>
-      <c r="D71" s="325"/>
+      <c r="C71" s="315"/>
+      <c r="D71" s="315"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -37316,12 +37326,12 @@
     </row>
     <row r="72" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="85"/>
-      <c r="B72" s="312" t="s">
+      <c r="B72" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="313"/>
-      <c r="D72" s="313"/>
-      <c r="E72" s="314"/>
+      <c r="C72" s="317"/>
+      <c r="D72" s="317"/>
+      <c r="E72" s="318"/>
       <c r="F72" s="154" t="s">
         <v>125</v>
       </c>
@@ -37413,10 +37423,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="87"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="291" t="s">
+      <c r="D75" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="316"/>
+      <c r="E75" s="313"/>
       <c r="F75" s="74" t="s">
         <v>140</v>
       </c>
@@ -37446,10 +37456,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="87"/>
       <c r="C76" s="92"/>
-      <c r="D76" s="291" t="s">
+      <c r="D76" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="290"/>
+      <c r="E76" s="292"/>
       <c r="F76" s="139" t="s">
         <v>215</v>
       </c>
@@ -37479,10 +37489,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="87"/>
       <c r="C77" s="92"/>
-      <c r="D77" s="289" t="s">
+      <c r="D77" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E77" s="290"/>
+      <c r="E77" s="292"/>
       <c r="F77" s="139" t="s">
         <v>218</v>
       </c>
@@ -37576,8 +37586,8 @@
       <c r="A80" s="66"/>
       <c r="B80" s="93"/>
       <c r="C80" s="94"/>
-      <c r="D80" s="317"/>
-      <c r="E80" s="316"/>
+      <c r="D80" s="312"/>
+      <c r="E80" s="313"/>
       <c r="F80" s="74"/>
       <c r="G80" s="76"/>
       <c r="H80" s="76"/>
@@ -37967,6 +37977,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
@@ -37979,18 +38001,6 @@
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="D77:E77"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -38095,15 +38105,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -38116,15 +38126,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -38158,15 +38168,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -38200,15 +38210,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -38271,19 +38281,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -38312,11 +38322,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -38345,11 +38355,11 @@
       <c r="I15" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -38378,11 +38388,11 @@
       <c r="I16" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -38444,11 +38454,11 @@
       <c r="I18" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="291" t="s">
+      <c r="J18" s="290" t="s">
         <v>326</v>
       </c>
-      <c r="K18" s="315"/>
-      <c r="L18" s="316"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -38477,11 +38487,11 @@
       <c r="I19" s="161">
         <v>1</v>
       </c>
-      <c r="J19" s="291" t="s">
+      <c r="J19" s="290" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="315"/>
-      <c r="L19" s="316"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="313"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -38510,11 +38520,11 @@
       <c r="I20" s="162" t="s">
         <v>554</v>
       </c>
-      <c r="J20" s="291" t="s">
+      <c r="J20" s="290" t="s">
         <v>555</v>
       </c>
-      <c r="K20" s="315"/>
-      <c r="L20" s="316"/>
+      <c r="K20" s="319"/>
+      <c r="L20" s="313"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -38676,11 +38686,11 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="323" t="s">
+      <c r="B30" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="323"/>
-      <c r="D30" s="323"/>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
       <c r="G30" s="82"/>
@@ -38695,12 +38705,12 @@
     </row>
     <row r="31" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="312" t="s">
+      <c r="B31" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="313"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="314"/>
+      <c r="C31" s="317"/>
+      <c r="D31" s="317"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="154" t="s">
         <v>125</v>
       </c>
@@ -38792,10 +38802,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="317" t="s">
+      <c r="D34" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -38825,10 +38835,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="87"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="317" t="s">
+      <c r="D35" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="316"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="74" t="s">
         <v>192</v>
       </c>
@@ -38891,8 +38901,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="291"/>
-      <c r="E37" s="316"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="313"/>
       <c r="F37" s="139"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -38908,8 +38918,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="290"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
       <c r="H38" s="76"/>
@@ -39146,11 +39156,11 @@
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="325" t="s">
+      <c r="B52" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="325"/>
-      <c r="D52" s="325"/>
+      <c r="C52" s="315"/>
+      <c r="D52" s="315"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -39167,12 +39177,12 @@
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="312" t="s">
+      <c r="B53" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="313"/>
-      <c r="D53" s="313"/>
-      <c r="E53" s="314"/>
+      <c r="C53" s="317"/>
+      <c r="D53" s="317"/>
+      <c r="E53" s="318"/>
       <c r="F53" s="154" t="s">
         <v>125</v>
       </c>
@@ -39264,10 +39274,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="87"/>
       <c r="C56" s="92"/>
-      <c r="D56" s="291" t="s">
+      <c r="D56" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="316"/>
+      <c r="E56" s="313"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -39297,10 +39307,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="87"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="291" t="s">
+      <c r="D57" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="290"/>
+      <c r="E57" s="292"/>
       <c r="F57" s="139" t="s">
         <v>215</v>
       </c>
@@ -39330,10 +39340,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="87"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="289" t="s">
+      <c r="D58" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="290"/>
+      <c r="E58" s="292"/>
       <c r="F58" s="139" t="s">
         <v>218</v>
       </c>
@@ -39427,8 +39437,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="93"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="317"/>
-      <c r="E61" s="316"/>
+      <c r="D61" s="312"/>
+      <c r="E61" s="313"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -39818,6 +39828,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D34:E34"/>
@@ -39828,20 +39852,6 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -39946,15 +39956,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39967,15 +39977,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -40009,15 +40019,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -40051,15 +40061,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -40122,19 +40132,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40163,11 +40173,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40196,11 +40206,11 @@
       <c r="I15" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40229,11 +40239,11 @@
       <c r="I16" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="322"/>
-      <c r="L16" s="322"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40295,11 +40305,11 @@
       <c r="I18" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="291" t="s">
+      <c r="J18" s="290" t="s">
         <v>326</v>
       </c>
-      <c r="K18" s="315"/>
-      <c r="L18" s="316"/>
+      <c r="K18" s="319"/>
+      <c r="L18" s="313"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -40328,11 +40338,11 @@
       <c r="I19" s="161">
         <v>1</v>
       </c>
-      <c r="J19" s="291" t="s">
+      <c r="J19" s="290" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="315"/>
-      <c r="L19" s="316"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="313"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -40361,11 +40371,11 @@
       <c r="I20" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J20" s="291" t="s">
+      <c r="J20" s="290" t="s">
         <v>337</v>
       </c>
-      <c r="K20" s="315"/>
-      <c r="L20" s="316"/>
+      <c r="K20" s="319"/>
+      <c r="L20" s="313"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -40527,11 +40537,11 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="323" t="s">
+      <c r="B30" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="323"/>
-      <c r="D30" s="323"/>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
       <c r="G30" s="82"/>
@@ -40546,12 +40556,12 @@
     </row>
     <row r="31" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="312" t="s">
+      <c r="B31" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="313"/>
-      <c r="D31" s="313"/>
-      <c r="E31" s="314"/>
+      <c r="C31" s="317"/>
+      <c r="D31" s="317"/>
+      <c r="E31" s="318"/>
       <c r="F31" s="154" t="s">
         <v>125</v>
       </c>
@@ -40643,10 +40653,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="317" t="s">
+      <c r="D34" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="316"/>
+      <c r="E34" s="313"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -40676,10 +40686,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="87"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="317" t="s">
+      <c r="D35" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="316"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="74" t="s">
         <v>192</v>
       </c>
@@ -40742,8 +40752,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="291"/>
-      <c r="E37" s="316"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="313"/>
       <c r="F37" s="139"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -40759,8 +40769,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="290"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
       <c r="H38" s="76"/>
@@ -41014,11 +41024,11 @@
     </row>
     <row r="53" spans="1:15" ht="20" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="325" t="s">
+      <c r="B53" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="325"/>
-      <c r="D53" s="325"/>
+      <c r="C53" s="315"/>
+      <c r="D53" s="315"/>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
       <c r="G53" s="66"/>
@@ -41035,12 +41045,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="312" t="s">
+      <c r="B54" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="313"/>
-      <c r="D54" s="313"/>
-      <c r="E54" s="314"/>
+      <c r="C54" s="317"/>
+      <c r="D54" s="317"/>
+      <c r="E54" s="318"/>
       <c r="F54" s="154" t="s">
         <v>125</v>
       </c>
@@ -41132,10 +41142,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="87"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="291" t="s">
+      <c r="D57" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="316"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="74" t="s">
         <v>140</v>
       </c>
@@ -41165,10 +41175,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="87"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="291" t="s">
+      <c r="D58" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="290"/>
+      <c r="E58" s="292"/>
       <c r="F58" s="139" t="s">
         <v>215</v>
       </c>
@@ -41198,10 +41208,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="87"/>
       <c r="C59" s="92"/>
-      <c r="D59" s="289" t="s">
+      <c r="D59" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="290"/>
+      <c r="E59" s="292"/>
       <c r="F59" s="139" t="s">
         <v>218</v>
       </c>
@@ -41295,8 +41305,8 @@
       <c r="A62" s="66"/>
       <c r="B62" s="93"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="317"/>
-      <c r="E62" s="316"/>
+      <c r="D62" s="312"/>
+      <c r="E62" s="313"/>
       <c r="F62" s="74"/>
       <c r="G62" s="76"/>
       <c r="H62" s="76"/>
@@ -41686,6 +41696,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:E31"/>
@@ -41698,18 +41720,6 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -41814,15 +41824,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41835,15 +41845,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41877,15 +41887,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41919,15 +41929,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -41990,19 +42000,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -42031,11 +42041,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -42064,11 +42074,11 @@
       <c r="I15" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -42083,9 +42093,9 @@
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="162"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="315"/>
-      <c r="L16" s="316"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -42247,11 +42257,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -42266,12 +42276,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -42363,10 +42373,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -42396,10 +42406,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="317" t="s">
+      <c r="D31" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="316"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -42462,8 +42472,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="316"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -42479,8 +42489,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -42734,11 +42744,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="66"/>
-      <c r="B49" s="325" t="s">
+      <c r="B49" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="325"/>
-      <c r="D49" s="325"/>
+      <c r="C49" s="315"/>
+      <c r="D49" s="315"/>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
@@ -42755,12 +42765,12 @@
     </row>
     <row r="50" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="85"/>
-      <c r="B50" s="312" t="s">
+      <c r="B50" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="313"/>
-      <c r="D50" s="313"/>
-      <c r="E50" s="314"/>
+      <c r="C50" s="317"/>
+      <c r="D50" s="317"/>
+      <c r="E50" s="318"/>
       <c r="F50" s="154" t="s">
         <v>125</v>
       </c>
@@ -42852,10 +42862,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="316"/>
+      <c r="E53" s="313"/>
       <c r="F53" s="74" t="s">
         <v>140</v>
       </c>
@@ -42885,10 +42895,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="291" t="s">
+      <c r="D54" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>215</v>
       </c>
@@ -42918,10 +42928,10 @@
       <c r="A55" s="66"/>
       <c r="B55" s="87"/>
       <c r="C55" s="92"/>
-      <c r="D55" s="289" t="s">
+      <c r="D55" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="290"/>
+      <c r="E55" s="292"/>
       <c r="F55" s="139" t="s">
         <v>218</v>
       </c>
@@ -43015,8 +43025,8 @@
       <c r="A58" s="66"/>
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
-      <c r="D58" s="317"/>
-      <c r="E58" s="316"/>
+      <c r="D58" s="312"/>
+      <c r="E58" s="313"/>
       <c r="F58" s="74"/>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
@@ -43406,6 +43416,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -43418,14 +43436,6 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -44127,15 +44137,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -44148,15 +44158,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -44190,15 +44200,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -44232,15 +44242,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -44303,19 +44313,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -44344,11 +44354,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -44363,9 +44373,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="315"/>
-      <c r="L15" s="316"/>
+      <c r="J15" s="312"/>
+      <c r="K15" s="319"/>
+      <c r="L15" s="313"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -44527,11 +44537,11 @@
     </row>
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="323" t="s">
+      <c r="B25" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="323"/>
-      <c r="D25" s="323"/>
+      <c r="C25" s="325"/>
+      <c r="D25" s="325"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="82"/>
@@ -44546,12 +44556,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="312" t="s">
+      <c r="B26" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="313"/>
-      <c r="D26" s="313"/>
-      <c r="E26" s="314"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="318"/>
       <c r="F26" s="154" t="s">
         <v>125</v>
       </c>
@@ -44643,10 +44653,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="87"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="317" t="s">
+      <c r="D29" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="316"/>
+      <c r="E29" s="313"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -44676,10 +44686,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>192</v>
       </c>
@@ -44742,10 +44752,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="291" t="s">
+      <c r="D32" s="290" t="s">
         <v>347</v>
       </c>
-      <c r="E32" s="316"/>
+      <c r="E32" s="313"/>
       <c r="F32" s="139" t="s">
         <v>271</v>
       </c>
@@ -44775,10 +44785,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="296" t="s">
+      <c r="D33" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="324"/>
+      <c r="E33" s="314"/>
       <c r="F33" s="139" t="s">
         <v>350</v>
       </c>
@@ -44841,10 +44851,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="93"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="291" t="s">
+      <c r="D35" s="290" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="316"/>
+      <c r="E35" s="313"/>
       <c r="F35" s="139" t="s">
         <v>284</v>
       </c>
@@ -45452,11 +45462,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="325" t="s">
+      <c r="B70" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="325"/>
-      <c r="D70" s="325"/>
+      <c r="C70" s="315"/>
+      <c r="D70" s="315"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -45473,12 +45483,12 @@
     </row>
     <row r="71" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="85"/>
-      <c r="B71" s="312" t="s">
+      <c r="B71" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="313"/>
-      <c r="D71" s="313"/>
-      <c r="E71" s="314"/>
+      <c r="C71" s="317"/>
+      <c r="D71" s="317"/>
+      <c r="E71" s="318"/>
       <c r="F71" s="154" t="s">
         <v>125</v>
       </c>
@@ -45570,10 +45580,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="87"/>
       <c r="C74" s="92"/>
-      <c r="D74" s="291" t="s">
+      <c r="D74" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="316"/>
+      <c r="E74" s="313"/>
       <c r="F74" s="74" t="s">
         <v>140</v>
       </c>
@@ -45603,10 +45613,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="87"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="291" t="s">
+      <c r="D75" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="290"/>
+      <c r="E75" s="292"/>
       <c r="F75" s="139" t="s">
         <v>215</v>
       </c>
@@ -45636,10 +45646,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="87"/>
       <c r="C76" s="92"/>
-      <c r="D76" s="289" t="s">
+      <c r="D76" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="290"/>
+      <c r="E76" s="292"/>
       <c r="F76" s="139" t="s">
         <v>218</v>
       </c>
@@ -45733,8 +45743,8 @@
       <c r="A79" s="66"/>
       <c r="B79" s="93"/>
       <c r="C79" s="94"/>
-      <c r="D79" s="317"/>
-      <c r="E79" s="316"/>
+      <c r="D79" s="312"/>
+      <c r="E79" s="313"/>
       <c r="F79" s="74"/>
       <c r="G79" s="76"/>
       <c r="H79" s="76"/>
@@ -46124,6 +46134,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
@@ -46135,15 +46154,6 @@
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46244,15 +46254,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -46265,15 +46275,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>354</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -46307,15 +46317,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -46349,15 +46359,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -46420,19 +46430,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -46461,11 +46471,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -46527,11 +46537,11 @@
       <c r="I16" s="162" t="s">
         <v>557</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="290" t="s">
         <v>558</v>
       </c>
-      <c r="K16" s="315"/>
-      <c r="L16" s="316"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -46693,11 +46703,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -46712,12 +46722,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -46809,10 +46819,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -46842,10 +46852,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="317" t="s">
+      <c r="D31" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="316"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -46908,8 +46918,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="316"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -46925,8 +46935,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -47163,11 +47173,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="325" t="s">
+      <c r="B48" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="325"/>
-      <c r="D48" s="325"/>
+      <c r="C48" s="315"/>
+      <c r="D48" s="315"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -47184,12 +47194,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="313"/>
-      <c r="D49" s="313"/>
-      <c r="E49" s="314"/>
+      <c r="C49" s="317"/>
+      <c r="D49" s="317"/>
+      <c r="E49" s="318"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -47281,10 +47291,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="291" t="s">
+      <c r="D52" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="316"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -47314,10 +47324,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -47347,10 +47357,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="289" t="s">
+      <c r="D54" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -47444,8 +47454,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="317"/>
-      <c r="E57" s="316"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -47835,6 +47845,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B26:D26"/>
@@ -47848,12 +47864,6 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -47954,15 +47964,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47975,15 +47985,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -48017,15 +48027,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -48059,15 +48069,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -48130,19 +48140,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48171,11 +48181,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48237,11 +48247,11 @@
       <c r="I16" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="290" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="315"/>
-      <c r="L16" s="316"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -48403,11 +48413,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -48422,12 +48432,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -48519,10 +48529,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -48552,10 +48562,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="317" t="s">
+      <c r="D31" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="316"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -48618,8 +48628,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="316"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -48635,8 +48645,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -48873,11 +48883,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="325" t="s">
+      <c r="B48" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="325"/>
-      <c r="D48" s="325"/>
+      <c r="C48" s="315"/>
+      <c r="D48" s="315"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -48894,12 +48904,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="313"/>
-      <c r="D49" s="313"/>
-      <c r="E49" s="314"/>
+      <c r="C49" s="317"/>
+      <c r="D49" s="317"/>
+      <c r="E49" s="318"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -48991,10 +49001,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="291" t="s">
+      <c r="D52" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="316"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -49024,10 +49034,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -49057,10 +49067,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="289" t="s">
+      <c r="D54" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -49154,8 +49164,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="317"/>
-      <c r="E57" s="316"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -49545,6 +49555,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B26:D26"/>
@@ -49558,12 +49574,6 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -49667,15 +49677,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49688,15 +49698,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="316"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="313"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49730,15 +49740,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="316"/>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="313"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49772,15 +49782,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="317" t="s">
+      <c r="C9" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="316"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319"/>
+      <c r="I9" s="313"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49843,19 +49853,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="318" t="s">
+      <c r="B13" s="320" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="320"/>
+      <c r="C13" s="321"/>
+      <c r="D13" s="321"/>
+      <c r="E13" s="321"/>
+      <c r="F13" s="321"/>
+      <c r="G13" s="321"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="321"/>
+      <c r="J13" s="321"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49884,11 +49894,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="321" t="s">
+      <c r="J14" s="323" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
+      <c r="K14" s="323"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49917,11 +49927,11 @@
       <c r="I15" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="K15" s="324"/>
+      <c r="L15" s="324"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49936,9 +49946,9 @@
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="162"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="315"/>
-      <c r="L16" s="316"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="319"/>
+      <c r="L16" s="313"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50100,11 +50110,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="323" t="s">
+      <c r="B26" s="325" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="325"/>
+      <c r="D26" s="325"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -50119,12 +50129,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="312" t="s">
+      <c r="B27" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -50216,10 +50226,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="317" t="s">
+      <c r="D30" s="312" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="316"/>
+      <c r="E30" s="313"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -50249,10 +50259,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="317" t="s">
+      <c r="D31" s="312" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="316"/>
+      <c r="E31" s="313"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -50315,8 +50325,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="316"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="313"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -50332,8 +50342,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="292"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -50570,11 +50580,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="325" t="s">
+      <c r="B48" s="315" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="325"/>
-      <c r="D48" s="325"/>
+      <c r="C48" s="315"/>
+      <c r="D48" s="315"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -50591,12 +50601,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="312" t="s">
+      <c r="B49" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="313"/>
-      <c r="D49" s="313"/>
-      <c r="E49" s="314"/>
+      <c r="C49" s="317"/>
+      <c r="D49" s="317"/>
+      <c r="E49" s="318"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -50688,10 +50698,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="291" t="s">
+      <c r="D52" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="316"/>
+      <c r="E52" s="313"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -50721,10 +50731,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -50754,10 +50764,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="289" t="s">
+      <c r="D54" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -50851,8 +50861,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="317"/>
-      <c r="E57" s="316"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="313"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -51242,14 +51252,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -51262,6 +51264,14 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -51715,10 +51725,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L61"/>
+  <dimension ref="B1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -52340,7 +52350,7 @@
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
       <c r="B48" s="146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="147" t="s">
         <v>375</v>
@@ -52353,7 +52363,7 @@
     </row>
     <row r="49" spans="2:6" ht="15" customHeight="1">
       <c r="B49" s="146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="147" t="s">
         <v>376</v>
@@ -52366,7 +52376,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="147" t="s">
         <v>365</v>
@@ -52379,7 +52389,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="147" t="s">
         <v>366</v>
@@ -52392,7 +52402,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="147" t="s">
         <v>367</v>
@@ -52405,7 +52415,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="147" t="s">
         <v>368</v>
@@ -52416,83 +52426,126 @@
       <c r="E53" s="277"/>
       <c r="F53" s="148"/>
     </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="117" t="s">
+    <row r="54" spans="2:6">
+      <c r="B54" s="146">
+        <v>7</v>
+      </c>
+      <c r="C54" s="147" t="s">
+        <v>632</v>
+      </c>
+      <c r="D54" s="276" t="s">
+        <v>633</v>
+      </c>
+      <c r="E54" s="277"/>
+      <c r="F54" s="148"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="116"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="118"/>
-      <c r="C57" s="134" t="s">
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="116"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="118"/>
+      <c r="C58" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="275" t="s">
+      <c r="D58" s="275" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="275"/>
-      <c r="F57" s="134" t="s">
+      <c r="E58" s="275"/>
+      <c r="F58" s="134" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" ht="20" customHeight="1">
-      <c r="B58" s="146">
-        <v>1</v>
-      </c>
-      <c r="C58" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="274" t="s">
-        <v>371</v>
-      </c>
-      <c r="E58" s="274"/>
-      <c r="F58" s="148"/>
     </row>
     <row r="59" spans="2:6" ht="20" customHeight="1">
       <c r="B59" s="146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="147" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D59" s="274" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E59" s="274"/>
       <c r="F59" s="148"/>
     </row>
     <row r="60" spans="2:6" ht="20" customHeight="1">
       <c r="B60" s="146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" s="274" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E60" s="274"/>
       <c r="F60" s="148"/>
     </row>
     <row r="61" spans="2:6" ht="20" customHeight="1">
       <c r="B61" s="146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="147" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="274" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E61" s="274"/>
       <c r="F61" s="148"/>
     </row>
+    <row r="62" spans="2:6" ht="20" customHeight="1">
+      <c r="B62" s="146">
+        <v>4</v>
+      </c>
+      <c r="C62" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="274" t="s">
+        <v>374</v>
+      </c>
+      <c r="E62" s="274"/>
+      <c r="F62" s="148"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="46">
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D22:E22"/>
@@ -52506,36 +52559,7 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D53:E53"/>
     <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -52552,7 +52576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -53281,15 +53305,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -53302,15 +53326,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -53344,15 +53368,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -53386,15 +53410,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -53457,19 +53481,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -53498,11 +53522,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -53531,11 +53555,11 @@
       <c r="I15" s="158" t="s">
         <v>560</v>
       </c>
-      <c r="J15" s="304" t="s">
+      <c r="J15" s="297" t="s">
         <v>559</v>
       </c>
-      <c r="K15" s="304"/>
-      <c r="L15" s="304"/>
+      <c r="K15" s="297"/>
+      <c r="L15" s="297"/>
       <c r="M15" s="168"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
@@ -53564,11 +53588,11 @@
       <c r="I16" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="304" t="s">
+      <c r="J16" s="297" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="304"/>
-      <c r="L16" s="304"/>
+      <c r="K16" s="297"/>
+      <c r="L16" s="297"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -53663,11 +53687,11 @@
       <c r="I19" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="291" t="s">
+      <c r="J19" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="299"/>
-      <c r="L19" s="290"/>
+      <c r="K19" s="291"/>
+      <c r="L19" s="292"/>
       <c r="M19" s="168"/>
       <c r="N19" s="168"/>
       <c r="O19" s="168"/>
@@ -53694,11 +53718,11 @@
       <c r="I20" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="J20" s="291" t="s">
+      <c r="J20" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="K20" s="299"/>
-      <c r="L20" s="290"/>
+      <c r="K20" s="291"/>
+      <c r="L20" s="292"/>
       <c r="M20" s="168"/>
       <c r="N20" s="168"/>
       <c r="O20" s="168"/>
@@ -53787,11 +53811,11 @@
       <c r="I23" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="291" t="s">
+      <c r="J23" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="299"/>
-      <c r="L23" s="290"/>
+      <c r="K23" s="291"/>
+      <c r="L23" s="292"/>
       <c r="M23" s="168"/>
       <c r="N23" s="168"/>
       <c r="O23" s="168"/>
@@ -54060,11 +54084,11 @@
     </row>
     <row r="36" spans="1:15" s="181" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="144"/>
-      <c r="B36" s="298" t="s">
+      <c r="B36" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="298"/>
-      <c r="D36" s="298"/>
+      <c r="C36" s="289"/>
+      <c r="D36" s="289"/>
       <c r="E36" s="179"/>
       <c r="F36" s="180"/>
       <c r="G36" s="179"/>
@@ -54079,12 +54103,12 @@
     </row>
     <row r="37" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="182"/>
-      <c r="B37" s="293" t="s">
+      <c r="B37" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="294"/>
-      <c r="D37" s="294"/>
-      <c r="E37" s="295"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="299"/>
+      <c r="E37" s="300"/>
       <c r="F37" s="174" t="s">
         <v>125</v>
       </c>
@@ -54176,10 +54200,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="291" t="s">
+      <c r="D40" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="290"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="139" t="s">
         <v>415</v>
       </c>
@@ -54209,10 +54233,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="190"/>
-      <c r="D41" s="291" t="s">
+      <c r="D41" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="290"/>
+      <c r="E41" s="292"/>
       <c r="F41" s="139" t="s">
         <v>192</v>
       </c>
@@ -54275,10 +54299,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="191"/>
-      <c r="D43" s="291" t="s">
+      <c r="D43" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="290"/>
+      <c r="E43" s="292"/>
       <c r="F43" s="139" t="s">
         <v>196</v>
       </c>
@@ -54308,10 +54332,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="184"/>
       <c r="C44" s="191"/>
-      <c r="D44" s="296" t="s">
+      <c r="D44" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="297"/>
+      <c r="E44" s="302"/>
       <c r="F44" s="139" t="s">
         <v>163</v>
       </c>
@@ -54341,10 +54365,10 @@
       <c r="A45" s="168"/>
       <c r="B45" s="184"/>
       <c r="C45" s="189"/>
-      <c r="D45" s="291" t="s">
+      <c r="D45" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="290"/>
+      <c r="E45" s="292"/>
       <c r="F45" s="139" t="s">
         <v>173</v>
       </c>
@@ -54407,10 +54431,10 @@
       <c r="A47" s="168"/>
       <c r="B47" s="184"/>
       <c r="C47" s="189"/>
-      <c r="D47" s="291" t="s">
+      <c r="D47" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E47" s="290"/>
+      <c r="E47" s="292"/>
       <c r="F47" s="141" t="s">
         <v>385</v>
       </c>
@@ -54438,10 +54462,10 @@
       <c r="A48" s="168"/>
       <c r="B48" s="184"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="291" t="s">
+      <c r="D48" s="290" t="s">
         <v>388</v>
       </c>
-      <c r="E48" s="290"/>
+      <c r="E48" s="292"/>
       <c r="F48" s="141" t="s">
         <v>389</v>
       </c>
@@ -54469,10 +54493,10 @@
       <c r="A49" s="168"/>
       <c r="B49" s="184"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="291" t="s">
+      <c r="D49" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="E49" s="290"/>
+      <c r="E49" s="292"/>
       <c r="F49" s="141" t="s">
         <v>393</v>
       </c>
@@ -54502,10 +54526,10 @@
       <c r="A50" s="168"/>
       <c r="B50" s="184"/>
       <c r="C50" s="189"/>
-      <c r="D50" s="291" t="s">
+      <c r="D50" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="290"/>
+      <c r="E50" s="292"/>
       <c r="F50" s="141" t="s">
         <v>182</v>
       </c>
@@ -54535,10 +54559,10 @@
       <c r="A51" s="168"/>
       <c r="B51" s="184"/>
       <c r="C51" s="189"/>
-      <c r="D51" s="291" t="s">
+      <c r="D51" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E51" s="290"/>
+      <c r="E51" s="292"/>
       <c r="F51" s="141" t="s">
         <v>397</v>
       </c>
@@ -54566,10 +54590,10 @@
       <c r="A52" s="168"/>
       <c r="B52" s="184"/>
       <c r="C52" s="189"/>
-      <c r="D52" s="291" t="s">
+      <c r="D52" s="290" t="s">
         <v>400</v>
       </c>
-      <c r="E52" s="290"/>
+      <c r="E52" s="292"/>
       <c r="F52" s="141" t="s">
         <v>401</v>
       </c>
@@ -54597,10 +54621,10 @@
       <c r="A53" s="168"/>
       <c r="B53" s="184"/>
       <c r="C53" s="189"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="141" t="s">
         <v>405</v>
       </c>
@@ -54690,10 +54714,10 @@
       <c r="A56" s="168"/>
       <c r="B56" s="192"/>
       <c r="C56" s="190"/>
-      <c r="D56" s="291" t="s">
+      <c r="D56" s="290" t="s">
         <v>337</v>
       </c>
-      <c r="E56" s="290"/>
+      <c r="E56" s="292"/>
       <c r="F56" s="139" t="s">
         <v>419</v>
       </c>
@@ -55097,11 +55121,11 @@
     </row>
     <row r="79" spans="1:15" ht="20" customHeight="1">
       <c r="A79" s="168"/>
-      <c r="B79" s="292" t="s">
+      <c r="B79" s="304" t="s">
         <v>420</v>
       </c>
-      <c r="C79" s="292"/>
-      <c r="D79" s="292"/>
+      <c r="C79" s="304"/>
+      <c r="D79" s="304"/>
       <c r="E79" s="168"/>
       <c r="F79" s="168"/>
       <c r="G79" s="168"/>
@@ -55116,12 +55140,12 @@
     </row>
     <row r="80" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="182"/>
-      <c r="B80" s="293" t="s">
+      <c r="B80" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="294"/>
-      <c r="D80" s="294"/>
-      <c r="E80" s="295"/>
+      <c r="C80" s="299"/>
+      <c r="D80" s="299"/>
+      <c r="E80" s="300"/>
       <c r="F80" s="174" t="s">
         <v>125</v>
       </c>
@@ -55213,10 +55237,10 @@
       <c r="A83" s="168"/>
       <c r="B83" s="184"/>
       <c r="C83" s="189"/>
-      <c r="D83" s="291" t="s">
+      <c r="D83" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E83" s="290"/>
+      <c r="E83" s="292"/>
       <c r="F83" s="139" t="s">
         <v>140</v>
       </c>
@@ -55246,10 +55270,10 @@
       <c r="A84" s="168"/>
       <c r="B84" s="184"/>
       <c r="C84" s="189"/>
-      <c r="D84" s="291" t="s">
+      <c r="D84" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="290"/>
+      <c r="E84" s="292"/>
       <c r="F84" s="139" t="s">
         <v>215</v>
       </c>
@@ -55279,10 +55303,10 @@
       <c r="A85" s="168"/>
       <c r="B85" s="184"/>
       <c r="C85" s="189"/>
-      <c r="D85" s="289" t="s">
+      <c r="D85" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E85" s="290"/>
+      <c r="E85" s="292"/>
       <c r="F85" s="139" t="s">
         <v>218</v>
       </c>
@@ -55376,8 +55400,8 @@
       <c r="A88" s="168"/>
       <c r="B88" s="192"/>
       <c r="C88" s="190"/>
-      <c r="D88" s="291"/>
-      <c r="E88" s="290"/>
+      <c r="D88" s="290"/>
+      <c r="E88" s="292"/>
       <c r="F88" s="139"/>
       <c r="G88" s="140"/>
       <c r="H88" s="140"/>
@@ -55767,6 +55791,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -55779,26 +55823,6 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -55905,15 +55929,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -55926,15 +55950,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -55968,15 +55992,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>527</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -56010,15 +56034,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -56081,19 +56105,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -56122,11 +56146,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -56188,11 +56212,11 @@
       <c r="I16" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="290" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="299"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="292"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -56219,11 +56243,11 @@
       <c r="I17" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="J17" s="291" t="s">
+      <c r="J17" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="K17" s="299"/>
-      <c r="L17" s="290"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="292"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -56312,11 +56336,11 @@
       <c r="I20" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="291" t="s">
+      <c r="J20" s="290" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="299"/>
-      <c r="L20" s="290"/>
+      <c r="K20" s="291"/>
+      <c r="L20" s="292"/>
       <c r="M20" s="168"/>
       <c r="N20" s="168"/>
       <c r="O20" s="168"/>
@@ -56587,11 +56611,11 @@
     </row>
     <row r="33" spans="1:15" s="181" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="144"/>
-      <c r="B33" s="298" t="s">
+      <c r="B33" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="298"/>
-      <c r="D33" s="298"/>
+      <c r="C33" s="289"/>
+      <c r="D33" s="289"/>
       <c r="E33" s="179"/>
       <c r="F33" s="180"/>
       <c r="G33" s="179"/>
@@ -56606,12 +56630,12 @@
     </row>
     <row r="34" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="182"/>
-      <c r="B34" s="293" t="s">
+      <c r="B34" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="294"/>
-      <c r="D34" s="294"/>
-      <c r="E34" s="295"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="299"/>
+      <c r="E34" s="300"/>
       <c r="F34" s="174" t="s">
         <v>125</v>
       </c>
@@ -56703,10 +56727,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="290"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="139" t="s">
         <v>435</v>
       </c>
@@ -56736,10 +56760,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="190"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="139" t="s">
         <v>192</v>
       </c>
@@ -56802,10 +56826,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="191"/>
-      <c r="D40" s="291" t="s">
+      <c r="D40" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="290"/>
+      <c r="E40" s="292"/>
       <c r="F40" s="139" t="s">
         <v>196</v>
       </c>
@@ -56835,10 +56859,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="191"/>
-      <c r="D41" s="296" t="s">
+      <c r="D41" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="297"/>
+      <c r="E41" s="302"/>
       <c r="F41" s="139" t="s">
         <v>163</v>
       </c>
@@ -56868,10 +56892,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="291" t="s">
+      <c r="D42" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="290"/>
+      <c r="E42" s="292"/>
       <c r="F42" s="139" t="s">
         <v>173</v>
       </c>
@@ -56934,10 +56958,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="184"/>
       <c r="C44" s="189"/>
-      <c r="D44" s="291" t="s">
+      <c r="D44" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E44" s="290"/>
+      <c r="E44" s="292"/>
       <c r="F44" s="141" t="s">
         <v>385</v>
       </c>
@@ -56965,10 +56989,10 @@
       <c r="A45" s="168"/>
       <c r="B45" s="184"/>
       <c r="C45" s="189"/>
-      <c r="D45" s="291" t="s">
+      <c r="D45" s="290" t="s">
         <v>388</v>
       </c>
-      <c r="E45" s="290"/>
+      <c r="E45" s="292"/>
       <c r="F45" s="141" t="s">
         <v>389</v>
       </c>
@@ -56996,10 +57020,10 @@
       <c r="A46" s="168"/>
       <c r="B46" s="184"/>
       <c r="C46" s="189"/>
-      <c r="D46" s="291" t="s">
+      <c r="D46" s="290" t="s">
         <v>392</v>
       </c>
-      <c r="E46" s="290"/>
+      <c r="E46" s="292"/>
       <c r="F46" s="141" t="s">
         <v>393</v>
       </c>
@@ -57029,10 +57053,10 @@
       <c r="A47" s="168"/>
       <c r="B47" s="184"/>
       <c r="C47" s="189"/>
-      <c r="D47" s="291" t="s">
+      <c r="D47" s="290" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="290"/>
+      <c r="E47" s="292"/>
       <c r="F47" s="141" t="s">
         <v>182</v>
       </c>
@@ -57062,10 +57086,10 @@
       <c r="A48" s="168"/>
       <c r="B48" s="184"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="291" t="s">
+      <c r="D48" s="290" t="s">
         <v>396</v>
       </c>
-      <c r="E48" s="290"/>
+      <c r="E48" s="292"/>
       <c r="F48" s="141" t="s">
         <v>397</v>
       </c>
@@ -57093,10 +57117,10 @@
       <c r="A49" s="168"/>
       <c r="B49" s="184"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="291" t="s">
+      <c r="D49" s="290" t="s">
         <v>400</v>
       </c>
-      <c r="E49" s="290"/>
+      <c r="E49" s="292"/>
       <c r="F49" s="141" t="s">
         <v>401</v>
       </c>
@@ -57124,10 +57148,10 @@
       <c r="A50" s="168"/>
       <c r="B50" s="184"/>
       <c r="C50" s="189"/>
-      <c r="D50" s="291" t="s">
+      <c r="D50" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="E50" s="290"/>
+      <c r="E50" s="292"/>
       <c r="F50" s="141" t="s">
         <v>405</v>
       </c>
@@ -57591,11 +57615,11 @@
     </row>
     <row r="75" spans="1:15" ht="20" customHeight="1">
       <c r="A75" s="168"/>
-      <c r="B75" s="292" t="s">
+      <c r="B75" s="304" t="s">
         <v>436</v>
       </c>
-      <c r="C75" s="292"/>
-      <c r="D75" s="292"/>
+      <c r="C75" s="304"/>
+      <c r="D75" s="304"/>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
       <c r="G75" s="168"/>
@@ -57610,12 +57634,12 @@
     </row>
     <row r="76" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A76" s="182"/>
-      <c r="B76" s="293" t="s">
+      <c r="B76" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="294"/>
-      <c r="D76" s="294"/>
-      <c r="E76" s="295"/>
+      <c r="C76" s="299"/>
+      <c r="D76" s="299"/>
+      <c r="E76" s="300"/>
       <c r="F76" s="174" t="s">
         <v>125</v>
       </c>
@@ -57707,10 +57731,10 @@
       <c r="A79" s="168"/>
       <c r="B79" s="184"/>
       <c r="C79" s="189"/>
-      <c r="D79" s="291" t="s">
+      <c r="D79" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="290"/>
+      <c r="E79" s="292"/>
       <c r="F79" s="139" t="s">
         <v>435</v>
       </c>
@@ -57740,10 +57764,10 @@
       <c r="A80" s="168"/>
       <c r="B80" s="184"/>
       <c r="C80" s="189"/>
-      <c r="D80" s="291" t="s">
+      <c r="D80" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="290"/>
+      <c r="E80" s="292"/>
       <c r="F80" s="139" t="s">
         <v>215</v>
       </c>
@@ -57773,10 +57797,10 @@
       <c r="A81" s="168"/>
       <c r="B81" s="184"/>
       <c r="C81" s="189"/>
-      <c r="D81" s="289" t="s">
+      <c r="D81" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E81" s="290"/>
+      <c r="E81" s="292"/>
       <c r="F81" s="139" t="s">
         <v>218</v>
       </c>
@@ -57870,8 +57894,8 @@
       <c r="A84" s="168"/>
       <c r="B84" s="192"/>
       <c r="C84" s="190"/>
-      <c r="D84" s="291"/>
-      <c r="E84" s="290"/>
+      <c r="D84" s="290"/>
+      <c r="E84" s="292"/>
       <c r="F84" s="139"/>
       <c r="G84" s="140"/>
       <c r="H84" s="140"/>
@@ -58261,12 +58285,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -58279,17 +58308,12 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58393,15 +58417,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -58414,15 +58438,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -58456,15 +58480,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>527</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -58498,15 +58522,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -58569,19 +58593,19 @@
     </row>
     <row r="13" spans="1:15" ht="22" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -58610,11 +58634,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -58676,11 +58700,11 @@
       <c r="I16" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="J16" s="291" t="s">
+      <c r="J16" s="290" t="s">
         <v>448</v>
       </c>
-      <c r="K16" s="299"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="292"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -58709,11 +58733,11 @@
       <c r="I17" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="J17" s="291" t="s">
+      <c r="J17" s="290" t="s">
         <v>382</v>
       </c>
-      <c r="K17" s="299"/>
-      <c r="L17" s="290"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="292"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -58891,11 +58915,11 @@
     </row>
     <row r="27" spans="1:15" s="181" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="144"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
       <c r="E27" s="179"/>
       <c r="F27" s="180"/>
       <c r="G27" s="179"/>
@@ -58910,12 +58934,12 @@
     </row>
     <row r="28" spans="1:15" s="183" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="182"/>
-      <c r="B28" s="293" t="s">
+      <c r="B28" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
-      <c r="E28" s="295"/>
+      <c r="C28" s="299"/>
+      <c r="D28" s="299"/>
+      <c r="E28" s="300"/>
       <c r="F28" s="174" t="s">
         <v>125</v>
       </c>
@@ -59007,10 +59031,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="189"/>
-      <c r="D31" s="291" t="s">
+      <c r="D31" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="290"/>
+      <c r="E31" s="292"/>
       <c r="F31" s="139" t="s">
         <v>435</v>
       </c>
@@ -59073,10 +59097,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="196"/>
       <c r="C33" s="190"/>
-      <c r="D33" s="291" t="s">
+      <c r="D33" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="290"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="139" t="s">
         <v>192</v>
       </c>
@@ -59361,11 +59385,11 @@
     </row>
     <row r="49" spans="1:15" ht="22" customHeight="1">
       <c r="A49" s="168"/>
-      <c r="B49" s="292" t="s">
+      <c r="B49" s="304" t="s">
         <v>420</v>
       </c>
-      <c r="C49" s="292"/>
-      <c r="D49" s="292"/>
+      <c r="C49" s="304"/>
+      <c r="D49" s="304"/>
       <c r="E49" s="168"/>
       <c r="F49" s="168"/>
       <c r="G49" s="168"/>
@@ -59380,12 +59404,12 @@
     </row>
     <row r="50" spans="1:15" s="183" customFormat="1" ht="22" customHeight="1">
       <c r="A50" s="182"/>
-      <c r="B50" s="293" t="s">
+      <c r="B50" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="294"/>
-      <c r="D50" s="294"/>
-      <c r="E50" s="295"/>
+      <c r="C50" s="299"/>
+      <c r="D50" s="299"/>
+      <c r="E50" s="300"/>
       <c r="F50" s="174" t="s">
         <v>125</v>
       </c>
@@ -59477,10 +59501,10 @@
       <c r="A53" s="168"/>
       <c r="B53" s="184"/>
       <c r="C53" s="189"/>
-      <c r="D53" s="291" t="s">
+      <c r="D53" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="290"/>
+      <c r="E53" s="292"/>
       <c r="F53" s="139" t="s">
         <v>435</v>
       </c>
@@ -59510,10 +59534,10 @@
       <c r="A54" s="168"/>
       <c r="B54" s="184"/>
       <c r="C54" s="189"/>
-      <c r="D54" s="291" t="s">
+      <c r="D54" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="290"/>
+      <c r="E54" s="292"/>
       <c r="F54" s="139" t="s">
         <v>215</v>
       </c>
@@ -59543,10 +59567,10 @@
       <c r="A55" s="168"/>
       <c r="B55" s="184"/>
       <c r="C55" s="189"/>
-      <c r="D55" s="289" t="s">
+      <c r="D55" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="290"/>
+      <c r="E55" s="292"/>
       <c r="F55" s="139" t="s">
         <v>218</v>
       </c>
@@ -59983,6 +60007,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -59995,11 +60024,6 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60100,15 +60124,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="290" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="290"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -60121,15 +60145,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="290" t="s">
         <v>454</v>
       </c>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="290"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="291"/>
+      <c r="H5" s="291"/>
+      <c r="I5" s="292"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -60163,15 +60187,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="290" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="290"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="292"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -60205,15 +60229,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="291" t="s">
+      <c r="C9" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="290"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="292"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -60276,19 +60300,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="293" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
-      <c r="I13" s="301"/>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301"/>
-      <c r="L13" s="302"/>
+      <c r="C13" s="294"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="295"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -60317,11 +60341,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="303" t="s">
+      <c r="J14" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="303"/>
-      <c r="L14" s="303"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -60383,11 +60407,11 @@
       <c r="I16" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="289" t="s">
+      <c r="J16" s="303" t="s">
         <v>458</v>
       </c>
-      <c r="K16" s="299"/>
-      <c r="L16" s="290"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="292"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -60416,11 +60440,11 @@
       <c r="I17" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="J17" s="306" t="s">
+      <c r="J17" s="305" t="s">
         <v>460</v>
       </c>
-      <c r="K17" s="307"/>
-      <c r="L17" s="308"/>
+      <c r="K17" s="306"/>
+      <c r="L17" s="307"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -60565,11 +60589,11 @@
     </row>
     <row r="26" spans="1:15" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="144"/>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="289" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="298"/>
-      <c r="D26" s="298"/>
+      <c r="C26" s="289"/>
+      <c r="D26" s="289"/>
       <c r="E26" s="179"/>
       <c r="F26" s="180"/>
       <c r="G26" s="179"/>
@@ -60584,12 +60608,12 @@
     </row>
     <row r="27" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="293" t="s">
+      <c r="B27" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="295"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="300"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -60681,10 +60705,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="189"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="290"/>
+      <c r="E30" s="292"/>
       <c r="F30" s="139" t="s">
         <v>435</v>
       </c>
@@ -60714,10 +60738,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="190"/>
-      <c r="D31" s="291" t="s">
+      <c r="D31" s="290" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="290"/>
+      <c r="E31" s="292"/>
       <c r="F31" s="139" t="s">
         <v>192</v>
       </c>
@@ -60780,10 +60804,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="291" t="s">
+      <c r="D33" s="290" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="290"/>
+      <c r="E33" s="292"/>
       <c r="F33" s="139" t="s">
         <v>196</v>
       </c>
@@ -60813,10 +60837,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
-      <c r="D34" s="296" t="s">
+      <c r="D34" s="301" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="297"/>
+      <c r="E34" s="302"/>
       <c r="F34" s="139" t="s">
         <v>163</v>
       </c>
@@ -60846,10 +60870,10 @@
       <c r="A35" s="168"/>
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="291" t="s">
+      <c r="D35" s="290" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="290"/>
+      <c r="E35" s="292"/>
       <c r="F35" s="139" t="s">
         <v>173</v>
       </c>
@@ -60912,10 +60936,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="290"/>
+      <c r="E37" s="292"/>
       <c r="F37" s="141" t="s">
         <v>385</v>
       </c>
@@ -60943,10 +60967,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="192"/>
       <c r="C38" s="190"/>
-      <c r="D38" s="291" t="s">
+      <c r="D38" s="290" t="s">
         <v>567</v>
       </c>
-      <c r="E38" s="290"/>
+      <c r="E38" s="292"/>
       <c r="F38" s="139" t="s">
         <v>568</v>
       </c>
@@ -61350,11 +61374,11 @@
     </row>
     <row r="61" spans="1:15" ht="19" customHeight="1">
       <c r="A61" s="168"/>
-      <c r="B61" s="292" t="s">
+      <c r="B61" s="304" t="s">
         <v>436</v>
       </c>
-      <c r="C61" s="292"/>
-      <c r="D61" s="292"/>
+      <c r="C61" s="304"/>
+      <c r="D61" s="304"/>
       <c r="E61" s="168"/>
       <c r="F61" s="168"/>
       <c r="G61" s="168"/>
@@ -61369,12 +61393,12 @@
     </row>
     <row r="62" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A62" s="182"/>
-      <c r="B62" s="293" t="s">
+      <c r="B62" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="294"/>
-      <c r="D62" s="294"/>
-      <c r="E62" s="295"/>
+      <c r="C62" s="299"/>
+      <c r="D62" s="299"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="174" t="s">
         <v>125</v>
       </c>
@@ -61466,10 +61490,10 @@
       <c r="A65" s="168"/>
       <c r="B65" s="184"/>
       <c r="C65" s="189"/>
-      <c r="D65" s="291" t="s">
+      <c r="D65" s="290" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="290"/>
+      <c r="E65" s="292"/>
       <c r="F65" s="139" t="s">
         <v>435</v>
       </c>
@@ -61499,10 +61523,10 @@
       <c r="A66" s="168"/>
       <c r="B66" s="184"/>
       <c r="C66" s="189"/>
-      <c r="D66" s="291" t="s">
+      <c r="D66" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="290"/>
+      <c r="E66" s="292"/>
       <c r="F66" s="139" t="s">
         <v>215</v>
       </c>
@@ -61532,10 +61556,10 @@
       <c r="A67" s="168"/>
       <c r="B67" s="184"/>
       <c r="C67" s="189"/>
-      <c r="D67" s="289" t="s">
+      <c r="D67" s="303" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="305"/>
+      <c r="E67" s="308"/>
       <c r="F67" s="139" t="s">
         <v>218</v>
       </c>
@@ -61629,8 +61653,8 @@
       <c r="A70" s="168"/>
       <c r="B70" s="192"/>
       <c r="C70" s="190"/>
-      <c r="D70" s="291"/>
-      <c r="E70" s="290"/>
+      <c r="D70" s="290"/>
+      <c r="E70" s="292"/>
       <c r="F70" s="139"/>
       <c r="G70" s="140"/>
       <c r="H70" s="140"/>
@@ -62020,12 +62044,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -62038,11 +62061,12 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
+++ b/doc/detail_design/backend/api/TRN-MiniBlog_API-Specification_Tam-V.Anh.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="638">
   <si>
     <t>Description</t>
   </si>
@@ -2335,6 +2335,20 @@
   <si>
     <t>Get list all post of user failed</t>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2508</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2509</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>you don't have permission update post</t>
+  </si>
+  <si>
+    <t>The post can not found</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +2826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="433">
+  <cellStyleXfs count="436">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3094,6 +3108,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3775,44 +3792,48 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3844,16 +3865,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3881,21 +3892,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3908,22 +3904,43 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3971,25 +3988,16 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4003,10 +4011,22 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4018,9 +4038,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4029,16 +4046,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4050,6 +4057,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4064,6 +4077,10 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4071,7 +4088,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="433">
+  <cellStyles count="436">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4429,6 +4446,9 @@
     <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -21959,303 +21979,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="260" t="s">
+      <c r="A1" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="263" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="264"/>
-      <c r="F1" s="264"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="264"/>
-      <c r="I1" s="264"/>
-      <c r="J1" s="264"/>
-      <c r="K1" s="268" t="s">
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="269"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="250" t="s">
+      <c r="L1" s="235"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="251"/>
-      <c r="T1" s="251"/>
-      <c r="U1" s="252"/>
-      <c r="V1" s="271" t="s">
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="239"/>
+      <c r="V1" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="272"/>
-      <c r="AD1" s="273"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="241"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="241"/>
+      <c r="AD1" s="242"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="263" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="245" t="s">
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="246"/>
-      <c r="M2" s="247"/>
-      <c r="N2" s="265" t="s">
+      <c r="L2" s="247"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="258" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="266"/>
-      <c r="P2" s="266"/>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="267"/>
-      <c r="V2" s="242" t="s">
+      <c r="O2" s="259"/>
+      <c r="P2" s="259"/>
+      <c r="Q2" s="259"/>
+      <c r="R2" s="259"/>
+      <c r="S2" s="259"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="243" t="s">
         <v>149</v>
       </c>
-      <c r="W2" s="243"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="242" t="s">
+      <c r="W2" s="244"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="242" t="s">
+      <c r="Z2" s="244"/>
+      <c r="AA2" s="245"/>
+      <c r="AB2" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="244"/>
+      <c r="AC2" s="244"/>
+      <c r="AD2" s="245"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="248" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="245" t="s">
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="246" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="246"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="250" t="s">
+      <c r="L3" s="247"/>
+      <c r="M3" s="248"/>
+      <c r="N3" s="237" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="251"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="251"/>
-      <c r="R3" s="251"/>
-      <c r="S3" s="251"/>
-      <c r="T3" s="251"/>
-      <c r="U3" s="252"/>
-      <c r="V3" s="253" t="s">
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="238"/>
+      <c r="S3" s="238"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="239"/>
+      <c r="V3" s="251" t="s">
         <v>511</v>
       </c>
-      <c r="W3" s="254"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="256">
+      <c r="W3" s="252"/>
+      <c r="X3" s="253"/>
+      <c r="Y3" s="254">
         <v>41997</v>
       </c>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="259">
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="257">
         <v>42003</v>
       </c>
-      <c r="AC3" s="257"/>
-      <c r="AD3" s="258"/>
+      <c r="AC3" s="255"/>
+      <c r="AD3" s="256"/>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1"/>
     <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240" t="s">
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="240"/>
-      <c r="H8" s="240" t="s">
+      <c r="G8" s="273"/>
+      <c r="H8" s="273" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240" t="s">
+      <c r="I8" s="273"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="240"/>
-      <c r="M8" s="240"/>
-      <c r="N8" s="240"/>
-      <c r="O8" s="240"/>
-      <c r="P8" s="240"/>
-      <c r="Q8" s="240"/>
-      <c r="R8" s="240"/>
-      <c r="S8" s="240"/>
-      <c r="T8" s="240"/>
-      <c r="U8" s="240"/>
-      <c r="V8" s="240"/>
-      <c r="W8" s="240"/>
-      <c r="X8" s="240" t="s">
+      <c r="L8" s="273"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="273"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="273"/>
+      <c r="R8" s="273"/>
+      <c r="S8" s="273"/>
+      <c r="T8" s="273"/>
+      <c r="U8" s="273"/>
+      <c r="V8" s="273"/>
+      <c r="W8" s="273"/>
+      <c r="X8" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="240"/>
-      <c r="Z8" s="240"/>
-      <c r="AA8" s="240"/>
-      <c r="AB8" s="240"/>
-      <c r="AC8" s="240"/>
+      <c r="Y8" s="273"/>
+      <c r="Z8" s="273"/>
+      <c r="AA8" s="273"/>
+      <c r="AB8" s="273"/>
+      <c r="AC8" s="273"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="241">
+      <c r="B9" s="261">
         <v>41997</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="232" t="s">
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="264" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="233"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="235"/>
-      <c r="N9" s="235"/>
-      <c r="O9" s="235"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="235"/>
-      <c r="U9" s="235"/>
-      <c r="V9" s="235"/>
-      <c r="W9" s="236"/>
-      <c r="X9" s="237"/>
-      <c r="Y9" s="238"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="239"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="267"/>
+      <c r="L9" s="268"/>
+      <c r="M9" s="268"/>
+      <c r="N9" s="268"/>
+      <c r="O9" s="268"/>
+      <c r="P9" s="268"/>
+      <c r="Q9" s="268"/>
+      <c r="R9" s="268"/>
+      <c r="S9" s="268"/>
+      <c r="T9" s="268"/>
+      <c r="U9" s="268"/>
+      <c r="V9" s="268"/>
+      <c r="W9" s="269"/>
+      <c r="X9" s="270"/>
+      <c r="Y9" s="271"/>
+      <c r="Z9" s="271"/>
+      <c r="AA9" s="271"/>
+      <c r="AB9" s="271"/>
+      <c r="AC9" s="272"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="229"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="233"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
-      <c r="M10" s="235"/>
-      <c r="N10" s="235"/>
-      <c r="O10" s="235"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="235"/>
-      <c r="U10" s="235"/>
-      <c r="V10" s="235"/>
-      <c r="W10" s="236"/>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="238"/>
-      <c r="Z10" s="238"/>
-      <c r="AA10" s="238"/>
-      <c r="AB10" s="238"/>
-      <c r="AC10" s="239"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="265"/>
+      <c r="H10" s="266"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="263"/>
+      <c r="K10" s="267"/>
+      <c r="L10" s="268"/>
+      <c r="M10" s="268"/>
+      <c r="N10" s="268"/>
+      <c r="O10" s="268"/>
+      <c r="P10" s="268"/>
+      <c r="Q10" s="268"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="268"/>
+      <c r="T10" s="268"/>
+      <c r="U10" s="268"/>
+      <c r="V10" s="268"/>
+      <c r="W10" s="269"/>
+      <c r="X10" s="270"/>
+      <c r="Y10" s="271"/>
+      <c r="Z10" s="271"/>
+      <c r="AA10" s="271"/>
+      <c r="AB10" s="271"/>
+      <c r="AC10" s="272"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="229"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="231"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
-      <c r="M11" s="235"/>
-      <c r="N11" s="235"/>
-      <c r="O11" s="235"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="235"/>
-      <c r="R11" s="235"/>
-      <c r="S11" s="235"/>
-      <c r="T11" s="235"/>
-      <c r="U11" s="235"/>
-      <c r="V11" s="235"/>
-      <c r="W11" s="236"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="238"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="238"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="239"/>
+      <c r="B11" s="266"/>
+      <c r="C11" s="262"/>
+      <c r="D11" s="262"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="265"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="263"/>
+      <c r="K11" s="267"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="268"/>
+      <c r="S11" s="268"/>
+      <c r="T11" s="268"/>
+      <c r="U11" s="268"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="269"/>
+      <c r="X11" s="270"/>
+      <c r="Y11" s="271"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="271"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="272"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="229"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="231"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="233"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="231"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="235"/>
-      <c r="R12" s="235"/>
-      <c r="S12" s="235"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="235"/>
-      <c r="V12" s="235"/>
-      <c r="W12" s="236"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="238"/>
-      <c r="Z12" s="238"/>
-      <c r="AA12" s="238"/>
-      <c r="AB12" s="238"/>
-      <c r="AC12" s="239"/>
+      <c r="B12" s="266"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="262"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="265"/>
+      <c r="H12" s="266"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="267"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="268"/>
+      <c r="U12" s="268"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="270"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="272"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -22285,11 +22305,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -22304,31 +22344,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22428,15 +22448,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>598</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -22449,15 +22469,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>599</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -22491,15 +22511,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>601</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -22533,15 +22553,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -22604,19 +22624,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -22645,11 +22665,11 @@
       <c r="I14" s="228" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -22678,11 +22698,11 @@
       <c r="I15" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="J15" s="305" t="s">
+      <c r="J15" s="306" t="s">
         <v>460</v>
       </c>
-      <c r="K15" s="306"/>
-      <c r="L15" s="307"/>
+      <c r="K15" s="307"/>
+      <c r="L15" s="308"/>
       <c r="M15" s="168"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
@@ -22827,11 +22847,11 @@
     </row>
     <row r="24" spans="1:15" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A24" s="144"/>
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="289"/>
-      <c r="D24" s="289"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
       <c r="E24" s="179"/>
       <c r="F24" s="180"/>
       <c r="G24" s="179"/>
@@ -22846,12 +22866,12 @@
     </row>
     <row r="25" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="182"/>
-      <c r="B25" s="298" t="s">
+      <c r="B25" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="300"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="295"/>
       <c r="F25" s="228" t="s">
         <v>125</v>
       </c>
@@ -22943,10 +22963,10 @@
       <c r="A28" s="168"/>
       <c r="B28" s="184"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="290" t="s">
+      <c r="D28" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="292"/>
+      <c r="E28" s="290"/>
       <c r="F28" s="139" t="s">
         <v>435</v>
       </c>
@@ -22976,10 +22996,10 @@
       <c r="A29" s="168"/>
       <c r="B29" s="184"/>
       <c r="C29" s="190"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="292"/>
+      <c r="E29" s="290"/>
       <c r="F29" s="139" t="s">
         <v>192</v>
       </c>
@@ -23416,11 +23436,11 @@
     </row>
     <row r="53" spans="1:15" ht="19" customHeight="1">
       <c r="A53" s="168"/>
-      <c r="B53" s="304" t="s">
+      <c r="B53" s="292" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="304"/>
-      <c r="D53" s="304"/>
+      <c r="C53" s="292"/>
+      <c r="D53" s="292"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
       <c r="G53" s="168"/>
@@ -23435,12 +23455,12 @@
     </row>
     <row r="54" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A54" s="182"/>
-      <c r="B54" s="298" t="s">
+      <c r="B54" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="300"/>
+      <c r="C54" s="294"/>
+      <c r="D54" s="294"/>
+      <c r="E54" s="295"/>
       <c r="F54" s="228" t="s">
         <v>125</v>
       </c>
@@ -23532,10 +23552,10 @@
       <c r="A57" s="168"/>
       <c r="B57" s="184"/>
       <c r="C57" s="189"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="292"/>
+      <c r="E57" s="290"/>
       <c r="F57" s="139" t="s">
         <v>435</v>
       </c>
@@ -23565,10 +23585,10 @@
       <c r="A58" s="168"/>
       <c r="B58" s="184"/>
       <c r="C58" s="189"/>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="308"/>
+      <c r="E58" s="305"/>
       <c r="F58" s="139" t="s">
         <v>604</v>
       </c>
@@ -23629,8 +23649,8 @@
       <c r="A60" s="168"/>
       <c r="B60" s="192"/>
       <c r="C60" s="190"/>
-      <c r="D60" s="290"/>
-      <c r="E60" s="292"/>
+      <c r="D60" s="291"/>
+      <c r="E60" s="290"/>
       <c r="F60" s="139"/>
       <c r="G60" s="140"/>
       <c r="H60" s="140"/>
@@ -24020,22 +24040,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24140,16 +24160,16 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="290"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
       <c r="M4" s="168"/>
@@ -24162,16 +24182,16 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="290"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
       <c r="M5" s="168"/>
@@ -24206,16 +24226,16 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="290"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
       <c r="M7" s="168"/>
@@ -24250,16 +24270,16 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="299"/>
+      <c r="J9" s="290"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
       <c r="M9" s="168"/>
@@ -24325,20 +24345,20 @@
     </row>
     <row r="13" spans="1:16" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="294"/>
-      <c r="M13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="301"/>
+      <c r="M13" s="302"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
       <c r="P13" s="168"/>
@@ -24368,11 +24388,11 @@
       <c r="J14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="296" t="s">
+      <c r="K14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="296"/>
-      <c r="M14" s="296"/>
+      <c r="L14" s="303"/>
+      <c r="M14" s="303"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
       <c r="P14" s="168"/>
@@ -24402,11 +24422,11 @@
       <c r="J15" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="K15" s="305" t="s">
+      <c r="K15" s="306" t="s">
         <v>460</v>
       </c>
-      <c r="L15" s="306"/>
-      <c r="M15" s="307"/>
+      <c r="L15" s="307"/>
+      <c r="M15" s="308"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
       <c r="P15" s="168"/>
@@ -24559,11 +24579,11 @@
     </row>
     <row r="24" spans="1:16" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A24" s="144"/>
-      <c r="B24" s="289" t="s">
+      <c r="B24" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="289"/>
-      <c r="D24" s="289"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
       <c r="E24" s="179"/>
       <c r="F24" s="179"/>
       <c r="G24" s="180"/>
@@ -24579,13 +24599,13 @@
     </row>
     <row r="25" spans="1:16" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A25" s="182"/>
-      <c r="B25" s="298" t="s">
+      <c r="B25" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="300"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="295"/>
       <c r="G25" s="174" t="s">
         <v>125</v>
       </c>
@@ -24679,10 +24699,10 @@
       <c r="A28" s="168"/>
       <c r="B28" s="184"/>
       <c r="C28" s="189"/>
-      <c r="D28" s="290" t="s">
+      <c r="D28" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="291"/>
+      <c r="E28" s="299"/>
       <c r="F28" s="165"/>
       <c r="G28" s="139" t="s">
         <v>435</v>
@@ -24747,10 +24767,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="190"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="291"/>
+      <c r="E30" s="299"/>
       <c r="F30" s="165"/>
       <c r="G30" s="139" t="s">
         <v>192</v>
@@ -24884,10 +24904,10 @@
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
       <c r="D34" s="191"/>
-      <c r="E34" s="290" t="s">
+      <c r="E34" s="291" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="292"/>
+      <c r="F34" s="290"/>
       <c r="G34" s="139" t="s">
         <v>163</v>
       </c>
@@ -24918,10 +24938,10 @@
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
       <c r="D35" s="178"/>
-      <c r="E35" s="290" t="s">
+      <c r="E35" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="292"/>
+      <c r="F35" s="290"/>
       <c r="G35" s="139" t="s">
         <v>173</v>
       </c>
@@ -24952,10 +24972,10 @@
       <c r="B36" s="184"/>
       <c r="C36" s="189"/>
       <c r="D36" s="178"/>
-      <c r="E36" s="290" t="s">
+      <c r="E36" s="291" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="292"/>
+      <c r="F36" s="290"/>
       <c r="G36" s="139" t="s">
         <v>174</v>
       </c>
@@ -25971,11 +25991,11 @@
     </row>
     <row r="85" spans="1:16" ht="19" customHeight="1">
       <c r="A85" s="168"/>
-      <c r="B85" s="304" t="s">
+      <c r="B85" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="C85" s="304"/>
-      <c r="D85" s="304"/>
+      <c r="C85" s="292"/>
+      <c r="D85" s="292"/>
       <c r="E85" s="168"/>
       <c r="F85" s="168"/>
       <c r="G85" s="168"/>
@@ -25991,12 +26011,12 @@
     </row>
     <row r="86" spans="1:16" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A86" s="182"/>
-      <c r="B86" s="298" t="s">
+      <c r="B86" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="299"/>
-      <c r="D86" s="299"/>
-      <c r="E86" s="300"/>
+      <c r="C86" s="294"/>
+      <c r="D86" s="294"/>
+      <c r="E86" s="295"/>
       <c r="F86" s="203"/>
       <c r="G86" s="174" t="s">
         <v>125</v>
@@ -26093,10 +26113,10 @@
       <c r="A89" s="168"/>
       <c r="B89" s="184"/>
       <c r="C89" s="189"/>
-      <c r="D89" s="290" t="s">
+      <c r="D89" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E89" s="292"/>
+      <c r="E89" s="290"/>
       <c r="F89" s="165"/>
       <c r="G89" s="139" t="s">
         <v>435</v>
@@ -26127,10 +26147,10 @@
       <c r="A90" s="168"/>
       <c r="B90" s="184"/>
       <c r="C90" s="189"/>
-      <c r="D90" s="290" t="s">
+      <c r="D90" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E90" s="292"/>
+      <c r="E90" s="290"/>
       <c r="F90" s="165"/>
       <c r="G90" s="139" t="s">
         <v>215</v>
@@ -26229,8 +26249,8 @@
       <c r="A93" s="168"/>
       <c r="B93" s="192"/>
       <c r="C93" s="190"/>
-      <c r="D93" s="290"/>
-      <c r="E93" s="292"/>
+      <c r="D93" s="291"/>
+      <c r="E93" s="290"/>
       <c r="F93" s="165"/>
       <c r="G93" s="139"/>
       <c r="H93" s="140"/>
@@ -26643,6 +26663,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="B13:M13"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
@@ -26656,12 +26682,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26761,15 +26781,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>491</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -26782,15 +26802,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>492</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -26824,15 +26844,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -26866,15 +26886,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -26937,19 +26957,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -26978,11 +26998,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -27229,12 +27249,12 @@
     </row>
     <row r="27" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="300"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -27326,10 +27346,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="189"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="292"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="139" t="s">
         <v>435</v>
       </c>
@@ -27359,10 +27379,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="190"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="292"/>
+      <c r="E31" s="290"/>
       <c r="F31" s="139" t="s">
         <v>192</v>
       </c>
@@ -27425,10 +27445,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="139" t="s">
         <v>196</v>
       </c>
@@ -27458,10 +27478,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
-      <c r="D34" s="301" t="s">
+      <c r="D34" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="302"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="139" t="s">
         <v>163</v>
       </c>
@@ -27491,10 +27511,10 @@
       <c r="A35" s="168"/>
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="292"/>
+      <c r="E35" s="290"/>
       <c r="F35" s="139" t="s">
         <v>173</v>
       </c>
@@ -27557,10 +27577,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="290"/>
       <c r="F37" s="141" t="s">
         <v>385</v>
       </c>
@@ -27588,10 +27608,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="189"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="E38" s="292"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="141" t="s">
         <v>389</v>
       </c>
@@ -27619,10 +27639,10 @@
       <c r="A39" s="168"/>
       <c r="B39" s="184"/>
       <c r="C39" s="189"/>
-      <c r="D39" s="290" t="s">
+      <c r="D39" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="E39" s="292"/>
+      <c r="E39" s="290"/>
       <c r="F39" s="141" t="s">
         <v>393</v>
       </c>
@@ -27652,10 +27672,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="292"/>
+      <c r="E40" s="290"/>
       <c r="F40" s="141" t="s">
         <v>182</v>
       </c>
@@ -27685,10 +27705,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="189"/>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="291" t="s">
         <v>396</v>
       </c>
-      <c r="E41" s="292"/>
+      <c r="E41" s="290"/>
       <c r="F41" s="141" t="s">
         <v>397</v>
       </c>
@@ -27716,10 +27736,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="292"/>
+      <c r="E42" s="290"/>
       <c r="F42" s="141" t="s">
         <v>401</v>
       </c>
@@ -27747,10 +27767,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="189"/>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="E43" s="292"/>
+      <c r="E43" s="290"/>
       <c r="F43" s="141" t="s">
         <v>405</v>
       </c>
@@ -28556,12 +28576,12 @@
     </row>
     <row r="88" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A88" s="182"/>
-      <c r="B88" s="298" t="s">
+      <c r="B88" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="299"/>
-      <c r="D88" s="299"/>
-      <c r="E88" s="300"/>
+      <c r="C88" s="294"/>
+      <c r="D88" s="294"/>
+      <c r="E88" s="295"/>
       <c r="F88" s="174" t="s">
         <v>125</v>
       </c>
@@ -28655,10 +28675,10 @@
       <c r="A91" s="168"/>
       <c r="B91" s="184"/>
       <c r="C91" s="189"/>
-      <c r="D91" s="290" t="s">
+      <c r="D91" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E91" s="292"/>
+      <c r="E91" s="290"/>
       <c r="F91" s="139" t="s">
         <v>435</v>
       </c>
@@ -28688,10 +28708,10 @@
       <c r="A92" s="168"/>
       <c r="B92" s="184"/>
       <c r="C92" s="189"/>
-      <c r="D92" s="290" t="s">
+      <c r="D92" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E92" s="292"/>
+      <c r="E92" s="290"/>
       <c r="F92" s="139" t="s">
         <v>215</v>
       </c>
@@ -28721,10 +28741,10 @@
       <c r="A93" s="168"/>
       <c r="B93" s="184"/>
       <c r="C93" s="189"/>
-      <c r="D93" s="303" t="s">
+      <c r="D93" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E93" s="308"/>
+      <c r="E93" s="305"/>
       <c r="F93" s="139" t="s">
         <v>218</v>
       </c>
@@ -28820,8 +28840,8 @@
       <c r="A96" s="168"/>
       <c r="B96" s="192"/>
       <c r="C96" s="190"/>
-      <c r="D96" s="290"/>
-      <c r="E96" s="292"/>
+      <c r="D96" s="291"/>
+      <c r="E96" s="290"/>
       <c r="F96" s="139"/>
       <c r="G96" s="140"/>
       <c r="H96" s="140"/>
@@ -29211,16 +29231,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -29233,12 +29249,16 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29339,15 +29359,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>504</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -29360,15 +29380,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -29402,15 +29422,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>464</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -29444,15 +29464,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -29515,19 +29535,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -29556,11 +29576,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -29774,12 +29794,12 @@
     </row>
     <row r="26" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="182"/>
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="300"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="295"/>
       <c r="F26" s="174" t="s">
         <v>125</v>
       </c>
@@ -29871,10 +29891,10 @@
       <c r="A29" s="168"/>
       <c r="B29" s="184"/>
       <c r="C29" s="189"/>
-      <c r="D29" s="290" t="s">
+      <c r="D29" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="292"/>
+      <c r="E29" s="290"/>
       <c r="F29" s="139" t="s">
         <v>435</v>
       </c>
@@ -29904,10 +29924,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="190"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="292"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="139" t="s">
         <v>192</v>
       </c>
@@ -29970,10 +29990,10 @@
       <c r="A32" s="168"/>
       <c r="B32" s="184"/>
       <c r="C32" s="191"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="292"/>
+      <c r="E32" s="290"/>
       <c r="F32" s="139" t="s">
         <v>196</v>
       </c>
@@ -30003,10 +30023,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="301" t="s">
+      <c r="D33" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="302"/>
+      <c r="E33" s="297"/>
       <c r="F33" s="139" t="s">
         <v>163</v>
       </c>
@@ -30036,10 +30056,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="189"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="292"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139" t="s">
         <v>173</v>
       </c>
@@ -30102,10 +30122,10 @@
       <c r="A36" s="168"/>
       <c r="B36" s="184"/>
       <c r="C36" s="189"/>
-      <c r="D36" s="290" t="s">
+      <c r="D36" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E36" s="292"/>
+      <c r="E36" s="290"/>
       <c r="F36" s="141" t="s">
         <v>385</v>
       </c>
@@ -30133,10 +30153,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="290"/>
       <c r="F37" s="141" t="s">
         <v>389</v>
       </c>
@@ -30164,10 +30184,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="189"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="292"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="141" t="s">
         <v>393</v>
       </c>
@@ -30197,10 +30217,10 @@
       <c r="A39" s="168"/>
       <c r="B39" s="184"/>
       <c r="C39" s="189"/>
-      <c r="D39" s="290" t="s">
+      <c r="D39" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="292"/>
+      <c r="E39" s="290"/>
       <c r="F39" s="141" t="s">
         <v>182</v>
       </c>
@@ -30230,10 +30250,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="291" t="s">
         <v>396</v>
       </c>
-      <c r="E40" s="292"/>
+      <c r="E40" s="290"/>
       <c r="F40" s="141" t="s">
         <v>397</v>
       </c>
@@ -30261,10 +30281,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="189"/>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="E41" s="292"/>
+      <c r="E41" s="290"/>
       <c r="F41" s="141" t="s">
         <v>401</v>
       </c>
@@ -30292,10 +30312,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="E42" s="292"/>
+      <c r="E42" s="290"/>
       <c r="F42" s="141" t="s">
         <v>405</v>
       </c>
@@ -30323,10 +30343,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="189"/>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="291" t="s">
         <v>408</v>
       </c>
-      <c r="E43" s="292"/>
+      <c r="E43" s="290"/>
       <c r="F43" s="141" t="s">
         <v>584</v>
       </c>
@@ -30356,10 +30376,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="196"/>
       <c r="C44" s="190"/>
-      <c r="D44" s="290" t="s">
+      <c r="D44" s="291" t="s">
         <v>410</v>
       </c>
-      <c r="E44" s="292"/>
+      <c r="E44" s="290"/>
       <c r="F44" s="141" t="s">
         <v>583</v>
       </c>
@@ -30884,12 +30904,12 @@
     </row>
     <row r="74" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A74" s="182"/>
-      <c r="B74" s="298" t="s">
+      <c r="B74" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C74" s="299"/>
-      <c r="D74" s="299"/>
-      <c r="E74" s="300"/>
+      <c r="C74" s="294"/>
+      <c r="D74" s="294"/>
+      <c r="E74" s="295"/>
       <c r="F74" s="174" t="s">
         <v>125</v>
       </c>
@@ -30981,10 +31001,10 @@
       <c r="A77" s="168"/>
       <c r="B77" s="184"/>
       <c r="C77" s="189"/>
-      <c r="D77" s="290" t="s">
+      <c r="D77" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E77" s="292"/>
+      <c r="E77" s="290"/>
       <c r="F77" s="139" t="s">
         <v>435</v>
       </c>
@@ -31014,10 +31034,10 @@
       <c r="A78" s="168"/>
       <c r="B78" s="184"/>
       <c r="C78" s="189"/>
-      <c r="D78" s="290" t="s">
+      <c r="D78" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="292"/>
+      <c r="E78" s="290"/>
       <c r="F78" s="139" t="s">
         <v>215</v>
       </c>
@@ -31047,10 +31067,10 @@
       <c r="A79" s="168"/>
       <c r="B79" s="184"/>
       <c r="C79" s="189"/>
-      <c r="D79" s="303" t="s">
+      <c r="D79" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E79" s="308"/>
+      <c r="E79" s="305"/>
       <c r="F79" s="139" t="s">
         <v>218</v>
       </c>
@@ -31144,8 +31164,8 @@
       <c r="A82" s="168"/>
       <c r="B82" s="192"/>
       <c r="C82" s="190"/>
-      <c r="D82" s="290"/>
-      <c r="E82" s="292"/>
+      <c r="D82" s="291"/>
+      <c r="E82" s="290"/>
       <c r="F82" s="139"/>
       <c r="G82" s="140"/>
       <c r="H82" s="140"/>
@@ -31535,16 +31555,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
@@ -31557,12 +31573,16 @@
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:E74"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31662,15 +31682,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31683,15 +31703,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31725,15 +31745,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31767,15 +31787,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31838,19 +31858,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31879,11 +31899,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31910,11 +31930,11 @@
       <c r="I15" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -31941,11 +31961,11 @@
       <c r="I16" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -31991,9 +32011,9 @@
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="75"/>
-      <c r="J18" s="312"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="313"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -32008,9 +32028,9 @@
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="312"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="313"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="316"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -32172,11 +32192,11 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="325" t="s">
+      <c r="B29" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="325"/>
-      <c r="D29" s="325"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="323"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="82"/>
@@ -32191,12 +32211,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="316" t="s">
+      <c r="B30" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="317"/>
-      <c r="D30" s="317"/>
-      <c r="E30" s="318"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="154" t="s">
         <v>125</v>
       </c>
@@ -32288,10 +32308,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="312" t="s">
+      <c r="D33" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="313"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -32321,10 +32341,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="312" t="s">
+      <c r="D34" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="74" t="s">
         <v>192</v>
       </c>
@@ -32387,10 +32407,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="87"/>
       <c r="C36" s="97"/>
-      <c r="D36" s="290" t="s">
+      <c r="D36" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="313"/>
+      <c r="E36" s="316"/>
       <c r="F36" s="139" t="s">
         <v>271</v>
       </c>
@@ -32420,10 +32440,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="301" t="s">
+      <c r="D37" s="296" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="314"/>
+      <c r="E37" s="324"/>
       <c r="F37" s="139" t="s">
         <v>274</v>
       </c>
@@ -32453,10 +32473,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="87"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>276</v>
       </c>
-      <c r="E38" s="313"/>
+      <c r="E38" s="316"/>
       <c r="F38" s="139" t="s">
         <v>277</v>
       </c>
@@ -32552,10 +32572,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="93"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="E41" s="313"/>
+      <c r="E41" s="316"/>
       <c r="F41" s="139" t="s">
         <v>284</v>
       </c>
@@ -33163,11 +33183,11 @@
     </row>
     <row r="76" spans="1:15" ht="20" customHeight="1">
       <c r="A76" s="66"/>
-      <c r="B76" s="315" t="s">
+      <c r="B76" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="315"/>
-      <c r="D76" s="315"/>
+      <c r="C76" s="325"/>
+      <c r="D76" s="325"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -33184,12 +33204,12 @@
     </row>
     <row r="77" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A77" s="85"/>
-      <c r="B77" s="316" t="s">
+      <c r="B77" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C77" s="317"/>
-      <c r="D77" s="317"/>
-      <c r="E77" s="318"/>
+      <c r="C77" s="313"/>
+      <c r="D77" s="313"/>
+      <c r="E77" s="314"/>
       <c r="F77" s="154" t="s">
         <v>125</v>
       </c>
@@ -33281,10 +33301,10 @@
       <c r="A80" s="66"/>
       <c r="B80" s="87"/>
       <c r="C80" s="92"/>
-      <c r="D80" s="290" t="s">
+      <c r="D80" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E80" s="313"/>
+      <c r="E80" s="316"/>
       <c r="F80" s="74" t="s">
         <v>140</v>
       </c>
@@ -33314,10 +33334,10 @@
       <c r="A81" s="66"/>
       <c r="B81" s="87"/>
       <c r="C81" s="92"/>
-      <c r="D81" s="290" t="s">
+      <c r="D81" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="292"/>
+      <c r="E81" s="290"/>
       <c r="F81" s="139" t="s">
         <v>215</v>
       </c>
@@ -33347,10 +33367,10 @@
       <c r="A82" s="66"/>
       <c r="B82" s="87"/>
       <c r="C82" s="92"/>
-      <c r="D82" s="303" t="s">
+      <c r="D82" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E82" s="292"/>
+      <c r="E82" s="290"/>
       <c r="F82" s="139" t="s">
         <v>218</v>
       </c>
@@ -33444,8 +33464,8 @@
       <c r="A85" s="66"/>
       <c r="B85" s="93"/>
       <c r="C85" s="94"/>
-      <c r="D85" s="312"/>
-      <c r="E85" s="313"/>
+      <c r="D85" s="317"/>
+      <c r="E85" s="316"/>
       <c r="F85" s="74"/>
       <c r="G85" s="76"/>
       <c r="H85" s="76"/>
@@ -33835,6 +33855,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -33847,18 +33879,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -33963,15 +33983,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33984,15 +34004,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -34026,15 +34046,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -34068,15 +34088,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -34139,19 +34159,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -34180,11 +34200,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -34199,9 +34219,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="312"/>
-      <c r="K15" s="319"/>
-      <c r="L15" s="313"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="315"/>
+      <c r="L15" s="316"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -34363,11 +34383,11 @@
     </row>
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="325" t="s">
+      <c r="B25" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="325"/>
-      <c r="D25" s="325"/>
+      <c r="C25" s="323"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="82"/>
@@ -34382,12 +34402,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="318"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="314"/>
       <c r="F26" s="154" t="s">
         <v>125</v>
       </c>
@@ -34479,10 +34499,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="87"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="312" t="s">
+      <c r="D29" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="313"/>
+      <c r="E29" s="316"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -34512,10 +34532,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>192</v>
       </c>
@@ -34578,10 +34598,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="316"/>
       <c r="F32" s="139" t="s">
         <v>271</v>
       </c>
@@ -34611,10 +34631,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="301" t="s">
+      <c r="D33" s="296" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="314"/>
+      <c r="E33" s="324"/>
       <c r="F33" s="139" t="s">
         <v>274</v>
       </c>
@@ -34644,10 +34664,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="290" t="s">
+      <c r="D34" s="291" t="s">
         <v>292</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="139" t="s">
         <v>293</v>
       </c>
@@ -34743,10 +34763,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="93"/>
       <c r="C37" s="94"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="313"/>
+      <c r="E37" s="316"/>
       <c r="F37" s="139" t="s">
         <v>284</v>
       </c>
@@ -35116,11 +35136,11 @@
     </row>
     <row r="58" spans="1:15" ht="20" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="315" t="s">
+      <c r="B58" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="315"/>
-      <c r="D58" s="315"/>
+      <c r="C58" s="325"/>
+      <c r="D58" s="325"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
       <c r="G58" s="66"/>
@@ -35137,12 +35157,12 @@
     </row>
     <row r="59" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A59" s="85"/>
-      <c r="B59" s="316" t="s">
+      <c r="B59" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="317"/>
-      <c r="D59" s="317"/>
-      <c r="E59" s="318"/>
+      <c r="C59" s="313"/>
+      <c r="D59" s="313"/>
+      <c r="E59" s="314"/>
       <c r="F59" s="154" t="s">
         <v>125</v>
       </c>
@@ -35234,10 +35254,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="87"/>
       <c r="C62" s="92"/>
-      <c r="D62" s="290" t="s">
+      <c r="D62" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="313"/>
+      <c r="E62" s="316"/>
       <c r="F62" s="74" t="s">
         <v>140</v>
       </c>
@@ -35267,10 +35287,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="87"/>
       <c r="C63" s="92"/>
-      <c r="D63" s="290" t="s">
+      <c r="D63" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="292"/>
+      <c r="E63" s="290"/>
       <c r="F63" s="139" t="s">
         <v>215</v>
       </c>
@@ -35300,10 +35320,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="87"/>
       <c r="C64" s="92"/>
-      <c r="D64" s="303" t="s">
+      <c r="D64" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="292"/>
+      <c r="E64" s="290"/>
       <c r="F64" s="139" t="s">
         <v>218</v>
       </c>
@@ -35397,8 +35417,8 @@
       <c r="A67" s="66"/>
       <c r="B67" s="93"/>
       <c r="C67" s="94"/>
-      <c r="D67" s="312"/>
-      <c r="E67" s="313"/>
+      <c r="D67" s="317"/>
+      <c r="E67" s="316"/>
       <c r="F67" s="74"/>
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
@@ -35788,15 +35808,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
@@ -35809,6 +35820,15 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -35909,15 +35929,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35930,15 +35950,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35972,15 +35992,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -36014,15 +36034,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -36085,19 +36105,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36126,11 +36146,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36157,11 +36177,11 @@
       <c r="I15" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -36188,11 +36208,11 @@
       <c r="I16" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>288</v>
       </c>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -36250,9 +36270,9 @@
       <c r="I18" s="159" t="s">
         <v>301</v>
       </c>
-      <c r="J18" s="312"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="313"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -36267,9 +36287,9 @@
       <c r="G19" s="76"/>
       <c r="H19" s="76"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="312"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="313"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="316"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -36431,11 +36451,11 @@
     </row>
     <row r="29" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="325" t="s">
+      <c r="B29" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="325"/>
-      <c r="D29" s="325"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="323"/>
       <c r="E29" s="82"/>
       <c r="F29" s="83"/>
       <c r="G29" s="82"/>
@@ -36450,12 +36470,12 @@
     </row>
     <row r="30" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="85"/>
-      <c r="B30" s="316" t="s">
+      <c r="B30" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="317"/>
-      <c r="D30" s="317"/>
-      <c r="E30" s="318"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="314"/>
       <c r="F30" s="154" t="s">
         <v>125</v>
       </c>
@@ -36547,10 +36567,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="92"/>
-      <c r="D33" s="312" t="s">
+      <c r="D33" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="313"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="74" t="s">
         <v>140</v>
       </c>
@@ -36580,10 +36600,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="312" t="s">
+      <c r="D34" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="74" t="s">
         <v>192</v>
       </c>
@@ -36646,10 +36666,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="87"/>
       <c r="C36" s="97"/>
-      <c r="D36" s="290" t="s">
+      <c r="D36" s="291" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="313"/>
+      <c r="E36" s="316"/>
       <c r="F36" s="139" t="s">
         <v>271</v>
       </c>
@@ -36679,10 +36699,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="301" t="s">
+      <c r="D37" s="296" t="s">
         <v>273</v>
       </c>
-      <c r="E37" s="314"/>
+      <c r="E37" s="324"/>
       <c r="F37" s="139" t="s">
         <v>274</v>
       </c>
@@ -36712,10 +36732,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="87"/>
       <c r="C38" s="92"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>302</v>
       </c>
-      <c r="E38" s="313"/>
+      <c r="E38" s="316"/>
       <c r="F38" s="139" t="s">
         <v>578</v>
       </c>
@@ -36795,8 +36815,8 @@
       <c r="A41" s="66"/>
       <c r="B41" s="93"/>
       <c r="C41" s="94"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="313"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="316"/>
       <c r="F41" s="139"/>
       <c r="G41" s="140"/>
       <c r="H41" s="76"/>
@@ -37305,11 +37325,11 @@
     </row>
     <row r="71" spans="1:15" ht="20" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="315" t="s">
+      <c r="B71" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="315"/>
-      <c r="D71" s="315"/>
+      <c r="C71" s="325"/>
+      <c r="D71" s="325"/>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -37326,12 +37346,12 @@
     </row>
     <row r="72" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A72" s="85"/>
-      <c r="B72" s="316" t="s">
+      <c r="B72" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="317"/>
-      <c r="D72" s="317"/>
-      <c r="E72" s="318"/>
+      <c r="C72" s="313"/>
+      <c r="D72" s="313"/>
+      <c r="E72" s="314"/>
       <c r="F72" s="154" t="s">
         <v>125</v>
       </c>
@@ -37423,10 +37443,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="87"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="290" t="s">
+      <c r="D75" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="313"/>
+      <c r="E75" s="316"/>
       <c r="F75" s="74" t="s">
         <v>140</v>
       </c>
@@ -37456,10 +37476,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="87"/>
       <c r="C76" s="92"/>
-      <c r="D76" s="290" t="s">
+      <c r="D76" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="292"/>
+      <c r="E76" s="290"/>
       <c r="F76" s="139" t="s">
         <v>215</v>
       </c>
@@ -37489,10 +37509,10 @@
       <c r="A77" s="66"/>
       <c r="B77" s="87"/>
       <c r="C77" s="92"/>
-      <c r="D77" s="303" t="s">
+      <c r="D77" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E77" s="292"/>
+      <c r="E77" s="290"/>
       <c r="F77" s="139" t="s">
         <v>218</v>
       </c>
@@ -37586,8 +37606,8 @@
       <c r="A80" s="66"/>
       <c r="B80" s="93"/>
       <c r="C80" s="94"/>
-      <c r="D80" s="312"/>
-      <c r="E80" s="313"/>
+      <c r="D80" s="317"/>
+      <c r="E80" s="316"/>
       <c r="F80" s="74"/>
       <c r="G80" s="76"/>
       <c r="H80" s="76"/>
@@ -37977,6 +37997,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -37989,18 +38021,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -38105,15 +38125,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -38126,15 +38146,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -38168,15 +38188,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -38210,15 +38230,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -38281,19 +38301,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -38322,11 +38342,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -38355,11 +38375,11 @@
       <c r="I15" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -38388,11 +38408,11 @@
       <c r="I16" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -38454,11 +38474,11 @@
       <c r="I18" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="291" t="s">
         <v>326</v>
       </c>
-      <c r="K18" s="319"/>
-      <c r="L18" s="313"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -38487,11 +38507,11 @@
       <c r="I19" s="161">
         <v>1</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="291" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="319"/>
-      <c r="L19" s="313"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="316"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -38520,11 +38540,11 @@
       <c r="I20" s="162" t="s">
         <v>554</v>
       </c>
-      <c r="J20" s="290" t="s">
+      <c r="J20" s="291" t="s">
         <v>555</v>
       </c>
-      <c r="K20" s="319"/>
-      <c r="L20" s="313"/>
+      <c r="K20" s="315"/>
+      <c r="L20" s="316"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -38686,11 +38706,11 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="325" t="s">
+      <c r="B30" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="325"/>
-      <c r="D30" s="325"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="323"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
       <c r="G30" s="82"/>
@@ -38705,12 +38725,12 @@
     </row>
     <row r="31" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="316" t="s">
+      <c r="B31" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="317"/>
-      <c r="D31" s="317"/>
-      <c r="E31" s="318"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="154" t="s">
         <v>125</v>
       </c>
@@ -38802,10 +38822,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="312" t="s">
+      <c r="D34" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -38835,10 +38855,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="87"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="312" t="s">
+      <c r="D35" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="316"/>
       <c r="F35" s="74" t="s">
         <v>192</v>
       </c>
@@ -38901,8 +38921,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="313"/>
+      <c r="D37" s="291"/>
+      <c r="E37" s="316"/>
       <c r="F37" s="139"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -38918,8 +38938,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="292"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
       <c r="H38" s="76"/>
@@ -39156,11 +39176,11 @@
     </row>
     <row r="52" spans="1:15" ht="20" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="315" t="s">
+      <c r="B52" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="315"/>
-      <c r="D52" s="315"/>
+      <c r="C52" s="325"/>
+      <c r="D52" s="325"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -39177,12 +39197,12 @@
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A53" s="85"/>
-      <c r="B53" s="316" t="s">
+      <c r="B53" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="317"/>
-      <c r="D53" s="317"/>
-      <c r="E53" s="318"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="313"/>
+      <c r="E53" s="314"/>
       <c r="F53" s="154" t="s">
         <v>125</v>
       </c>
@@ -39274,10 +39294,10 @@
       <c r="A56" s="66"/>
       <c r="B56" s="87"/>
       <c r="C56" s="92"/>
-      <c r="D56" s="290" t="s">
+      <c r="D56" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="313"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="74" t="s">
         <v>140</v>
       </c>
@@ -39307,10 +39327,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="87"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="292"/>
+      <c r="E57" s="290"/>
       <c r="F57" s="139" t="s">
         <v>215</v>
       </c>
@@ -39340,10 +39360,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="87"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="303" t="s">
+      <c r="D58" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="292"/>
+      <c r="E58" s="290"/>
       <c r="F58" s="139" t="s">
         <v>218</v>
       </c>
@@ -39437,8 +39457,8 @@
       <c r="A61" s="66"/>
       <c r="B61" s="93"/>
       <c r="C61" s="94"/>
-      <c r="D61" s="312"/>
-      <c r="E61" s="313"/>
+      <c r="D61" s="317"/>
+      <c r="E61" s="316"/>
       <c r="F61" s="74"/>
       <c r="G61" s="76"/>
       <c r="H61" s="76"/>
@@ -39828,20 +39848,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D34:E34"/>
@@ -39852,6 +39858,20 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -39956,15 +39976,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39977,15 +39997,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -40019,15 +40039,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -40061,15 +40081,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -40132,19 +40152,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40173,11 +40193,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40206,11 +40226,11 @@
       <c r="I15" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>315</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -40239,11 +40259,11 @@
       <c r="I16" s="158" t="s">
         <v>314</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="324"/>
-      <c r="L16" s="324"/>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -40305,11 +40325,11 @@
       <c r="I18" s="141" t="s">
         <v>325</v>
       </c>
-      <c r="J18" s="290" t="s">
+      <c r="J18" s="291" t="s">
         <v>326</v>
       </c>
-      <c r="K18" s="319"/>
-      <c r="L18" s="313"/>
+      <c r="K18" s="315"/>
+      <c r="L18" s="316"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -40338,11 +40358,11 @@
       <c r="I19" s="161">
         <v>1</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="291" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="319"/>
-      <c r="L19" s="313"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="316"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -40371,11 +40391,11 @@
       <c r="I20" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J20" s="290" t="s">
+      <c r="J20" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="K20" s="319"/>
-      <c r="L20" s="313"/>
+      <c r="K20" s="315"/>
+      <c r="L20" s="316"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
@@ -40537,11 +40557,11 @@
     </row>
     <row r="30" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="325" t="s">
+      <c r="B30" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="325"/>
-      <c r="D30" s="325"/>
+      <c r="C30" s="323"/>
+      <c r="D30" s="323"/>
       <c r="E30" s="82"/>
       <c r="F30" s="83"/>
       <c r="G30" s="82"/>
@@ -40556,12 +40576,12 @@
     </row>
     <row r="31" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A31" s="85"/>
-      <c r="B31" s="316" t="s">
+      <c r="B31" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="317"/>
-      <c r="D31" s="317"/>
-      <c r="E31" s="318"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="314"/>
       <c r="F31" s="154" t="s">
         <v>125</v>
       </c>
@@ -40653,10 +40673,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="87"/>
       <c r="C34" s="92"/>
-      <c r="D34" s="312" t="s">
+      <c r="D34" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="313"/>
+      <c r="E34" s="316"/>
       <c r="F34" s="74" t="s">
         <v>140</v>
       </c>
@@ -40686,10 +40706,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="87"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="312" t="s">
+      <c r="D35" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="316"/>
       <c r="F35" s="74" t="s">
         <v>192</v>
       </c>
@@ -40752,8 +40772,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="87"/>
       <c r="C37" s="97"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="313"/>
+      <c r="D37" s="291"/>
+      <c r="E37" s="316"/>
       <c r="F37" s="139"/>
       <c r="G37" s="76"/>
       <c r="H37" s="76"/>
@@ -40769,8 +40789,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="93"/>
       <c r="C38" s="94"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="292"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="139"/>
       <c r="G38" s="140"/>
       <c r="H38" s="76"/>
@@ -41024,11 +41044,11 @@
     </row>
     <row r="53" spans="1:15" ht="20" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="315" t="s">
+      <c r="B53" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="315"/>
-      <c r="D53" s="315"/>
+      <c r="C53" s="325"/>
+      <c r="D53" s="325"/>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
       <c r="G53" s="66"/>
@@ -41045,12 +41065,12 @@
     </row>
     <row r="54" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A54" s="85"/>
-      <c r="B54" s="316" t="s">
+      <c r="B54" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="317"/>
-      <c r="D54" s="317"/>
-      <c r="E54" s="318"/>
+      <c r="C54" s="313"/>
+      <c r="D54" s="313"/>
+      <c r="E54" s="314"/>
       <c r="F54" s="154" t="s">
         <v>125</v>
       </c>
@@ -41142,10 +41162,10 @@
       <c r="A57" s="66"/>
       <c r="B57" s="87"/>
       <c r="C57" s="92"/>
-      <c r="D57" s="290" t="s">
+      <c r="D57" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="313"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="74" t="s">
         <v>140</v>
       </c>
@@ -41175,10 +41195,10 @@
       <c r="A58" s="66"/>
       <c r="B58" s="87"/>
       <c r="C58" s="92"/>
-      <c r="D58" s="290" t="s">
+      <c r="D58" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="292"/>
+      <c r="E58" s="290"/>
       <c r="F58" s="139" t="s">
         <v>215</v>
       </c>
@@ -41208,10 +41228,10 @@
       <c r="A59" s="66"/>
       <c r="B59" s="87"/>
       <c r="C59" s="92"/>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="292"/>
+      <c r="E59" s="290"/>
       <c r="F59" s="139" t="s">
         <v>218</v>
       </c>
@@ -41305,8 +41325,8 @@
       <c r="A62" s="66"/>
       <c r="B62" s="93"/>
       <c r="C62" s="94"/>
-      <c r="D62" s="312"/>
-      <c r="E62" s="313"/>
+      <c r="D62" s="317"/>
+      <c r="E62" s="316"/>
       <c r="F62" s="74"/>
       <c r="G62" s="76"/>
       <c r="H62" s="76"/>
@@ -41696,18 +41716,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:E31"/>
@@ -41720,6 +41728,18 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -41824,15 +41844,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41845,15 +41865,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41887,15 +41907,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41929,15 +41949,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -42000,19 +42020,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -42041,11 +42061,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -42074,11 +42094,11 @@
       <c r="I15" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -42093,9 +42113,9 @@
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="162"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="319"/>
-      <c r="L16" s="313"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="316"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -42257,11 +42277,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -42276,12 +42296,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -42373,10 +42393,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -42406,10 +42426,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="312" t="s">
+      <c r="D31" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="316"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -42472,8 +42492,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -42489,8 +42509,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="292"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -42744,11 +42764,11 @@
     </row>
     <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="66"/>
-      <c r="B49" s="315" t="s">
+      <c r="B49" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="315"/>
-      <c r="D49" s="315"/>
+      <c r="C49" s="325"/>
+      <c r="D49" s="325"/>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
       <c r="G49" s="66"/>
@@ -42765,12 +42785,12 @@
     </row>
     <row r="50" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A50" s="85"/>
-      <c r="B50" s="316" t="s">
+      <c r="B50" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="317"/>
-      <c r="D50" s="317"/>
-      <c r="E50" s="318"/>
+      <c r="C50" s="313"/>
+      <c r="D50" s="313"/>
+      <c r="E50" s="314"/>
       <c r="F50" s="154" t="s">
         <v>125</v>
       </c>
@@ -42862,10 +42882,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="313"/>
+      <c r="E53" s="316"/>
       <c r="F53" s="74" t="s">
         <v>140</v>
       </c>
@@ -42895,10 +42915,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="290" t="s">
+      <c r="D54" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>215</v>
       </c>
@@ -42928,10 +42948,10 @@
       <c r="A55" s="66"/>
       <c r="B55" s="87"/>
       <c r="C55" s="92"/>
-      <c r="D55" s="303" t="s">
+      <c r="D55" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="292"/>
+      <c r="E55" s="290"/>
       <c r="F55" s="139" t="s">
         <v>218</v>
       </c>
@@ -43025,8 +43045,8 @@
       <c r="A58" s="66"/>
       <c r="B58" s="93"/>
       <c r="C58" s="94"/>
-      <c r="D58" s="312"/>
-      <c r="E58" s="313"/>
+      <c r="D58" s="317"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="74"/>
       <c r="G58" s="76"/>
       <c r="H58" s="76"/>
@@ -43416,14 +43436,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
@@ -43436,6 +43448,14 @@
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -44137,15 +44157,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -44158,15 +44178,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -44200,15 +44220,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -44242,15 +44262,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -44313,19 +44333,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -44354,11 +44374,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -44373,9 +44393,9 @@
       <c r="G15" s="76"/>
       <c r="H15" s="76"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="312"/>
-      <c r="K15" s="319"/>
-      <c r="L15" s="313"/>
+      <c r="J15" s="317"/>
+      <c r="K15" s="315"/>
+      <c r="L15" s="316"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -44537,11 +44557,11 @@
     </row>
     <row r="25" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="325" t="s">
+      <c r="B25" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="325"/>
-      <c r="D25" s="325"/>
+      <c r="C25" s="323"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="82"/>
@@ -44556,12 +44576,12 @@
     </row>
     <row r="26" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="85"/>
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="318"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="314"/>
       <c r="F26" s="154" t="s">
         <v>125</v>
       </c>
@@ -44653,10 +44673,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="87"/>
       <c r="C29" s="92"/>
-      <c r="D29" s="312" t="s">
+      <c r="D29" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="313"/>
+      <c r="E29" s="316"/>
       <c r="F29" s="74" t="s">
         <v>140</v>
       </c>
@@ -44686,10 +44706,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>192</v>
       </c>
@@ -44752,10 +44772,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="87"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="290" t="s">
+      <c r="D32" s="291" t="s">
         <v>347</v>
       </c>
-      <c r="E32" s="313"/>
+      <c r="E32" s="316"/>
       <c r="F32" s="139" t="s">
         <v>271</v>
       </c>
@@ -44785,10 +44805,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="301" t="s">
+      <c r="D33" s="296" t="s">
         <v>349</v>
       </c>
-      <c r="E33" s="314"/>
+      <c r="E33" s="324"/>
       <c r="F33" s="139" t="s">
         <v>350</v>
       </c>
@@ -44851,10 +44871,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="93"/>
       <c r="C35" s="94"/>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="291" t="s">
         <v>283</v>
       </c>
-      <c r="E35" s="313"/>
+      <c r="E35" s="316"/>
       <c r="F35" s="139" t="s">
         <v>284</v>
       </c>
@@ -45462,11 +45482,11 @@
     </row>
     <row r="70" spans="1:15" ht="20" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="315" t="s">
+      <c r="B70" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="315"/>
-      <c r="D70" s="315"/>
+      <c r="C70" s="325"/>
+      <c r="D70" s="325"/>
       <c r="E70" s="66"/>
       <c r="F70" s="66"/>
       <c r="G70" s="66"/>
@@ -45483,12 +45503,12 @@
     </row>
     <row r="71" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A71" s="85"/>
-      <c r="B71" s="316" t="s">
+      <c r="B71" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="317"/>
-      <c r="D71" s="317"/>
-      <c r="E71" s="318"/>
+      <c r="C71" s="313"/>
+      <c r="D71" s="313"/>
+      <c r="E71" s="314"/>
       <c r="F71" s="154" t="s">
         <v>125</v>
       </c>
@@ -45580,10 +45600,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="87"/>
       <c r="C74" s="92"/>
-      <c r="D74" s="290" t="s">
+      <c r="D74" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="313"/>
+      <c r="E74" s="316"/>
       <c r="F74" s="74" t="s">
         <v>140</v>
       </c>
@@ -45613,10 +45633,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="87"/>
       <c r="C75" s="92"/>
-      <c r="D75" s="290" t="s">
+      <c r="D75" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="292"/>
+      <c r="E75" s="290"/>
       <c r="F75" s="139" t="s">
         <v>215</v>
       </c>
@@ -45646,10 +45666,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="87"/>
       <c r="C76" s="92"/>
-      <c r="D76" s="303" t="s">
+      <c r="D76" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E76" s="292"/>
+      <c r="E76" s="290"/>
       <c r="F76" s="139" t="s">
         <v>218</v>
       </c>
@@ -45743,8 +45763,8 @@
       <c r="A79" s="66"/>
       <c r="B79" s="93"/>
       <c r="C79" s="94"/>
-      <c r="D79" s="312"/>
-      <c r="E79" s="313"/>
+      <c r="D79" s="317"/>
+      <c r="E79" s="316"/>
       <c r="F79" s="74"/>
       <c r="G79" s="76"/>
       <c r="H79" s="76"/>
@@ -46134,15 +46154,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
@@ -46154,6 +46165,15 @@
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46254,15 +46274,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -46275,15 +46295,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>354</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -46317,15 +46337,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -46359,15 +46379,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -46430,19 +46450,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -46471,11 +46491,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -46537,11 +46557,11 @@
       <c r="I16" s="162" t="s">
         <v>557</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="291" t="s">
         <v>558</v>
       </c>
-      <c r="K16" s="319"/>
-      <c r="L16" s="313"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="316"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -46703,11 +46723,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -46722,12 +46742,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -46819,10 +46839,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -46852,10 +46872,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="312" t="s">
+      <c r="D31" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="316"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -46918,8 +46938,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -46935,8 +46955,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="292"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -47173,11 +47193,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="315" t="s">
+      <c r="B48" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="315"/>
-      <c r="D48" s="315"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -47194,12 +47214,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="317"/>
-      <c r="D49" s="317"/>
-      <c r="E49" s="318"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="313"/>
+      <c r="E49" s="314"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -47291,10 +47311,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="290" t="s">
+      <c r="D52" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="316"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -47324,10 +47344,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -47357,10 +47377,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="303" t="s">
+      <c r="D54" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -47454,8 +47474,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="312"/>
-      <c r="E57" s="313"/>
+      <c r="D57" s="317"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -47845,12 +47865,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B26:D26"/>
@@ -47864,6 +47878,12 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -47964,15 +47984,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>357</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -47985,15 +48005,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -48027,15 +48047,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -48069,15 +48089,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -48140,19 +48160,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48181,11 +48201,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48247,11 +48267,11 @@
       <c r="I16" s="162" t="s">
         <v>336</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="K16" s="319"/>
-      <c r="L16" s="313"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="316"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -48413,11 +48433,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -48432,12 +48452,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -48529,10 +48549,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -48562,10 +48582,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="312" t="s">
+      <c r="D31" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="316"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -48628,8 +48648,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -48645,8 +48665,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="292"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -48883,11 +48903,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="315" t="s">
+      <c r="B48" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="315"/>
-      <c r="D48" s="315"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -48904,12 +48924,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="317"/>
-      <c r="D49" s="317"/>
-      <c r="E49" s="318"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="313"/>
+      <c r="E49" s="314"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -49001,10 +49021,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="290" t="s">
+      <c r="D52" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="316"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -49034,10 +49054,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -49067,10 +49087,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="303" t="s">
+      <c r="D54" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -49164,8 +49184,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="312"/>
-      <c r="E57" s="313"/>
+      <c r="D57" s="317"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -49555,12 +49575,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B26:D26"/>
@@ -49574,6 +49588,12 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -49677,15 +49697,15 @@
       <c r="B4" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="313"/>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="315"/>
+      <c r="G4" s="315"/>
+      <c r="H4" s="315"/>
+      <c r="I4" s="316"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -49698,15 +49718,15 @@
       <c r="B5" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="313"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
+      <c r="H5" s="315"/>
+      <c r="I5" s="316"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -49740,15 +49760,15 @@
       <c r="B7" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="313"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -49782,15 +49802,15 @@
       <c r="B9" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="317" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
+      <c r="I9" s="316"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -49853,19 +49873,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="320" t="s">
+      <c r="B13" s="318" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="321"/>
-      <c r="D13" s="321"/>
-      <c r="E13" s="321"/>
-      <c r="F13" s="321"/>
-      <c r="G13" s="321"/>
-      <c r="H13" s="321"/>
-      <c r="I13" s="321"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="322"/>
+      <c r="C13" s="319"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="319"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="319"/>
+      <c r="H13" s="319"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="320"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -49894,11 +49914,11 @@
       <c r="I14" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="323" t="s">
+      <c r="J14" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -49927,11 +49947,11 @@
       <c r="I15" s="158" t="s">
         <v>340</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>341</v>
       </c>
-      <c r="K15" s="324"/>
-      <c r="L15" s="324"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -49946,9 +49966,9 @@
       <c r="G16" s="140"/>
       <c r="H16" s="140"/>
       <c r="I16" s="162"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="319"/>
-      <c r="L16" s="313"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="316"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -50110,11 +50130,11 @@
     </row>
     <row r="26" spans="1:15" s="84" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="69"/>
-      <c r="B26" s="325" t="s">
+      <c r="B26" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="325"/>
-      <c r="D26" s="325"/>
+      <c r="C26" s="323"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="82"/>
@@ -50129,12 +50149,12 @@
     </row>
     <row r="27" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="85"/>
-      <c r="B27" s="316" t="s">
+      <c r="B27" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="317"/>
-      <c r="D27" s="317"/>
-      <c r="E27" s="318"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="314"/>
       <c r="F27" s="154" t="s">
         <v>125</v>
       </c>
@@ -50226,10 +50246,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="87"/>
       <c r="C30" s="92"/>
-      <c r="D30" s="312" t="s">
+      <c r="D30" s="317" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="313"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="74" t="s">
         <v>140</v>
       </c>
@@ -50259,10 +50279,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="87"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="312" t="s">
+      <c r="D31" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="313"/>
+      <c r="E31" s="316"/>
       <c r="F31" s="74" t="s">
         <v>192</v>
       </c>
@@ -50325,8 +50345,8 @@
       <c r="A33" s="66"/>
       <c r="B33" s="87"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="313"/>
+      <c r="D33" s="291"/>
+      <c r="E33" s="316"/>
       <c r="F33" s="139"/>
       <c r="G33" s="76"/>
       <c r="H33" s="76"/>
@@ -50342,8 +50362,8 @@
       <c r="A34" s="66"/>
       <c r="B34" s="93"/>
       <c r="C34" s="94"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="292"/>
+      <c r="D34" s="291"/>
+      <c r="E34" s="290"/>
       <c r="F34" s="139"/>
       <c r="G34" s="140"/>
       <c r="H34" s="76"/>
@@ -50580,11 +50600,11 @@
     </row>
     <row r="48" spans="1:15" ht="20" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="315" t="s">
+      <c r="B48" s="325" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="315"/>
-      <c r="D48" s="315"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
       <c r="G48" s="66"/>
@@ -50601,12 +50621,12 @@
     </row>
     <row r="49" spans="1:15" s="86" customFormat="1" ht="20" customHeight="1">
       <c r="A49" s="85"/>
-      <c r="B49" s="316" t="s">
+      <c r="B49" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="317"/>
-      <c r="D49" s="317"/>
-      <c r="E49" s="318"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="313"/>
+      <c r="E49" s="314"/>
       <c r="F49" s="154" t="s">
         <v>125</v>
       </c>
@@ -50698,10 +50718,10 @@
       <c r="A52" s="66"/>
       <c r="B52" s="87"/>
       <c r="C52" s="92"/>
-      <c r="D52" s="290" t="s">
+      <c r="D52" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="313"/>
+      <c r="E52" s="316"/>
       <c r="F52" s="74" t="s">
         <v>140</v>
       </c>
@@ -50731,10 +50751,10 @@
       <c r="A53" s="66"/>
       <c r="B53" s="87"/>
       <c r="C53" s="92"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="139" t="s">
         <v>215</v>
       </c>
@@ -50764,10 +50784,10 @@
       <c r="A54" s="66"/>
       <c r="B54" s="87"/>
       <c r="C54" s="92"/>
-      <c r="D54" s="303" t="s">
+      <c r="D54" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>218</v>
       </c>
@@ -50861,8 +50881,8 @@
       <c r="A57" s="66"/>
       <c r="B57" s="93"/>
       <c r="C57" s="94"/>
-      <c r="D57" s="312"/>
-      <c r="E57" s="313"/>
+      <c r="D57" s="317"/>
+      <c r="E57" s="316"/>
       <c r="F57" s="74"/>
       <c r="G57" s="76"/>
       <c r="H57" s="76"/>
@@ -51252,6 +51272,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -51264,14 +51292,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -51725,10 +51745,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L62"/>
+  <dimension ref="B1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -52439,113 +52459,110 @@
       <c r="E54" s="277"/>
       <c r="F54" s="148"/>
     </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="117" t="s">
+    <row r="55" spans="2:6" ht="15" customHeight="1">
+      <c r="B55" s="146">
+        <v>8</v>
+      </c>
+      <c r="C55" s="147" t="s">
+        <v>634</v>
+      </c>
+      <c r="D55" s="276" t="s">
+        <v>636</v>
+      </c>
+      <c r="E55" s="277"/>
+      <c r="F55" s="148"/>
+    </row>
+    <row r="56" spans="2:6" ht="15" customHeight="1">
+      <c r="B56" s="146">
+        <v>9</v>
+      </c>
+      <c r="C56" s="147" t="s">
+        <v>635</v>
+      </c>
+      <c r="D56" s="276" t="s">
+        <v>637</v>
+      </c>
+      <c r="E56" s="277"/>
+      <c r="F56" s="148"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="117" t="s">
         <v>361</v>
       </c>
-      <c r="C57" s="124"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="116"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="118"/>
-      <c r="C58" s="134" t="s">
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="116"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="118"/>
+      <c r="C60" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="D58" s="275" t="s">
+      <c r="D60" s="275" t="s">
         <v>212</v>
       </c>
-      <c r="E58" s="275"/>
-      <c r="F58" s="134" t="s">
+      <c r="E60" s="275"/>
+      <c r="F60" s="134" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" ht="20" customHeight="1">
-      <c r="B59" s="146">
-        <v>1</v>
-      </c>
-      <c r="C59" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="274" t="s">
-        <v>371</v>
-      </c>
-      <c r="E59" s="274"/>
-      <c r="F59" s="148"/>
-    </row>
-    <row r="60" spans="2:6" ht="20" customHeight="1">
-      <c r="B60" s="146">
-        <v>2</v>
-      </c>
-      <c r="C60" s="147" t="s">
-        <v>103</v>
-      </c>
-      <c r="D60" s="274" t="s">
-        <v>372</v>
-      </c>
-      <c r="E60" s="274"/>
-      <c r="F60" s="148"/>
     </row>
     <row r="61" spans="2:6" ht="20" customHeight="1">
       <c r="B61" s="146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" s="147" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D61" s="274" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E61" s="274"/>
       <c r="F61" s="148"/>
     </row>
     <row r="62" spans="2:6" ht="20" customHeight="1">
       <c r="B62" s="146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" s="147" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D62" s="274" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E62" s="274"/>
       <c r="F62" s="148"/>
     </row>
+    <row r="63" spans="2:6" ht="20" customHeight="1">
+      <c r="B63" s="146">
+        <v>3</v>
+      </c>
+      <c r="C63" s="147" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="274" t="s">
+        <v>373</v>
+      </c>
+      <c r="E63" s="274"/>
+      <c r="F63" s="148"/>
+    </row>
+    <row r="64" spans="2:6" ht="20" customHeight="1">
+      <c r="B64" s="146">
+        <v>4</v>
+      </c>
+      <c r="C64" s="147" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="274" t="s">
+        <v>374</v>
+      </c>
+      <c r="E64" s="274"/>
+      <c r="F64" s="148"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
+  <mergeCells count="48">
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D22:E22"/>
@@ -52559,7 +52576,38 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -53305,15 +53353,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -53326,15 +53374,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -53368,15 +53416,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -53410,15 +53458,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -53481,19 +53529,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -53522,11 +53570,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -53555,11 +53603,11 @@
       <c r="I15" s="158" t="s">
         <v>560</v>
       </c>
-      <c r="J15" s="297" t="s">
+      <c r="J15" s="304" t="s">
         <v>559</v>
       </c>
-      <c r="K15" s="297"/>
-      <c r="L15" s="297"/>
+      <c r="K15" s="304"/>
+      <c r="L15" s="304"/>
       <c r="M15" s="168"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
@@ -53588,11 +53636,11 @@
       <c r="I16" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="297" t="s">
+      <c r="J16" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
+      <c r="K16" s="304"/>
+      <c r="L16" s="304"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -53687,11 +53735,11 @@
       <c r="I19" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="J19" s="290" t="s">
+      <c r="J19" s="291" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="291"/>
-      <c r="L19" s="292"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="290"/>
       <c r="M19" s="168"/>
       <c r="N19" s="168"/>
       <c r="O19" s="168"/>
@@ -53718,11 +53766,11 @@
       <c r="I20" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="J20" s="290" t="s">
+      <c r="J20" s="291" t="s">
         <v>387</v>
       </c>
-      <c r="K20" s="291"/>
-      <c r="L20" s="292"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="290"/>
       <c r="M20" s="168"/>
       <c r="N20" s="168"/>
       <c r="O20" s="168"/>
@@ -53811,11 +53859,11 @@
       <c r="I23" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J23" s="290" t="s">
+      <c r="J23" s="291" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="291"/>
-      <c r="L23" s="292"/>
+      <c r="K23" s="299"/>
+      <c r="L23" s="290"/>
       <c r="M23" s="168"/>
       <c r="N23" s="168"/>
       <c r="O23" s="168"/>
@@ -54084,11 +54132,11 @@
     </row>
     <row r="36" spans="1:15" s="181" customFormat="1" ht="20" customHeight="1">
       <c r="A36" s="144"/>
-      <c r="B36" s="289" t="s">
+      <c r="B36" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="289"/>
-      <c r="D36" s="289"/>
+      <c r="C36" s="298"/>
+      <c r="D36" s="298"/>
       <c r="E36" s="179"/>
       <c r="F36" s="180"/>
       <c r="G36" s="179"/>
@@ -54103,12 +54151,12 @@
     </row>
     <row r="37" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="182"/>
-      <c r="B37" s="298" t="s">
+      <c r="B37" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="300"/>
+      <c r="C37" s="294"/>
+      <c r="D37" s="294"/>
+      <c r="E37" s="295"/>
       <c r="F37" s="174" t="s">
         <v>125</v>
       </c>
@@ -54200,10 +54248,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="189"/>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="292"/>
+      <c r="E40" s="290"/>
       <c r="F40" s="139" t="s">
         <v>415</v>
       </c>
@@ -54233,10 +54281,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="190"/>
-      <c r="D41" s="290" t="s">
+      <c r="D41" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="292"/>
+      <c r="E41" s="290"/>
       <c r="F41" s="139" t="s">
         <v>192</v>
       </c>
@@ -54299,10 +54347,10 @@
       <c r="A43" s="168"/>
       <c r="B43" s="184"/>
       <c r="C43" s="191"/>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="292"/>
+      <c r="E43" s="290"/>
       <c r="F43" s="139" t="s">
         <v>196</v>
       </c>
@@ -54332,10 +54380,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="184"/>
       <c r="C44" s="191"/>
-      <c r="D44" s="301" t="s">
+      <c r="D44" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="302"/>
+      <c r="E44" s="297"/>
       <c r="F44" s="139" t="s">
         <v>163</v>
       </c>
@@ -54365,10 +54413,10 @@
       <c r="A45" s="168"/>
       <c r="B45" s="184"/>
       <c r="C45" s="189"/>
-      <c r="D45" s="290" t="s">
+      <c r="D45" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="292"/>
+      <c r="E45" s="290"/>
       <c r="F45" s="139" t="s">
         <v>173</v>
       </c>
@@ -54431,10 +54479,10 @@
       <c r="A47" s="168"/>
       <c r="B47" s="184"/>
       <c r="C47" s="189"/>
-      <c r="D47" s="290" t="s">
+      <c r="D47" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E47" s="292"/>
+      <c r="E47" s="290"/>
       <c r="F47" s="141" t="s">
         <v>385</v>
       </c>
@@ -54462,10 +54510,10 @@
       <c r="A48" s="168"/>
       <c r="B48" s="184"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="290" t="s">
+      <c r="D48" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="E48" s="292"/>
+      <c r="E48" s="290"/>
       <c r="F48" s="141" t="s">
         <v>389</v>
       </c>
@@ -54493,10 +54541,10 @@
       <c r="A49" s="168"/>
       <c r="B49" s="184"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="290" t="s">
+      <c r="D49" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="E49" s="292"/>
+      <c r="E49" s="290"/>
       <c r="F49" s="141" t="s">
         <v>393</v>
       </c>
@@ -54526,10 +54574,10 @@
       <c r="A50" s="168"/>
       <c r="B50" s="184"/>
       <c r="C50" s="189"/>
-      <c r="D50" s="290" t="s">
+      <c r="D50" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="292"/>
+      <c r="E50" s="290"/>
       <c r="F50" s="141" t="s">
         <v>182</v>
       </c>
@@ -54559,10 +54607,10 @@
       <c r="A51" s="168"/>
       <c r="B51" s="184"/>
       <c r="C51" s="189"/>
-      <c r="D51" s="290" t="s">
+      <c r="D51" s="291" t="s">
         <v>396</v>
       </c>
-      <c r="E51" s="292"/>
+      <c r="E51" s="290"/>
       <c r="F51" s="141" t="s">
         <v>397</v>
       </c>
@@ -54590,10 +54638,10 @@
       <c r="A52" s="168"/>
       <c r="B52" s="184"/>
       <c r="C52" s="189"/>
-      <c r="D52" s="290" t="s">
+      <c r="D52" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="E52" s="292"/>
+      <c r="E52" s="290"/>
       <c r="F52" s="141" t="s">
         <v>401</v>
       </c>
@@ -54621,10 +54669,10 @@
       <c r="A53" s="168"/>
       <c r="B53" s="184"/>
       <c r="C53" s="189"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="141" t="s">
         <v>405</v>
       </c>
@@ -54714,10 +54762,10 @@
       <c r="A56" s="168"/>
       <c r="B56" s="192"/>
       <c r="C56" s="190"/>
-      <c r="D56" s="290" t="s">
+      <c r="D56" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="E56" s="292"/>
+      <c r="E56" s="290"/>
       <c r="F56" s="139" t="s">
         <v>419</v>
       </c>
@@ -55121,11 +55169,11 @@
     </row>
     <row r="79" spans="1:15" ht="20" customHeight="1">
       <c r="A79" s="168"/>
-      <c r="B79" s="304" t="s">
+      <c r="B79" s="292" t="s">
         <v>420</v>
       </c>
-      <c r="C79" s="304"/>
-      <c r="D79" s="304"/>
+      <c r="C79" s="292"/>
+      <c r="D79" s="292"/>
       <c r="E79" s="168"/>
       <c r="F79" s="168"/>
       <c r="G79" s="168"/>
@@ -55140,12 +55188,12 @@
     </row>
     <row r="80" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A80" s="182"/>
-      <c r="B80" s="298" t="s">
+      <c r="B80" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="299"/>
-      <c r="D80" s="299"/>
-      <c r="E80" s="300"/>
+      <c r="C80" s="294"/>
+      <c r="D80" s="294"/>
+      <c r="E80" s="295"/>
       <c r="F80" s="174" t="s">
         <v>125</v>
       </c>
@@ -55237,10 +55285,10 @@
       <c r="A83" s="168"/>
       <c r="B83" s="184"/>
       <c r="C83" s="189"/>
-      <c r="D83" s="290" t="s">
+      <c r="D83" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E83" s="292"/>
+      <c r="E83" s="290"/>
       <c r="F83" s="139" t="s">
         <v>140</v>
       </c>
@@ -55270,10 +55318,10 @@
       <c r="A84" s="168"/>
       <c r="B84" s="184"/>
       <c r="C84" s="189"/>
-      <c r="D84" s="290" t="s">
+      <c r="D84" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="292"/>
+      <c r="E84" s="290"/>
       <c r="F84" s="139" t="s">
         <v>215</v>
       </c>
@@ -55303,10 +55351,10 @@
       <c r="A85" s="168"/>
       <c r="B85" s="184"/>
       <c r="C85" s="189"/>
-      <c r="D85" s="303" t="s">
+      <c r="D85" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E85" s="292"/>
+      <c r="E85" s="290"/>
       <c r="F85" s="139" t="s">
         <v>218</v>
       </c>
@@ -55400,8 +55448,8 @@
       <c r="A88" s="168"/>
       <c r="B88" s="192"/>
       <c r="C88" s="190"/>
-      <c r="D88" s="290"/>
-      <c r="E88" s="292"/>
+      <c r="D88" s="291"/>
+      <c r="E88" s="290"/>
       <c r="F88" s="139"/>
       <c r="G88" s="140"/>
       <c r="H88" s="140"/>
@@ -55791,14 +55839,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J23:L23"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="D40:E40"/>
@@ -55811,18 +55863,14 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -55929,15 +55977,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>426</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -55950,15 +55998,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -55992,15 +56040,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>527</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -56034,15 +56082,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -56105,19 +56153,19 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -56146,11 +56194,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -56212,11 +56260,11 @@
       <c r="I16" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="291" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="292"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -56243,11 +56291,11 @@
       <c r="I17" s="141" t="s">
         <v>386</v>
       </c>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="291" t="s">
         <v>387</v>
       </c>
-      <c r="K17" s="291"/>
-      <c r="L17" s="292"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="290"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -56336,11 +56384,11 @@
       <c r="I20" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="290" t="s">
+      <c r="J20" s="291" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="291"/>
-      <c r="L20" s="292"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="290"/>
       <c r="M20" s="168"/>
       <c r="N20" s="168"/>
       <c r="O20" s="168"/>
@@ -56611,11 +56659,11 @@
     </row>
     <row r="33" spans="1:15" s="181" customFormat="1" ht="20" customHeight="1">
       <c r="A33" s="144"/>
-      <c r="B33" s="289" t="s">
+      <c r="B33" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="289"/>
-      <c r="D33" s="289"/>
+      <c r="C33" s="298"/>
+      <c r="D33" s="298"/>
       <c r="E33" s="179"/>
       <c r="F33" s="180"/>
       <c r="G33" s="179"/>
@@ -56630,12 +56678,12 @@
     </row>
     <row r="34" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A34" s="182"/>
-      <c r="B34" s="298" t="s">
+      <c r="B34" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="300"/>
+      <c r="C34" s="294"/>
+      <c r="D34" s="294"/>
+      <c r="E34" s="295"/>
       <c r="F34" s="174" t="s">
         <v>125</v>
       </c>
@@ -56727,10 +56775,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="290"/>
       <c r="F37" s="139" t="s">
         <v>435</v>
       </c>
@@ -56760,10 +56808,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="184"/>
       <c r="C38" s="190"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="292"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="139" t="s">
         <v>192</v>
       </c>
@@ -56826,10 +56874,10 @@
       <c r="A40" s="168"/>
       <c r="B40" s="184"/>
       <c r="C40" s="191"/>
-      <c r="D40" s="290" t="s">
+      <c r="D40" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E40" s="292"/>
+      <c r="E40" s="290"/>
       <c r="F40" s="139" t="s">
         <v>196</v>
       </c>
@@ -56859,10 +56907,10 @@
       <c r="A41" s="168"/>
       <c r="B41" s="184"/>
       <c r="C41" s="191"/>
-      <c r="D41" s="301" t="s">
+      <c r="D41" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="302"/>
+      <c r="E41" s="297"/>
       <c r="F41" s="139" t="s">
         <v>163</v>
       </c>
@@ -56892,10 +56940,10 @@
       <c r="A42" s="168"/>
       <c r="B42" s="184"/>
       <c r="C42" s="189"/>
-      <c r="D42" s="290" t="s">
+      <c r="D42" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E42" s="292"/>
+      <c r="E42" s="290"/>
       <c r="F42" s="139" t="s">
         <v>173</v>
       </c>
@@ -56958,10 +57006,10 @@
       <c r="A44" s="168"/>
       <c r="B44" s="184"/>
       <c r="C44" s="189"/>
-      <c r="D44" s="290" t="s">
+      <c r="D44" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E44" s="292"/>
+      <c r="E44" s="290"/>
       <c r="F44" s="141" t="s">
         <v>385</v>
       </c>
@@ -56989,10 +57037,10 @@
       <c r="A45" s="168"/>
       <c r="B45" s="184"/>
       <c r="C45" s="189"/>
-      <c r="D45" s="290" t="s">
+      <c r="D45" s="291" t="s">
         <v>388</v>
       </c>
-      <c r="E45" s="292"/>
+      <c r="E45" s="290"/>
       <c r="F45" s="141" t="s">
         <v>389</v>
       </c>
@@ -57020,10 +57068,10 @@
       <c r="A46" s="168"/>
       <c r="B46" s="184"/>
       <c r="C46" s="189"/>
-      <c r="D46" s="290" t="s">
+      <c r="D46" s="291" t="s">
         <v>392</v>
       </c>
-      <c r="E46" s="292"/>
+      <c r="E46" s="290"/>
       <c r="F46" s="141" t="s">
         <v>393</v>
       </c>
@@ -57053,10 +57101,10 @@
       <c r="A47" s="168"/>
       <c r="B47" s="184"/>
       <c r="C47" s="189"/>
-      <c r="D47" s="290" t="s">
+      <c r="D47" s="291" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="292"/>
+      <c r="E47" s="290"/>
       <c r="F47" s="141" t="s">
         <v>182</v>
       </c>
@@ -57086,10 +57134,10 @@
       <c r="A48" s="168"/>
       <c r="B48" s="184"/>
       <c r="C48" s="189"/>
-      <c r="D48" s="290" t="s">
+      <c r="D48" s="291" t="s">
         <v>396</v>
       </c>
-      <c r="E48" s="292"/>
+      <c r="E48" s="290"/>
       <c r="F48" s="141" t="s">
         <v>397</v>
       </c>
@@ -57117,10 +57165,10 @@
       <c r="A49" s="168"/>
       <c r="B49" s="184"/>
       <c r="C49" s="189"/>
-      <c r="D49" s="290" t="s">
+      <c r="D49" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="E49" s="292"/>
+      <c r="E49" s="290"/>
       <c r="F49" s="141" t="s">
         <v>401</v>
       </c>
@@ -57148,10 +57196,10 @@
       <c r="A50" s="168"/>
       <c r="B50" s="184"/>
       <c r="C50" s="189"/>
-      <c r="D50" s="290" t="s">
+      <c r="D50" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="E50" s="292"/>
+      <c r="E50" s="290"/>
       <c r="F50" s="141" t="s">
         <v>405</v>
       </c>
@@ -57615,11 +57663,11 @@
     </row>
     <row r="75" spans="1:15" ht="20" customHeight="1">
       <c r="A75" s="168"/>
-      <c r="B75" s="304" t="s">
+      <c r="B75" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="C75" s="304"/>
-      <c r="D75" s="304"/>
+      <c r="C75" s="292"/>
+      <c r="D75" s="292"/>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
       <c r="G75" s="168"/>
@@ -57634,12 +57682,12 @@
     </row>
     <row r="76" spans="1:15" s="183" customFormat="1" ht="20" customHeight="1">
       <c r="A76" s="182"/>
-      <c r="B76" s="298" t="s">
+      <c r="B76" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C76" s="299"/>
-      <c r="D76" s="299"/>
-      <c r="E76" s="300"/>
+      <c r="C76" s="294"/>
+      <c r="D76" s="294"/>
+      <c r="E76" s="295"/>
       <c r="F76" s="174" t="s">
         <v>125</v>
       </c>
@@ -57731,10 +57779,10 @@
       <c r="A79" s="168"/>
       <c r="B79" s="184"/>
       <c r="C79" s="189"/>
-      <c r="D79" s="290" t="s">
+      <c r="D79" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E79" s="292"/>
+      <c r="E79" s="290"/>
       <c r="F79" s="139" t="s">
         <v>435</v>
       </c>
@@ -57764,10 +57812,10 @@
       <c r="A80" s="168"/>
       <c r="B80" s="184"/>
       <c r="C80" s="189"/>
-      <c r="D80" s="290" t="s">
+      <c r="D80" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="292"/>
+      <c r="E80" s="290"/>
       <c r="F80" s="139" t="s">
         <v>215</v>
       </c>
@@ -57797,10 +57845,10 @@
       <c r="A81" s="168"/>
       <c r="B81" s="184"/>
       <c r="C81" s="189"/>
-      <c r="D81" s="303" t="s">
+      <c r="D81" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E81" s="292"/>
+      <c r="E81" s="290"/>
       <c r="F81" s="139" t="s">
         <v>218</v>
       </c>
@@ -57894,8 +57942,8 @@
       <c r="A84" s="168"/>
       <c r="B84" s="192"/>
       <c r="C84" s="190"/>
-      <c r="D84" s="290"/>
-      <c r="E84" s="292"/>
+      <c r="D84" s="291"/>
+      <c r="E84" s="290"/>
       <c r="F84" s="139"/>
       <c r="G84" s="140"/>
       <c r="H84" s="140"/>
@@ -58285,17 +58333,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -58308,12 +58351,17 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -58417,15 +58465,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -58438,15 +58486,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -58480,15 +58528,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>527</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -58522,15 +58570,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -58593,19 +58641,19 @@
     </row>
     <row r="13" spans="1:15" ht="22" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -58634,11 +58682,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -58700,11 +58748,11 @@
       <c r="I16" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="J16" s="290" t="s">
+      <c r="J16" s="291" t="s">
         <v>448</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="292"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -58733,11 +58781,11 @@
       <c r="I17" s="141" t="s">
         <v>447</v>
       </c>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="291" t="s">
         <v>382</v>
       </c>
-      <c r="K17" s="291"/>
-      <c r="L17" s="292"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="290"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -58915,11 +58963,11 @@
     </row>
     <row r="27" spans="1:15" s="181" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="144"/>
-      <c r="B27" s="289" t="s">
+      <c r="B27" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="298"/>
       <c r="E27" s="179"/>
       <c r="F27" s="180"/>
       <c r="G27" s="179"/>
@@ -58934,12 +58982,12 @@
     </row>
     <row r="28" spans="1:15" s="183" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="182"/>
-      <c r="B28" s="298" t="s">
+      <c r="B28" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="300"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
+      <c r="E28" s="295"/>
       <c r="F28" s="174" t="s">
         <v>125</v>
       </c>
@@ -59031,10 +59079,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="189"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="292"/>
+      <c r="E31" s="290"/>
       <c r="F31" s="139" t="s">
         <v>435</v>
       </c>
@@ -59097,10 +59145,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="196"/>
       <c r="C33" s="190"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="139" t="s">
         <v>192</v>
       </c>
@@ -59385,11 +59433,11 @@
     </row>
     <row r="49" spans="1:15" ht="22" customHeight="1">
       <c r="A49" s="168"/>
-      <c r="B49" s="304" t="s">
+      <c r="B49" s="292" t="s">
         <v>420</v>
       </c>
-      <c r="C49" s="304"/>
-      <c r="D49" s="304"/>
+      <c r="C49" s="292"/>
+      <c r="D49" s="292"/>
       <c r="E49" s="168"/>
       <c r="F49" s="168"/>
       <c r="G49" s="168"/>
@@ -59404,12 +59452,12 @@
     </row>
     <row r="50" spans="1:15" s="183" customFormat="1" ht="22" customHeight="1">
       <c r="A50" s="182"/>
-      <c r="B50" s="298" t="s">
+      <c r="B50" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="300"/>
+      <c r="C50" s="294"/>
+      <c r="D50" s="294"/>
+      <c r="E50" s="295"/>
       <c r="F50" s="174" t="s">
         <v>125</v>
       </c>
@@ -59501,10 +59549,10 @@
       <c r="A53" s="168"/>
       <c r="B53" s="184"/>
       <c r="C53" s="189"/>
-      <c r="D53" s="290" t="s">
+      <c r="D53" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="292"/>
+      <c r="E53" s="290"/>
       <c r="F53" s="139" t="s">
         <v>435</v>
       </c>
@@ -59534,10 +59582,10 @@
       <c r="A54" s="168"/>
       <c r="B54" s="184"/>
       <c r="C54" s="189"/>
-      <c r="D54" s="290" t="s">
+      <c r="D54" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="292"/>
+      <c r="E54" s="290"/>
       <c r="F54" s="139" t="s">
         <v>215</v>
       </c>
@@ -59567,10 +59615,10 @@
       <c r="A55" s="168"/>
       <c r="B55" s="184"/>
       <c r="C55" s="189"/>
-      <c r="D55" s="303" t="s">
+      <c r="D55" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="292"/>
+      <c r="E55" s="290"/>
       <c r="F55" s="139" t="s">
         <v>218</v>
       </c>
@@ -60007,11 +60055,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -60024,6 +60067,11 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60124,15 +60172,15 @@
       <c r="B4" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="290" t="s">
+      <c r="C4" s="291" t="s">
         <v>453</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="292"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="290"/>
       <c r="J4" s="168"/>
       <c r="K4" s="168"/>
       <c r="L4" s="168"/>
@@ -60145,15 +60193,15 @@
       <c r="B5" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="290" t="s">
+      <c r="C5" s="291" t="s">
         <v>454</v>
       </c>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="292"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="168"/>
       <c r="K5" s="168"/>
       <c r="L5" s="168"/>
@@ -60187,15 +60235,15 @@
       <c r="B7" s="171" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="290" t="s">
+      <c r="C7" s="291" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="292"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="290"/>
       <c r="J7" s="168"/>
       <c r="K7" s="168"/>
       <c r="L7" s="168"/>
@@ -60229,15 +60277,15 @@
       <c r="B9" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="290" t="s">
+      <c r="C9" s="291" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="292"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="290"/>
       <c r="J9" s="168"/>
       <c r="K9" s="168"/>
       <c r="L9" s="168"/>
@@ -60300,19 +60348,19 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="300" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="294"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="294"/>
-      <c r="G13" s="294"/>
-      <c r="H13" s="294"/>
-      <c r="I13" s="294"/>
-      <c r="J13" s="294"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="295"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
+      <c r="I13" s="301"/>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301"/>
+      <c r="L13" s="302"/>
       <c r="M13" s="168"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
@@ -60341,11 +60389,11 @@
       <c r="I14" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="303"/>
       <c r="M14" s="168"/>
       <c r="N14" s="168"/>
       <c r="O14" s="168"/>
@@ -60407,11 +60455,11 @@
       <c r="I16" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="303" t="s">
+      <c r="J16" s="289" t="s">
         <v>458</v>
       </c>
-      <c r="K16" s="291"/>
-      <c r="L16" s="292"/>
+      <c r="K16" s="299"/>
+      <c r="L16" s="290"/>
       <c r="M16" s="168"/>
       <c r="N16" s="168"/>
       <c r="O16" s="168"/>
@@ -60440,11 +60488,11 @@
       <c r="I17" s="200" t="s">
         <v>459</v>
       </c>
-      <c r="J17" s="305" t="s">
+      <c r="J17" s="306" t="s">
         <v>460</v>
       </c>
-      <c r="K17" s="306"/>
-      <c r="L17" s="307"/>
+      <c r="K17" s="307"/>
+      <c r="L17" s="308"/>
       <c r="M17" s="168"/>
       <c r="N17" s="168"/>
       <c r="O17" s="168"/>
@@ -60589,11 +60637,11 @@
     </row>
     <row r="26" spans="1:15" s="181" customFormat="1" ht="19" customHeight="1">
       <c r="A26" s="144"/>
-      <c r="B26" s="289" t="s">
+      <c r="B26" s="298" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="289"/>
-      <c r="D26" s="289"/>
+      <c r="C26" s="298"/>
+      <c r="D26" s="298"/>
       <c r="E26" s="179"/>
       <c r="F26" s="180"/>
       <c r="G26" s="179"/>
@@ -60608,12 +60656,12 @@
     </row>
     <row r="27" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A27" s="182"/>
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="300"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
+      <c r="E27" s="295"/>
       <c r="F27" s="174" t="s">
         <v>125</v>
       </c>
@@ -60705,10 +60753,10 @@
       <c r="A30" s="168"/>
       <c r="B30" s="184"/>
       <c r="C30" s="189"/>
-      <c r="D30" s="290" t="s">
+      <c r="D30" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="292"/>
+      <c r="E30" s="290"/>
       <c r="F30" s="139" t="s">
         <v>435</v>
       </c>
@@ -60738,10 +60786,10 @@
       <c r="A31" s="168"/>
       <c r="B31" s="184"/>
       <c r="C31" s="190"/>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="292"/>
+      <c r="E31" s="290"/>
       <c r="F31" s="139" t="s">
         <v>192</v>
       </c>
@@ -60804,10 +60852,10 @@
       <c r="A33" s="168"/>
       <c r="B33" s="184"/>
       <c r="C33" s="191"/>
-      <c r="D33" s="290" t="s">
+      <c r="D33" s="291" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="292"/>
+      <c r="E33" s="290"/>
       <c r="F33" s="139" t="s">
         <v>196</v>
       </c>
@@ -60837,10 +60885,10 @@
       <c r="A34" s="168"/>
       <c r="B34" s="184"/>
       <c r="C34" s="191"/>
-      <c r="D34" s="301" t="s">
+      <c r="D34" s="296" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="302"/>
+      <c r="E34" s="297"/>
       <c r="F34" s="139" t="s">
         <v>163</v>
       </c>
@@ -60870,10 +60918,10 @@
       <c r="A35" s="168"/>
       <c r="B35" s="184"/>
       <c r="C35" s="189"/>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="292"/>
+      <c r="E35" s="290"/>
       <c r="F35" s="139" t="s">
         <v>173</v>
       </c>
@@ -60936,10 +60984,10 @@
       <c r="A37" s="168"/>
       <c r="B37" s="184"/>
       <c r="C37" s="189"/>
-      <c r="D37" s="290" t="s">
+      <c r="D37" s="291" t="s">
         <v>384</v>
       </c>
-      <c r="E37" s="292"/>
+      <c r="E37" s="290"/>
       <c r="F37" s="141" t="s">
         <v>385</v>
       </c>
@@ -60967,10 +61015,10 @@
       <c r="A38" s="168"/>
       <c r="B38" s="192"/>
       <c r="C38" s="190"/>
-      <c r="D38" s="290" t="s">
+      <c r="D38" s="291" t="s">
         <v>567</v>
       </c>
-      <c r="E38" s="292"/>
+      <c r="E38" s="290"/>
       <c r="F38" s="139" t="s">
         <v>568</v>
       </c>
@@ -61374,11 +61422,11 @@
     </row>
     <row r="61" spans="1:15" ht="19" customHeight="1">
       <c r="A61" s="168"/>
-      <c r="B61" s="304" t="s">
+      <c r="B61" s="292" t="s">
         <v>436</v>
       </c>
-      <c r="C61" s="304"/>
-      <c r="D61" s="304"/>
+      <c r="C61" s="292"/>
+      <c r="D61" s="292"/>
       <c r="E61" s="168"/>
       <c r="F61" s="168"/>
       <c r="G61" s="168"/>
@@ -61393,12 +61441,12 @@
     </row>
     <row r="62" spans="1:15" s="183" customFormat="1" ht="19" customHeight="1">
       <c r="A62" s="182"/>
-      <c r="B62" s="298" t="s">
+      <c r="B62" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="299"/>
-      <c r="D62" s="299"/>
-      <c r="E62" s="300"/>
+      <c r="C62" s="294"/>
+      <c r="D62" s="294"/>
+      <c r="E62" s="295"/>
       <c r="F62" s="174" t="s">
         <v>125</v>
       </c>
@@ -61490,10 +61538,10 @@
       <c r="A65" s="168"/>
       <c r="B65" s="184"/>
       <c r="C65" s="189"/>
-      <c r="D65" s="290" t="s">
+      <c r="D65" s="291" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="292"/>
+      <c r="E65" s="290"/>
       <c r="F65" s="139" t="s">
         <v>435</v>
       </c>
@@ -61523,10 +61571,10 @@
       <c r="A66" s="168"/>
       <c r="B66" s="184"/>
       <c r="C66" s="189"/>
-      <c r="D66" s="290" t="s">
+      <c r="D66" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="292"/>
+      <c r="E66" s="290"/>
       <c r="F66" s="139" t="s">
         <v>215</v>
       </c>
@@ -61556,10 +61604,10 @@
       <c r="A67" s="168"/>
       <c r="B67" s="184"/>
       <c r="C67" s="189"/>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="289" t="s">
         <v>220</v>
       </c>
-      <c r="E67" s="308"/>
+      <c r="E67" s="305"/>
       <c r="F67" s="139" t="s">
         <v>218</v>
       </c>
@@ -61653,8 +61701,8 @@
       <c r="A70" s="168"/>
       <c r="B70" s="192"/>
       <c r="C70" s="190"/>
-      <c r="D70" s="290"/>
-      <c r="E70" s="292"/>
+      <c r="D70" s="291"/>
+      <c r="E70" s="290"/>
       <c r="F70" s="139"/>
       <c r="G70" s="140"/>
       <c r="H70" s="140"/>
@@ -62044,11 +62092,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="J17:L17"/>
@@ -62061,12 +62110,11 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D70:E70"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
